--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -4213,7 +4213,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="268">
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279">
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287">
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403">
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="404">
@@ -6351,7 +6351,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="420">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="453">
@@ -7114,7 +7114,9 @@
           <t>L266S5120001</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr"/>
+      <c r="C473" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -7360,7 +7362,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="491">
@@ -7534,7 +7536,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503">
@@ -7549,7 +7551,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="504">
@@ -7689,7 +7691,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514">
@@ -7734,7 +7736,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="517">
@@ -7749,7 +7751,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="518">
@@ -10043,7 +10045,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="680">
@@ -10174,7 +10176,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="689">
@@ -10275,7 +10277,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="696">
@@ -10393,7 +10395,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="704">
@@ -11664,7 +11666,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="793">
@@ -11679,7 +11681,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="794">
@@ -12951,7 +12953,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884">
@@ -13539,7 +13541,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="926">
@@ -13629,7 +13631,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="932">
@@ -15455,7 +15457,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1062">
@@ -15554,7 +15556,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -15569,7 +15571,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1070">
@@ -15754,7 +15756,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1083">
@@ -15784,7 +15786,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1085">
@@ -15941,7 +15943,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1096">
@@ -16001,7 +16003,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1100">
@@ -19229,7 +19231,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1334">
@@ -22191,7 +22193,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1552">
@@ -23261,7 +23263,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1628">
@@ -23291,7 +23293,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1630">
@@ -23306,7 +23308,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1631">
@@ -23495,7 +23497,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1644">
@@ -24020,7 +24022,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1683">
@@ -24612,7 +24614,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1727">
@@ -24999,7 +25001,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1756">
@@ -33136,9 +33138,7 @@
           <t>CKJ226125417232</t>
         </is>
       </c>
-      <c r="C2361" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2361" t="inlineStr"/>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
@@ -44926,7 +44926,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3247">
@@ -46355,7 +46355,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3348">
@@ -52627,7 +52627,7 @@
         </is>
       </c>
       <c r="C3809" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3810">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -476,7 +476,9 @@
           <t>M20375519414</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -490,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +549,9 @@
           <t>M50295017971</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -771,7 +775,9 @@
           <t>N73405417005</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1060,7 +1066,9 @@
           <t>NK71585219553</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1088,7 +1096,9 @@
           <t>NK55445015413</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1187,7 +1197,9 @@
           <t>NK71585219001</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1295,7 +1307,9 @@
           <t>NK74055618001</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1447,7 +1461,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1475,7 +1489,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -1489,9 +1503,7 @@
           <t>275665118210</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1560,9 +1572,7 @@
           <t>P50195119620</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1821,7 +1831,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1988,7 +1998,9 @@
           <t>LO27185415215</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2014,7 +2026,9 @@
           <t>LO27365017242</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,7 +2085,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2498,7 +2512,9 @@
           <t>LO21625418710</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2720,7 +2736,9 @@
           <t>LO27455417001</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3078,7 +3096,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -3273,7 +3291,9 @@
           <t>SF22265317273</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3593,7 +3613,9 @@
           <t>SF29725416601</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3979,7 +4001,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252">
@@ -4138,7 +4160,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263">
@@ -4213,7 +4235,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268">
@@ -4270,7 +4292,9 @@
           <t>L22985417275</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4283,7 +4307,9 @@
           <t>245575115001</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4325,7 +4351,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>132</v>
+        <v>209</v>
       </c>
     </row>
     <row r="276">
@@ -4467,7 +4493,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286">
@@ -4497,7 +4523,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="288">
@@ -4526,9 +4552,7 @@
           <t>LO26955317603</t>
         </is>
       </c>
-      <c r="C289" t="n">
-        <v>1</v>
-      </c>
+      <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4541,7 +4565,9 @@
           <t>LO26965216603</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
+      <c r="C290" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -4567,7 +4593,9 @@
           <t>366795316272</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4622,7 +4650,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
@@ -4651,7 +4679,9 @@
           <t>LO27395216211</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4679,7 +4709,9 @@
           <t>LO2742L5216640</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4794,7 +4826,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
@@ -4835,7 +4867,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="312">
@@ -4849,7 +4881,9 @@
           <t>594435118001</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4863,7 +4897,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314">
@@ -4877,7 +4911,9 @@
           <t>CK225085716001</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
+      <c r="C314" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4932,7 +4968,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
@@ -4947,7 +4983,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="320">
@@ -5005,7 +5041,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -5077,7 +5113,9 @@
           <t>CKJ246285017605</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
+      <c r="C328" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5149,7 +5187,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -5332,7 +5370,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
@@ -5419,7 +5457,9 @@
           <t>CKJ24202S5913704</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
+      <c r="C352" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5879,7 +5919,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -6044,9 +6084,7 @@
           <t>DK50525316000</t>
         </is>
       </c>
-      <c r="C397" t="n">
-        <v>1</v>
-      </c>
+      <c r="C397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6131,7 +6169,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="404">
@@ -6214,7 +6252,9 @@
           <t>CK245205416200</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
+      <c r="C409" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6228,7 +6268,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="411">
@@ -6311,7 +6351,9 @@
           <t>CK245195317300</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -6337,7 +6379,9 @@
           <t>CK245435218240</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr"/>
+      <c r="C418" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6351,7 +6395,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="420">
@@ -6463,7 +6507,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428">
@@ -6790,7 +6834,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="451">
@@ -6818,7 +6862,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="453">
@@ -6859,7 +6903,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="456">
@@ -6945,7 +6989,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -7055,7 +7099,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="470">
@@ -7070,7 +7114,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="471">
@@ -7085,7 +7129,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472">
@@ -7100,7 +7144,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="473">
@@ -7130,7 +7174,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>148</v>
+        <v>235</v>
       </c>
     </row>
     <row r="475">
@@ -7160,7 +7204,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="477">
@@ -7203,7 +7247,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="480">
@@ -7272,7 +7316,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="485">
@@ -7287,7 +7331,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="486">
@@ -7302,7 +7346,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="487">
@@ -7317,7 +7361,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="488">
@@ -7347,7 +7391,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="490">
@@ -7377,7 +7421,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="492">
@@ -7407,7 +7451,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="494">
@@ -7422,7 +7466,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="495">
@@ -7437,7 +7481,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="496">
@@ -7521,7 +7565,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="502">
@@ -7536,7 +7580,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="503">
@@ -7579,7 +7623,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="506">
@@ -7620,7 +7664,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="509">
@@ -7635,7 +7679,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="510">
@@ -7649,7 +7693,9 @@
           <t>L23035318001</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr"/>
+      <c r="C510" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -7662,7 +7708,9 @@
           <t>L23035318601</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr"/>
+      <c r="C511" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -7691,7 +7739,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514">
@@ -7706,7 +7754,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="515">
@@ -7721,7 +7769,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="516">
@@ -7736,7 +7784,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="517">
@@ -7751,7 +7799,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518">
@@ -7794,7 +7842,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521">
@@ -7987,7 +8035,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="534">
@@ -8157,7 +8205,9 @@
           <t>467975418201</t>
         </is>
       </c>
-      <c r="C546" t="inlineStr"/>
+      <c r="C546" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -8229,7 +8279,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -8409,7 +8459,9 @@
           <t>M40195216001</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr"/>
+      <c r="C564" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -8423,7 +8475,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="566">
@@ -8438,7 +8490,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="567">
@@ -8497,7 +8549,9 @@
           <t>M50215215615</t>
         </is>
       </c>
-      <c r="C570" t="inlineStr"/>
+      <c r="C570" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -8541,7 +8595,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="574">
@@ -8599,7 +8653,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="578">
@@ -8629,7 +8683,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -8725,7 +8779,9 @@
           <t>443485717071</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr"/>
+      <c r="C586" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -8972,7 +9028,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -9386,9 +9442,7 @@
           <t>ZS235335517001</t>
         </is>
       </c>
-      <c r="C633" t="n">
-        <v>1</v>
-      </c>
+      <c r="C633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -10045,7 +10099,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="680">
@@ -10073,7 +10127,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682">
@@ -10088,7 +10142,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="683">
@@ -10131,7 +10185,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="686">
@@ -10161,7 +10215,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="688">
@@ -10176,7 +10230,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="689">
@@ -10191,7 +10245,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="690">
@@ -10206,7 +10260,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="691">
@@ -10233,7 +10287,9 @@
           <t>L29485318001</t>
         </is>
       </c>
-      <c r="C692" t="inlineStr"/>
+      <c r="C692" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -10277,7 +10333,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>161</v>
+        <v>220</v>
       </c>
     </row>
     <row r="696">
@@ -10320,7 +10376,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="699">
@@ -10335,7 +10391,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="700">
@@ -10350,7 +10406,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="701">
@@ -10705,7 +10761,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="726">
@@ -10952,7 +11008,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -11031,7 +11087,9 @@
           <t>CKJ223014618400</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr"/>
+      <c r="C748" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -11074,7 +11132,9 @@
           <t>CKJ24303S4717605</t>
         </is>
       </c>
-      <c r="C751" t="inlineStr"/>
+      <c r="C751" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -11087,7 +11147,9 @@
           <t>CKJ24601S5417002</t>
         </is>
       </c>
-      <c r="C752" t="inlineStr"/>
+      <c r="C752" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -11190,7 +11252,9 @@
           <t>CKJ246125217510</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -11262,7 +11326,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="765">
@@ -11606,7 +11670,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="789">
@@ -11636,7 +11700,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="791">
@@ -11651,7 +11715,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>161</v>
+        <v>241</v>
       </c>
     </row>
     <row r="792">
@@ -11666,7 +11730,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="793">
@@ -11681,7 +11745,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="794">
@@ -12183,7 +12247,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="830">
@@ -12198,7 +12262,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="831">
@@ -12213,7 +12277,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="832">
@@ -12256,7 +12320,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -12271,7 +12335,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="836">
@@ -12286,7 +12350,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="837">
@@ -12314,7 +12378,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="839">
@@ -12329,7 +12393,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -12359,7 +12423,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="842">
@@ -12374,7 +12438,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="843">
@@ -12648,7 +12712,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863">
@@ -12865,7 +12929,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="878">
@@ -12880,7 +12944,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="879">
@@ -12895,7 +12959,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="880">
@@ -12910,7 +12974,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="881">
@@ -12924,7 +12988,9 @@
           <t>L29465516275</t>
         </is>
       </c>
-      <c r="C881" t="inlineStr"/>
+      <c r="C881" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -12938,7 +13004,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="883">
@@ -12953,7 +13019,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884">
@@ -12968,7 +13034,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="885">
@@ -12982,7 +13048,9 @@
           <t>L23015318033</t>
         </is>
       </c>
-      <c r="C885" t="inlineStr"/>
+      <c r="C885" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -13011,7 +13079,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="888">
@@ -13026,7 +13094,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="889">
@@ -13041,7 +13109,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="890">
@@ -13071,7 +13139,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="892">
@@ -13101,7 +13169,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="894">
@@ -13167,7 +13235,9 @@
           <t>NK81565219070</t>
         </is>
       </c>
-      <c r="C898" t="inlineStr"/>
+      <c r="C898" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -13181,7 +13251,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="900">
@@ -13374,7 +13444,9 @@
           <t>CK23509S5122220</t>
         </is>
       </c>
-      <c r="C913" t="inlineStr"/>
+      <c r="C913" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -13403,7 +13475,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="916">
@@ -13456,9 +13528,7 @@
           <t>CK23503S5420320</t>
         </is>
       </c>
-      <c r="C919" t="n">
-        <v>3</v>
-      </c>
+      <c r="C919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -13526,7 +13596,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="925">
@@ -13541,7 +13611,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="926">
@@ -13556,7 +13626,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="927">
@@ -13571,7 +13641,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="928">
@@ -13586,7 +13656,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="929">
@@ -13631,7 +13701,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="932">
@@ -13646,7 +13716,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="933">
@@ -13660,7 +13730,9 @@
           <t>CK241015118770</t>
         </is>
       </c>
-      <c r="C933" t="inlineStr"/>
+      <c r="C933" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -13950,7 +14022,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="955">
@@ -13991,7 +14063,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="958">
@@ -14135,7 +14207,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968">
@@ -14205,9 +14277,7 @@
           <t>CKJ246115216210</t>
         </is>
       </c>
-      <c r="C972" t="n">
-        <v>1</v>
-      </c>
+      <c r="C972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -14515,7 +14585,9 @@
           <t>CV5073Y5017684</t>
         </is>
       </c>
-      <c r="C994" t="inlineStr"/>
+      <c r="C994" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -14792,7 +14864,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1015">
@@ -15457,7 +15529,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1062">
@@ -15541,7 +15613,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1068">
@@ -15556,7 +15628,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1069">
@@ -15571,7 +15643,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1070">
@@ -15614,7 +15686,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1073">
@@ -15629,7 +15701,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1074">
@@ -15658,7 +15730,9 @@
           <t>L29515517001</t>
         </is>
       </c>
-      <c r="C1075" t="inlineStr"/>
+      <c r="C1075" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
@@ -15712,7 +15786,9 @@
           <t>L29485318214</t>
         </is>
       </c>
-      <c r="C1079" t="inlineStr"/>
+      <c r="C1079" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -15741,7 +15817,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1082">
@@ -15771,7 +15847,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1084">
@@ -15786,7 +15862,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1085">
@@ -15801,7 +15877,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1086">
@@ -15829,7 +15905,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1088">
@@ -15889,7 +15965,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1092">
@@ -15943,7 +16019,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1096">
@@ -15958,7 +16034,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1097">
@@ -16003,7 +16079,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1100">
@@ -16528,9 +16604,7 @@
           <t>ALBRACE2015218070</t>
         </is>
       </c>
-      <c r="C1137" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1137" t="inlineStr"/>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
@@ -16598,7 +16672,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -16673,7 +16747,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148">
@@ -17447,7 +17521,9 @@
           <t>CKJ223014618701</t>
         </is>
       </c>
-      <c r="C1204" t="inlineStr"/>
+      <c r="C1204" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -17461,7 +17537,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1206">
@@ -19217,7 +19293,9 @@
           <t>NK70155517001</t>
         </is>
       </c>
-      <c r="C1332" t="inlineStr"/>
+      <c r="C1332" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -19231,7 +19309,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1334">
@@ -19432,7 +19510,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1349">
@@ -20109,7 +20187,9 @@
           <t>DK543S5516310</t>
         </is>
       </c>
-      <c r="C1396" t="inlineStr"/>
+      <c r="C1396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
@@ -20269,7 +20349,9 @@
           <t>435805316215</t>
         </is>
       </c>
-      <c r="C1408" t="inlineStr"/>
+      <c r="C1408" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
@@ -20529,7 +20611,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1428">
@@ -20544,7 +20626,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1429">
@@ -20680,7 +20762,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1439">
@@ -22039,7 +22121,9 @@
           <t>CK231275019717</t>
         </is>
       </c>
-      <c r="C1540" t="inlineStr"/>
+      <c r="C1540" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
@@ -22066,7 +22150,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -22081,7 +22165,7 @@
         </is>
       </c>
       <c r="C1543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1544">
@@ -22096,7 +22180,7 @@
         </is>
       </c>
       <c r="C1544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
@@ -22111,7 +22195,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1546">
@@ -22165,7 +22249,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1550">
@@ -22193,7 +22277,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1552">
@@ -22238,7 +22322,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1555">
@@ -22978,7 +23062,9 @@
           <t>CK235464919230</t>
         </is>
       </c>
-      <c r="C1607" t="inlineStr"/>
+      <c r="C1607" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
@@ -23089,7 +23175,7 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1616">
@@ -23130,7 +23216,7 @@
         </is>
       </c>
       <c r="C1618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1619">
@@ -23145,7 +23231,7 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1620">
@@ -23233,7 +23319,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1626">
@@ -23497,7 +23583,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1644">
@@ -23579,7 +23665,7 @@
         </is>
       </c>
       <c r="C1649" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1650">
@@ -23724,7 +23810,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1661">
@@ -23910,7 +23996,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1675">
@@ -24088,7 +24174,9 @@
           <t>451185316235</t>
         </is>
       </c>
-      <c r="C1687" t="inlineStr"/>
+      <c r="C1687" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
@@ -24455,7 +24543,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1716">
@@ -24483,7 +24571,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1718">
@@ -24498,7 +24586,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1719">
@@ -24539,7 +24627,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1722">
@@ -24554,7 +24642,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1723">
@@ -24584,7 +24672,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1725">
@@ -24599,7 +24687,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1726">
@@ -24614,7 +24702,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1727">
@@ -24774,7 +24862,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1739">
@@ -25001,7 +25089,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1756">
@@ -25041,7 +25129,9 @@
           <t>594435118208</t>
         </is>
       </c>
-      <c r="C1758" t="inlineStr"/>
+      <c r="C1758" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" t="inlineStr">
@@ -25225,7 +25315,9 @@
           <t>351554920046</t>
         </is>
       </c>
-      <c r="C1772" t="inlineStr"/>
+      <c r="C1772" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
@@ -25238,7 +25330,9 @@
           <t>351554920714</t>
         </is>
       </c>
-      <c r="C1773" t="inlineStr"/>
+      <c r="C1773" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" t="inlineStr">
@@ -29348,7 +29442,9 @@
           <t>CKJ223014618410</t>
         </is>
       </c>
-      <c r="C2087" t="inlineStr"/>
+      <c r="C2087" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2088">
       <c r="A2088" t="inlineStr">
@@ -31094,7 +31190,9 @@
           <t>CKJ22643S5220309</t>
         </is>
       </c>
-      <c r="C2211" t="inlineStr"/>
+      <c r="C2211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
@@ -31566,7 +31664,9 @@
           <t>CKJ23202S6016722</t>
         </is>
       </c>
-      <c r="C2245" t="inlineStr"/>
+      <c r="C2245" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2246">
       <c r="A2246" t="inlineStr">
@@ -31914,7 +32014,7 @@
         </is>
       </c>
       <c r="C2270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -31944,7 +32044,7 @@
         </is>
       </c>
       <c r="C2272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -31959,7 +32059,7 @@
         </is>
       </c>
       <c r="C2273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2274">
@@ -32708,7 +32808,9 @@
           <t>CKJ226505119971</t>
         </is>
       </c>
-      <c r="C2329" t="inlineStr"/>
+      <c r="C2329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
@@ -32789,7 +32891,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2336">
@@ -33124,7 +33226,7 @@
         </is>
       </c>
       <c r="C2360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2361">
@@ -33138,7 +33240,9 @@
           <t>CKJ226125417232</t>
         </is>
       </c>
-      <c r="C2361" t="inlineStr"/>
+      <c r="C2361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2362">
       <c r="A2362" t="inlineStr">
@@ -34042,7 +34146,7 @@
         </is>
       </c>
       <c r="C2430" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2431">
@@ -34163,7 +34267,7 @@
         </is>
       </c>
       <c r="C2439" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2440">
@@ -37254,7 +37358,9 @@
           <t>CV107S5120046</t>
         </is>
       </c>
-      <c r="C2675" t="inlineStr"/>
+      <c r="C2675" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
@@ -37717,7 +37823,7 @@
         </is>
       </c>
       <c r="C2707" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2708">
@@ -37744,7 +37850,9 @@
           <t>CV556S5120001</t>
         </is>
       </c>
-      <c r="C2709" t="inlineStr"/>
+      <c r="C2709" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
@@ -39640,7 +39748,9 @@
           <t>469555116420</t>
         </is>
       </c>
-      <c r="C2851" t="inlineStr"/>
+      <c r="C2851" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
@@ -40702,7 +40812,9 @@
           <t>469765519411</t>
         </is>
       </c>
-      <c r="C2931" t="inlineStr"/>
+      <c r="C2931" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2932">
       <c r="A2932" t="inlineStr">
@@ -44080,7 +44192,7 @@
         </is>
       </c>
       <c r="C3184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3185">
@@ -44911,7 +45023,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3246">
@@ -44926,7 +45038,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3247">
@@ -44997,7 +45109,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3252">
@@ -45266,7 +45378,7 @@
         </is>
       </c>
       <c r="C3270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3271">
@@ -45363,7 +45475,7 @@
         </is>
       </c>
       <c r="C3277" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3278">
@@ -45587,7 +45699,7 @@
         </is>
       </c>
       <c r="C3293" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3294">
@@ -45768,7 +45880,7 @@
         </is>
       </c>
       <c r="C3306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3307">
@@ -45828,7 +45940,7 @@
         </is>
       </c>
       <c r="C3310" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3311">
@@ -45843,7 +45955,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>151</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3312">
@@ -45858,7 +45970,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3313">
@@ -45887,7 +45999,9 @@
           <t>L29365417424</t>
         </is>
       </c>
-      <c r="C3314" t="inlineStr"/>
+      <c r="C3314" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3315">
       <c r="A3315" t="inlineStr">
@@ -45955,7 +46069,7 @@
         </is>
       </c>
       <c r="C3319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3320">
@@ -46131,7 +46245,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3332">
@@ -46145,9 +46259,7 @@
           <t>L29415020218</t>
         </is>
       </c>
-      <c r="C3332" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3332" t="inlineStr"/>
     </row>
     <row r="3333">
       <c r="A3333" t="inlineStr">
@@ -46161,7 +46273,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3334">
@@ -46243,7 +46355,7 @@
         </is>
       </c>
       <c r="C3339" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3340">
@@ -46355,7 +46467,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>348</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3348">
@@ -46385,7 +46497,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3350">
@@ -46400,7 +46512,7 @@
         </is>
       </c>
       <c r="C3350" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3351">
@@ -46532,9 +46644,7 @@
           <t>L6014S5519001</t>
         </is>
       </c>
-      <c r="C3359" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3359" t="inlineStr"/>
     </row>
     <row r="3360">
       <c r="A3360" t="inlineStr">
@@ -47035,7 +47145,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>141</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3396">
@@ -48236,7 +48346,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3483">
@@ -48585,7 +48695,7 @@
         </is>
       </c>
       <c r="C3507" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3508">
@@ -48775,7 +48885,7 @@
         </is>
       </c>
       <c r="C3521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3522">
@@ -49125,7 +49235,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3548">
@@ -49179,7 +49289,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3552">
@@ -49262,7 +49372,9 @@
           <t>460745619424</t>
         </is>
       </c>
-      <c r="C3557" t="inlineStr"/>
+      <c r="C3557" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3558">
       <c r="A3558" t="inlineStr">
@@ -49289,7 +49401,7 @@
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3560">
@@ -49317,7 +49429,7 @@
         </is>
       </c>
       <c r="C3561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3562">
@@ -49453,7 +49565,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>218</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3572">
@@ -49468,7 +49580,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3573">
@@ -49483,7 +49595,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3574">
@@ -49498,7 +49610,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3575">
@@ -49512,7 +49624,9 @@
           <t>401095418033</t>
         </is>
       </c>
-      <c r="C3575" t="inlineStr"/>
+      <c r="C3575" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3576">
       <c r="A3576" t="inlineStr">
@@ -49662,7 +49776,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3587">
@@ -49677,7 +49791,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3588">
@@ -49812,7 +49926,9 @@
           <t>215155417001</t>
         </is>
       </c>
-      <c r="C3597" t="inlineStr"/>
+      <c r="C3597" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3598">
       <c r="A3598" t="inlineStr">
@@ -50086,7 +50202,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>136</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3619">
@@ -50172,7 +50288,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3625">
@@ -50187,7 +50303,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3626">
@@ -50692,7 +50808,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3663">
@@ -56276,9 +56392,7 @@
           <t>LO27265415435</t>
         </is>
       </c>
-      <c r="C4089" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4089" t="inlineStr"/>
     </row>
     <row r="4090">
       <c r="A4090" t="inlineStr">
@@ -56528,7 +56642,9 @@
           <t>LO21605018705</t>
         </is>
       </c>
-      <c r="C4107" t="inlineStr"/>
+      <c r="C4107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4108">
       <c r="A4108" t="inlineStr">
@@ -56704,7 +56820,7 @@
         </is>
       </c>
       <c r="C4120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4121">
@@ -56731,9 +56847,7 @@
           <t>LO27085317230</t>
         </is>
       </c>
-      <c r="C4122" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4122" t="inlineStr"/>
     </row>
     <row r="4123">
       <c r="A4123" t="inlineStr">
@@ -56856,9 +56970,7 @@
           <t>LO27275315001</t>
         </is>
       </c>
-      <c r="C4131" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4131" t="inlineStr"/>
     </row>
     <row r="4132">
       <c r="A4132" t="inlineStr">
@@ -57002,7 +57114,9 @@
           <t>LO27295116319</t>
         </is>
       </c>
-      <c r="C4141" t="inlineStr"/>
+      <c r="C4141" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4142">
       <c r="A4142" t="inlineStr">
@@ -57073,9 +57187,7 @@
           <t>LO27315214001</t>
         </is>
       </c>
-      <c r="C4146" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4146" t="inlineStr"/>
     </row>
     <row r="4147">
       <c r="A4147" t="inlineStr">
@@ -57119,7 +57231,7 @@
         </is>
       </c>
       <c r="C4149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4150">
@@ -57206,7 +57318,9 @@
           <t>LO27335216200</t>
         </is>
       </c>
-      <c r="C4155" t="inlineStr"/>
+      <c r="C4155" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4156">
       <c r="A4156" t="inlineStr">
@@ -57471,7 +57585,9 @@
           <t>LO741S5517306</t>
         </is>
       </c>
-      <c r="C4174" t="inlineStr"/>
+      <c r="C4174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4175">
       <c r="A4175" t="inlineStr">
@@ -59768,7 +59884,9 @@
           <t>395755717005</t>
         </is>
       </c>
-      <c r="C4341" t="inlineStr"/>
+      <c r="C4341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4342">
       <c r="A4342" t="inlineStr">
@@ -61580,9 +61698,7 @@
           <t>NK50385014002</t>
         </is>
       </c>
-      <c r="C4479" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4479" t="inlineStr"/>
     </row>
     <row r="4480">
       <c r="A4480" t="inlineStr">
@@ -61595,7 +61711,9 @@
           <t>NK50385014006</t>
         </is>
       </c>
-      <c r="C4480" t="inlineStr"/>
+      <c r="C4480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4481">
       <c r="A4481" t="inlineStr">
@@ -61690,7 +61808,9 @@
           <t>NK70565320423</t>
         </is>
       </c>
-      <c r="C4487" t="inlineStr"/>
+      <c r="C4487" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4488">
       <c r="A4488" t="inlineStr">
@@ -61717,7 +61837,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4490">
@@ -61731,7 +61851,9 @@
           <t>NK70575417033</t>
         </is>
       </c>
-      <c r="C4490" t="inlineStr"/>
+      <c r="C4490" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4491">
       <c r="A4491" t="inlineStr">
@@ -61954,7 +62076,7 @@
         </is>
       </c>
       <c r="C4506" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4507">
@@ -61968,7 +62090,9 @@
           <t>NK81545317076</t>
         </is>
       </c>
-      <c r="C4507" t="inlineStr"/>
+      <c r="C4507" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4508">
       <c r="A4508" t="inlineStr">
@@ -62374,7 +62498,9 @@
           <t>NKFV24035517222</t>
         </is>
       </c>
-      <c r="C4537" t="inlineStr"/>
+      <c r="C4537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4538">
       <c r="A4538" t="inlineStr">
@@ -62994,9 +63120,7 @@
           <t>NKFD18185417021</t>
         </is>
       </c>
-      <c r="C4583" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4583" t="inlineStr"/>
     </row>
     <row r="4584">
       <c r="A4584" t="inlineStr">
@@ -63126,7 +63250,9 @@
           <t>NKFD18505120901</t>
         </is>
       </c>
-      <c r="C4593" t="inlineStr"/>
+      <c r="C4593" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4594">
       <c r="A4594" t="inlineStr">
@@ -64031,7 +64157,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4662">
@@ -64963,7 +65089,9 @@
           <t>327925115422</t>
         </is>
       </c>
-      <c r="C4732" t="inlineStr"/>
+      <c r="C4732" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4733">
       <c r="A4733" t="inlineStr">
@@ -66041,7 +66169,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4814">
@@ -66097,7 +66225,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4818">
@@ -66138,7 +66266,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4821">
@@ -66168,7 +66296,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4823">
@@ -66182,7 +66310,9 @@
           <t>420375416305</t>
         </is>
       </c>
-      <c r="C4823" t="inlineStr"/>
+      <c r="C4823" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4824">
       <c r="A4824" t="inlineStr">
@@ -66223,7 +66353,9 @@
           <t>420385514413</t>
         </is>
       </c>
-      <c r="C4826" t="inlineStr"/>
+      <c r="C4826" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4827">
       <c r="A4827" t="inlineStr">
@@ -66714,9 +66846,7 @@
           <t>404295417034</t>
         </is>
       </c>
-      <c r="C4863" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4863" t="inlineStr"/>
     </row>
     <row r="4864">
       <c r="A4864" t="inlineStr">
@@ -66889,7 +67019,9 @@
           <t>398635020036</t>
         </is>
       </c>
-      <c r="C4876" t="inlineStr"/>
+      <c r="C4876" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4877">
       <c r="A4877" t="inlineStr">
@@ -66929,7 +67061,7 @@
         </is>
       </c>
       <c r="C4879" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4880">
@@ -67763,7 +67895,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4944">
@@ -67777,7 +67909,9 @@
           <t>420355616001</t>
         </is>
       </c>
-      <c r="C4944" t="inlineStr"/>
+      <c r="C4944" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4945">
       <c r="A4945" t="inlineStr">
@@ -71517,9 +71651,7 @@
           <t>455595418210</t>
         </is>
       </c>
-      <c r="C5228" t="n">
-        <v>2</v>
-      </c>
+      <c r="C5228" t="inlineStr"/>
     </row>
     <row r="5229">
       <c r="A5229" t="inlineStr">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -861,9 +861,7 @@
           <t>NKEV240125419013</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1067,7 +1065,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1080,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1181,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1197,9 +1195,7 @@
           <t>NK71585219001</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1308,7 +1304,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1351,7 +1347,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1461,7 +1457,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1727,9 +1723,7 @@
           <t>ZS241455317303</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2027,7 +2021,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -2056,9 +2050,7 @@
           <t>LO27405115505</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>1</v>
-      </c>
+      <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2085,7 +2077,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -2513,7 +2505,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2736,9 +2728,7 @@
           <t>LO27455417001</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
+      <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3930,7 +3920,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="247">
@@ -4001,7 +3991,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252">
@@ -4145,7 +4135,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262">
@@ -4160,7 +4150,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263">
@@ -4190,7 +4180,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -4235,7 +4225,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268">
@@ -4336,7 +4326,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -4351,7 +4341,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276">
@@ -4424,7 +4414,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281">
@@ -4465,7 +4455,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="284">
@@ -4508,7 +4498,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287">
@@ -4867,7 +4857,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="312">
@@ -4912,7 +4902,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
@@ -4983,7 +4973,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="320">
@@ -5086,7 +5076,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -5186,9 +5176,7 @@
           <t>CKJ246125217050</t>
         </is>
       </c>
-      <c r="C333" t="n">
-        <v>2</v>
-      </c>
+      <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5457,9 +5445,7 @@
           <t>CKJ24202S5913704</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>5</v>
-      </c>
+      <c r="C352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -6029,7 +6015,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="394">
@@ -6139,7 +6125,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402">
@@ -6154,7 +6140,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403">
@@ -6169,7 +6155,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="404">
@@ -6253,7 +6239,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -6268,7 +6254,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="411">
@@ -6352,7 +6338,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -6380,7 +6366,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="419">
@@ -6395,7 +6381,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="420">
@@ -6709,7 +6695,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442">
@@ -6749,9 +6735,7 @@
           <t>CK245435218001</t>
         </is>
       </c>
-      <c r="C444" t="n">
-        <v>16</v>
-      </c>
+      <c r="C444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -6793,7 +6777,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448">
@@ -6862,7 +6846,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="453">
@@ -6903,7 +6887,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="456">
@@ -6989,7 +6973,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462">
@@ -7004,7 +6988,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="463">
@@ -7019,7 +7003,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="464">
@@ -7099,7 +7083,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="470">
@@ -7114,7 +7098,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="471">
@@ -7144,7 +7128,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473">
@@ -7158,9 +7142,7 @@
           <t>L266S5120001</t>
         </is>
       </c>
-      <c r="C473" t="n">
-        <v>16</v>
-      </c>
+      <c r="C473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -7174,7 +7156,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="475">
@@ -7204,7 +7186,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="477">
@@ -7247,7 +7229,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480">
@@ -7288,7 +7270,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="483">
@@ -7316,7 +7298,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="485">
@@ -7346,7 +7328,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="487">
@@ -7361,7 +7343,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="488">
@@ -7391,7 +7373,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="490">
@@ -7406,7 +7388,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="491">
@@ -7421,7 +7403,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="492">
@@ -7436,7 +7418,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="493">
@@ -7451,7 +7433,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="494">
@@ -7466,7 +7448,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="495">
@@ -7481,7 +7463,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="496">
@@ -7522,7 +7504,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="499">
@@ -7565,7 +7547,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="502">
@@ -7580,7 +7562,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -7595,7 +7577,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="504">
@@ -7622,9 +7604,7 @@
           <t>L6040S5120210</t>
         </is>
       </c>
-      <c r="C505" t="n">
-        <v>17</v>
-      </c>
+      <c r="C505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -7679,7 +7659,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="510">
@@ -7694,7 +7674,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="511">
@@ -7709,7 +7689,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="512">
@@ -7724,7 +7704,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513">
@@ -7739,7 +7719,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="514">
@@ -7754,7 +7734,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="515">
@@ -7769,7 +7749,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="516">
@@ -7784,7 +7764,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="517">
@@ -7814,7 +7794,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="519">
@@ -7842,7 +7822,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="521">
@@ -7872,7 +7852,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -8206,7 +8186,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="547">
@@ -8279,7 +8259,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -8475,7 +8455,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="566">
@@ -8623,7 +8603,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576">
@@ -8683,7 +8663,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580">
@@ -8711,7 +8691,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="582">
@@ -8725,7 +8705,9 @@
           <t>N73285517005</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr"/>
+      <c r="C582" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -8739,7 +8721,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="584">
@@ -8807,7 +8789,9 @@
           <t>NK60465517001</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr"/>
+      <c r="C588" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -9553,7 +9537,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="642">
@@ -10099,7 +10083,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="680">
@@ -10142,7 +10126,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="683">
@@ -10200,7 +10184,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -10215,7 +10199,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="688">
@@ -10230,7 +10214,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="689">
@@ -10245,7 +10229,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="690">
@@ -10288,7 +10272,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693">
@@ -10333,7 +10317,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="696">
@@ -10348,7 +10332,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="697">
@@ -10391,7 +10375,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="700">
@@ -10406,7 +10390,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="701">
@@ -10451,7 +10435,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="704">
@@ -11008,7 +10992,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -11088,7 +11072,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -11148,7 +11132,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="753">
@@ -11253,7 +11237,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760">
@@ -11295,9 +11279,7 @@
           <t>CKJ246135019309</t>
         </is>
       </c>
-      <c r="C762" t="n">
-        <v>1</v>
-      </c>
+      <c r="C762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -11416,7 +11398,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="771">
@@ -11625,7 +11607,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="786">
@@ -11655,7 +11637,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="788">
@@ -11700,7 +11682,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="791">
@@ -11715,7 +11697,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="792">
@@ -11730,7 +11712,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="793">
@@ -11745,7 +11727,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="794">
@@ -12232,7 +12214,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="829">
@@ -12262,7 +12244,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="831">
@@ -12277,7 +12259,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="832">
@@ -12320,7 +12302,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="835">
@@ -12335,7 +12317,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="836">
@@ -12378,7 +12360,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="839">
@@ -12408,7 +12390,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="841">
@@ -12438,7 +12420,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="843">
@@ -12944,7 +12926,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="879">
@@ -12959,7 +12941,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="880">
@@ -12974,7 +12956,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="881">
@@ -12989,7 +12971,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882">
@@ -13004,7 +12986,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="883">
@@ -13064,7 +13046,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="887">
@@ -13139,7 +13121,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="892">
@@ -13169,7 +13151,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="894">
@@ -13222,7 +13204,9 @@
           <t>NK72745020410</t>
         </is>
       </c>
-      <c r="C897" t="inlineStr"/>
+      <c r="C897" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -13236,7 +13220,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="899">
@@ -13251,7 +13235,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="900">
@@ -13309,7 +13293,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -13445,7 +13429,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914">
@@ -13475,7 +13459,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="916">
@@ -13596,7 +13580,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="925">
@@ -13611,7 +13595,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="926">
@@ -13626,7 +13610,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="927">
@@ -13641,7 +13625,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="928">
@@ -13656,7 +13640,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="929">
@@ -13701,7 +13685,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="932">
@@ -13731,7 +13715,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="934">
@@ -14304,7 +14288,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="975">
@@ -14420,7 +14404,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="983">
@@ -14892,7 +14876,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1017">
@@ -15585,7 +15569,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1066">
@@ -15613,7 +15597,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1068">
@@ -15731,7 +15715,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1076">
@@ -15787,7 +15771,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -15817,7 +15801,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1082">
@@ -15847,7 +15831,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1084">
@@ -15862,7 +15846,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1085">
@@ -15877,7 +15861,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1086">
@@ -15905,7 +15889,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1088">
@@ -15965,7 +15949,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1092">
@@ -16019,7 +16003,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1096">
@@ -16034,7 +16018,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097">
@@ -16079,7 +16063,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1100">
@@ -16328,7 +16312,9 @@
           <t>NK72725615034</t>
         </is>
       </c>
-      <c r="C1117" t="inlineStr"/>
+      <c r="C1117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
@@ -16493,7 +16479,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1130">
@@ -16562,7 +16548,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1135">
@@ -17522,7 +17508,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205">
@@ -17972,7 +17958,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237">
@@ -18930,7 +18916,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307">
@@ -19001,7 +18987,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -19100,7 +19086,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1319">
@@ -19294,7 +19280,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333">
@@ -19309,7 +19295,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1334">
@@ -19510,7 +19496,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1349">
@@ -20762,7 +20748,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1439">
@@ -22094,7 +22080,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1539">
@@ -22122,7 +22108,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1541">
@@ -22249,7 +22235,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1550">
@@ -22277,7 +22263,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1552">
@@ -22322,7 +22308,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1555">
@@ -23062,9 +23048,7 @@
           <t>CK235464919230</t>
         </is>
       </c>
-      <c r="C1607" t="n">
-        <v>6</v>
-      </c>
+      <c r="C1607" t="inlineStr"/>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
@@ -23160,7 +23144,7 @@
         </is>
       </c>
       <c r="C1614" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1615">
@@ -23174,9 +23158,7 @@
           <t>CK235495019035</t>
         </is>
       </c>
-      <c r="C1615" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1615" t="inlineStr"/>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
@@ -23319,7 +23301,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1626">
@@ -23379,7 +23361,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1630">
@@ -23394,7 +23376,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1631">
@@ -23409,7 +23391,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1632">
@@ -23467,7 +23449,7 @@
         </is>
       </c>
       <c r="C1635" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1636">
@@ -23497,7 +23479,7 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1638">
@@ -23512,7 +23494,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1639">
@@ -23568,7 +23550,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1643">
@@ -23583,7 +23565,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1644">
@@ -23996,7 +23978,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1675">
@@ -24108,7 +24090,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="1683">
@@ -24175,7 +24157,7 @@
         </is>
       </c>
       <c r="C1687" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1688">
@@ -24571,7 +24553,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1718">
@@ -24586,7 +24568,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1719">
@@ -24627,7 +24609,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1722">
@@ -24642,7 +24624,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1723">
@@ -24687,7 +24669,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1726">
@@ -24702,7 +24684,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1727">
@@ -24717,7 +24699,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1728">
@@ -24862,7 +24844,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1739">
@@ -25074,7 +25056,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1755">
@@ -25089,7 +25071,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1756">
@@ -25130,7 +25112,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1759">
@@ -25316,7 +25298,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="1773">
@@ -25331,7 +25313,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1774">
@@ -25951,9 +25933,7 @@
           <t>380555316240</t>
         </is>
       </c>
-      <c r="C1820" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1820" t="inlineStr"/>
     </row>
     <row r="1821">
       <c r="A1821" t="inlineStr">
@@ -29583,7 +29563,7 @@
         </is>
       </c>
       <c r="C2097" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2098">
@@ -30092,7 +30072,7 @@
         </is>
       </c>
       <c r="C2134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2135">
@@ -30122,7 +30102,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2137">
@@ -30468,7 +30448,7 @@
         </is>
       </c>
       <c r="C2160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -30498,7 +30478,7 @@
         </is>
       </c>
       <c r="C2162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2163">
@@ -30513,7 +30493,7 @@
         </is>
       </c>
       <c r="C2163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2164">
@@ -31244,9 +31224,7 @@
           <t>CKJ222075518400</t>
         </is>
       </c>
-      <c r="C2215" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2215" t="inlineStr"/>
     </row>
     <row r="2216">
       <c r="A2216" t="inlineStr">
@@ -32268,7 +32246,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2289">
@@ -32283,7 +32261,7 @@
         </is>
       </c>
       <c r="C2289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2290">
@@ -32891,7 +32869,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2336">
@@ -33750,7 +33728,7 @@
         </is>
       </c>
       <c r="C2400" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2401">
@@ -34252,7 +34230,7 @@
         </is>
       </c>
       <c r="C2438" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2439">
@@ -34267,7 +34245,7 @@
         </is>
       </c>
       <c r="C2439" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2440">
@@ -37428,7 +37406,7 @@
         </is>
       </c>
       <c r="C2680" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2681">
@@ -37443,7 +37421,7 @@
         </is>
       </c>
       <c r="C2681" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2682">
@@ -37458,7 +37436,7 @@
         </is>
       </c>
       <c r="C2682" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2683">
@@ -37473,7 +37451,7 @@
         </is>
       </c>
       <c r="C2683" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2684">
@@ -37488,7 +37466,7 @@
         </is>
       </c>
       <c r="C2684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2685">
@@ -37503,7 +37481,7 @@
         </is>
       </c>
       <c r="C2685" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2686">
@@ -37518,7 +37496,7 @@
         </is>
       </c>
       <c r="C2686" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2687">
@@ -37533,7 +37511,7 @@
         </is>
       </c>
       <c r="C2687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2688">
@@ -37866,7 +37844,7 @@
         </is>
       </c>
       <c r="C2710" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2711">
@@ -38339,7 +38317,7 @@
         </is>
       </c>
       <c r="C2745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2746">
@@ -40813,7 +40791,7 @@
         </is>
       </c>
       <c r="C2931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2932">
@@ -42706,7 +42684,7 @@
         </is>
       </c>
       <c r="C3076" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3077">
@@ -42721,7 +42699,7 @@
         </is>
       </c>
       <c r="C3077" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3078">
@@ -42736,7 +42714,7 @@
         </is>
       </c>
       <c r="C3078" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3079">
@@ -42751,7 +42729,7 @@
         </is>
       </c>
       <c r="C3079" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3080">
@@ -42833,7 +42811,7 @@
         </is>
       </c>
       <c r="C3085" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3086">
@@ -42848,7 +42826,7 @@
         </is>
       </c>
       <c r="C3086" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3087">
@@ -42863,7 +42841,7 @@
         </is>
       </c>
       <c r="C3087" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3088">
@@ -42893,7 +42871,7 @@
         </is>
       </c>
       <c r="C3089" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3090">
@@ -42908,7 +42886,7 @@
         </is>
       </c>
       <c r="C3090" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3091">
@@ -42923,7 +42901,7 @@
         </is>
       </c>
       <c r="C3091" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3092">
@@ -45023,7 +45001,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3246">
@@ -45109,7 +45087,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3252">
@@ -45270,7 +45248,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3263">
@@ -45350,7 +45328,7 @@
         </is>
       </c>
       <c r="C3268" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3269">
@@ -45378,7 +45356,7 @@
         </is>
       </c>
       <c r="C3270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3271">
@@ -45393,7 +45371,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3272">
@@ -45561,7 +45539,7 @@
         </is>
       </c>
       <c r="C3283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3284">
@@ -45591,7 +45569,7 @@
         </is>
       </c>
       <c r="C3285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3286">
@@ -45880,7 +45858,7 @@
         </is>
       </c>
       <c r="C3306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3307">
@@ -45894,9 +45872,7 @@
           <t>L29355318001</t>
         </is>
       </c>
-      <c r="C3307" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3307" t="inlineStr"/>
     </row>
     <row r="3308">
       <c r="A3308" t="inlineStr">
@@ -45910,7 +45886,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3309">
@@ -45970,7 +45946,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3313">
@@ -46214,9 +46190,7 @@
           <t>L29405716272</t>
         </is>
       </c>
-      <c r="C3329" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3329" t="inlineStr"/>
     </row>
     <row r="3330">
       <c r="A3330" t="inlineStr">
@@ -46467,7 +46441,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3348">
@@ -46482,7 +46456,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3349">
@@ -46497,7 +46471,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3350">
@@ -46717,9 +46691,7 @@
           <t>L6015S4922218</t>
         </is>
       </c>
-      <c r="C3364" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3364" t="inlineStr"/>
     </row>
     <row r="3365">
       <c r="A3365" t="inlineStr">
@@ -47145,7 +47117,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3396">
@@ -47759,7 +47731,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3440">
@@ -48346,7 +48318,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3483">
@@ -49086,7 +49058,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3537">
@@ -49373,7 +49345,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3558">
@@ -49565,7 +49537,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3572">
@@ -49580,7 +49552,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3573">
@@ -49595,7 +49567,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3574">
@@ -49610,7 +49582,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3575">
@@ -49776,7 +49748,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3587">
@@ -49791,7 +49763,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3588">
@@ -49847,7 +49819,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3592">
@@ -50202,7 +50174,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3619">
@@ -50288,7 +50260,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3625">
@@ -52728,7 +52700,7 @@
         </is>
       </c>
       <c r="C3808" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3809">
@@ -52743,7 +52715,7 @@
         </is>
       </c>
       <c r="C3809" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3810">
@@ -56970,7 +56942,9 @@
           <t>LO27275315001</t>
         </is>
       </c>
-      <c r="C4131" t="inlineStr"/>
+      <c r="C4131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4132">
       <c r="A4132" t="inlineStr">
@@ -57115,7 +57089,7 @@
         </is>
       </c>
       <c r="C4141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4142">
@@ -57319,7 +57293,7 @@
         </is>
       </c>
       <c r="C4155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4156">
@@ -58160,7 +58134,7 @@
         </is>
       </c>
       <c r="C4216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4217">
@@ -58190,7 +58164,7 @@
         </is>
       </c>
       <c r="C4218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4219">
@@ -58205,7 +58179,7 @@
         </is>
       </c>
       <c r="C4219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4220">
@@ -58220,7 +58194,7 @@
         </is>
       </c>
       <c r="C4220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4221">
@@ -58247,7 +58221,9 @@
           <t>N2246S5815210</t>
         </is>
       </c>
-      <c r="C4222" t="inlineStr"/>
+      <c r="C4222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4223">
       <c r="A4223" t="inlineStr">
@@ -58303,7 +58279,9 @@
           <t>451315618215</t>
         </is>
       </c>
-      <c r="C4226" t="inlineStr"/>
+      <c r="C4226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4227">
       <c r="A4227" t="inlineStr">
@@ -58440,7 +58418,7 @@
         </is>
       </c>
       <c r="C4236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4237">
@@ -58495,7 +58473,9 @@
           <t>N6254S5718001</t>
         </is>
       </c>
-      <c r="C4240" t="inlineStr"/>
+      <c r="C4240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4241">
       <c r="A4241" t="inlineStr">
@@ -58509,7 +58489,7 @@
         </is>
       </c>
       <c r="C4241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4242">
@@ -58524,7 +58504,7 @@
         </is>
       </c>
       <c r="C4242" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4243">
@@ -58539,7 +58519,7 @@
         </is>
       </c>
       <c r="C4243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4244">
@@ -58554,7 +58534,7 @@
         </is>
       </c>
       <c r="C4244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4245">
@@ -58569,7 +58549,7 @@
         </is>
       </c>
       <c r="C4245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4246">
@@ -58584,7 +58564,7 @@
         </is>
       </c>
       <c r="C4246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4247">
@@ -58653,7 +58633,7 @@
         </is>
       </c>
       <c r="C4251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4252">
@@ -58668,7 +58648,7 @@
         </is>
       </c>
       <c r="C4252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4253">
@@ -58683,7 +58663,7 @@
         </is>
       </c>
       <c r="C4253" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4254">
@@ -58698,7 +58678,7 @@
         </is>
       </c>
       <c r="C4254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4255">
@@ -58818,7 +58798,9 @@
           <t>N81795218001</t>
         </is>
       </c>
-      <c r="C4263" t="inlineStr"/>
+      <c r="C4263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4264">
       <c r="A4264" t="inlineStr">
@@ -58832,7 +58814,7 @@
         </is>
       </c>
       <c r="C4264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4265">
@@ -58862,7 +58844,7 @@
         </is>
       </c>
       <c r="C4266" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4267">
@@ -58972,7 +58954,7 @@
         </is>
       </c>
       <c r="C4274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4275">
@@ -58987,7 +58969,7 @@
         </is>
       </c>
       <c r="C4275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4276">
@@ -59002,7 +58984,7 @@
         </is>
       </c>
       <c r="C4276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4277">
@@ -59139,7 +59121,9 @@
           <t>N6253S5618001</t>
         </is>
       </c>
-      <c r="C4286" t="inlineStr"/>
+      <c r="C4286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4287">
       <c r="A4287" t="inlineStr">
@@ -59153,7 +59137,7 @@
         </is>
       </c>
       <c r="C4287" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4288">
@@ -59183,7 +59167,7 @@
         </is>
       </c>
       <c r="C4289" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4290">
@@ -59198,7 +59182,7 @@
         </is>
       </c>
       <c r="C4290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4291">
@@ -59212,7 +59196,9 @@
           <t>N6255S5720015</t>
         </is>
       </c>
-      <c r="C4291" t="inlineStr"/>
+      <c r="C4291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4292">
       <c r="A4292" t="inlineStr">
@@ -59226,7 +59212,7 @@
         </is>
       </c>
       <c r="C4292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4293">
@@ -59241,7 +59227,7 @@
         </is>
       </c>
       <c r="C4293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4294">
@@ -59336,7 +59322,7 @@
         </is>
       </c>
       <c r="C4300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4301">
@@ -59685,7 +59671,9 @@
           <t>451265518005</t>
         </is>
       </c>
-      <c r="C4326" t="inlineStr"/>
+      <c r="C4326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4327">
       <c r="A4327" t="inlineStr">
@@ -61809,7 +61797,7 @@
         </is>
       </c>
       <c r="C4487" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4488">
@@ -61837,7 +61825,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4490">
@@ -62091,7 +62079,7 @@
         </is>
       </c>
       <c r="C4507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4508">
@@ -62253,7 +62241,7 @@
         </is>
       </c>
       <c r="C4519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4520">
@@ -63023,7 +63011,9 @@
           <t>NKFD16925717021</t>
         </is>
       </c>
-      <c r="C4576" t="inlineStr"/>
+      <c r="C4576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4577">
       <c r="A4577" t="inlineStr">
@@ -63434,7 +63424,9 @@
           <t>NK55434917410</t>
         </is>
       </c>
-      <c r="C4607" t="inlineStr"/>
+      <c r="C4607" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4608">
       <c r="A4608" t="inlineStr">
@@ -63474,7 +63466,7 @@
         </is>
       </c>
       <c r="C4610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4611">
@@ -64157,7 +64149,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4662">
@@ -66169,7 +66161,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4814">
@@ -66210,7 +66202,7 @@
         </is>
       </c>
       <c r="C4816" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4817">
@@ -66225,7 +66217,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4818">
@@ -66266,7 +66258,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4821">
@@ -66281,7 +66273,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4822">
@@ -66831,9 +66823,7 @@
           <t>404295417003</t>
         </is>
       </c>
-      <c r="C4862" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4862" t="inlineStr"/>
     </row>
     <row r="4863">
       <c r="A4863" t="inlineStr">
@@ -67020,7 +67010,7 @@
         </is>
       </c>
       <c r="C4876" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4877">
@@ -67895,7 +67885,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4944">
@@ -67910,7 +67900,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4945">
@@ -70301,7 +70291,7 @@
         </is>
       </c>
       <c r="C5125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5126">
@@ -70316,7 +70306,7 @@
         </is>
       </c>
       <c r="C5126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5127">
@@ -70331,7 +70321,7 @@
         </is>
       </c>
       <c r="C5127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5128">
@@ -70346,7 +70336,7 @@
         </is>
       </c>
       <c r="C5128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5129">
@@ -73284,7 +73274,7 @@
         </is>
       </c>
       <c r="C5344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5345">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -833,7 +833,9 @@
           <t>N6259S5517005</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -847,7 +849,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -913,9 +915,7 @@
           <t>NKEV240145417010</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1624,7 +1624,9 @@
           <t>ZS235345517463</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1709,7 +1711,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -3155,7 +3157,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -3170,7 +3172,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3661,9 +3663,7 @@
           <t>SF29545417001</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>1</v>
-      </c>
+      <c r="C228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="252">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="276">
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312">
@@ -4973,7 +4973,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="320">
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348">
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393">
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394">
@@ -6070,7 +6070,9 @@
           <t>DK50525316000</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6140,7 +6142,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403">
@@ -6381,7 +6383,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="420">
@@ -6973,7 +6975,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -7083,7 +7085,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="470">
@@ -7098,7 +7100,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="471">
@@ -7113,7 +7115,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="472">
@@ -7156,7 +7158,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="475">
@@ -7171,7 +7173,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="476">
@@ -7186,7 +7188,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="477">
@@ -7201,7 +7203,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="478">
@@ -7229,7 +7231,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="480">
@@ -7270,7 +7272,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="483">
@@ -7448,7 +7450,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="495">
@@ -7463,7 +7465,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="496">
@@ -7547,7 +7549,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="502">
@@ -7562,7 +7564,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="503">
@@ -7577,7 +7579,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="504">
@@ -7704,7 +7706,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="513">
@@ -7749,7 +7751,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="516">
@@ -7764,7 +7766,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="517">
@@ -7779,7 +7781,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="518">
@@ -7837,7 +7839,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="522">
@@ -7895,7 +7897,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526">
@@ -8216,7 +8218,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="549">
@@ -8231,7 +8233,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="550">
@@ -8425,7 +8427,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="564">
@@ -8440,7 +8442,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565">
@@ -8455,7 +8457,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="566">
@@ -8470,7 +8472,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="567">
@@ -8514,9 +8516,7 @@
           <t>M50215215209</t>
         </is>
       </c>
-      <c r="C569" t="n">
-        <v>1</v>
-      </c>
+      <c r="C569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="574">
@@ -10110,9 +10110,7 @@
           <t>460575315410</t>
         </is>
       </c>
-      <c r="C681" t="n">
-        <v>2</v>
-      </c>
+      <c r="C681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -10184,7 +10182,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687">
@@ -10199,7 +10197,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="688">
@@ -10214,7 +10212,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="689">
@@ -10229,7 +10227,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="690">
@@ -10244,7 +10242,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691">
@@ -10317,7 +10315,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="696">
@@ -10435,7 +10433,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="704">
@@ -11132,7 +11130,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -11398,7 +11396,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="771">
@@ -11607,7 +11605,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="786">
@@ -11667,7 +11665,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="790">
@@ -11712,7 +11710,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="793">
@@ -11727,7 +11725,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="794">
@@ -12259,7 +12257,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="832">
@@ -12302,7 +12300,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="835">
@@ -12971,7 +12969,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="882">
@@ -13016,7 +13014,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="885">
@@ -13151,7 +13149,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="894">
@@ -13204,9 +13202,7 @@
           <t>NK72745020410</t>
         </is>
       </c>
-      <c r="C897" t="n">
-        <v>1</v>
-      </c>
+      <c r="C897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -13235,7 +13231,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="900">
@@ -13610,7 +13606,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="927">
@@ -13640,7 +13636,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="929">
@@ -14288,7 +14284,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="975">
@@ -14404,7 +14400,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983">
@@ -14750,7 +14746,9 @@
           <t>DK711S5518001</t>
         </is>
       </c>
-      <c r="C1007" t="inlineStr"/>
+      <c r="C1007" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -14834,7 +14832,9 @@
           <t>DK712S5719001</t>
         </is>
       </c>
-      <c r="C1013" t="inlineStr"/>
+      <c r="C1013" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -15527,7 +15527,9 @@
           <t>460575515275</t>
         </is>
       </c>
-      <c r="C1062" t="inlineStr"/>
+      <c r="C1062" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -15597,7 +15599,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1068">
@@ -15612,7 +15614,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1069">
@@ -15627,7 +15629,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1070">
@@ -15770,9 +15772,7 @@
           <t>L29485318214</t>
         </is>
       </c>
-      <c r="C1079" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1079" t="inlineStr"/>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -15786,7 +15786,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1081">
@@ -15801,7 +15801,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1082">
@@ -15889,7 +15889,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1088">
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1096">
@@ -16018,7 +16018,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1097">
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1100">
@@ -16548,7 +16548,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -16657,9 +16657,7 @@
           <t>ZS225005718239</t>
         </is>
       </c>
-      <c r="C1142" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1142" t="inlineStr"/>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
@@ -17316,7 +17314,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1191">
@@ -18901,7 +18899,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1306">
@@ -19496,7 +19494,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1349">
@@ -20543,7 +20541,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1424">
@@ -20694,7 +20692,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1435">
@@ -20748,7 +20746,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1439">
@@ -21981,7 +21979,7 @@
         </is>
       </c>
       <c r="C1531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1532">
@@ -22080,7 +22078,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1539">
@@ -22108,7 +22106,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -22181,7 +22179,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1546">
@@ -22263,7 +22261,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1552">
@@ -22308,7 +22306,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1555">
@@ -22391,7 +22389,9 @@
           <t>CK23534S5420035</t>
         </is>
       </c>
-      <c r="C1560" t="inlineStr"/>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
@@ -22698,7 +22698,7 @@
         </is>
       </c>
       <c r="C1582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1583">
@@ -22754,7 +22754,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1587">
@@ -22993,7 +22993,7 @@
         </is>
       </c>
       <c r="C1603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1604">
@@ -23361,7 +23361,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1630">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1634">
@@ -23509,7 +23509,7 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1640">
@@ -23565,7 +23565,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1644">
@@ -23978,7 +23978,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1675">
@@ -24157,7 +24157,7 @@
         </is>
       </c>
       <c r="C1687" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1688">
@@ -24553,7 +24553,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1718">
@@ -24609,7 +24609,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1722">
@@ -24624,7 +24624,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1723">
@@ -24654,7 +24654,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1725">
@@ -24699,7 +24699,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1728">
@@ -25112,7 +25112,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1759">
@@ -25313,7 +25313,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1774">
@@ -29408,7 +29408,7 @@
         </is>
       </c>
       <c r="C2086" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2087">
@@ -29563,7 +29563,7 @@
         </is>
       </c>
       <c r="C2097" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2098">
@@ -30102,7 +30102,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2137">
@@ -30433,7 +30433,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2160">
@@ -30448,7 +30448,7 @@
         </is>
       </c>
       <c r="C2160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2161">
@@ -30492,9 +30492,7 @@
           <t>CKJ236505317050</t>
         </is>
       </c>
-      <c r="C2163" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2163" t="inlineStr"/>
     </row>
     <row r="2164">
       <c r="A2164" t="inlineStr">
@@ -30536,7 +30534,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2167">
@@ -30996,7 +30994,7 @@
         </is>
       </c>
       <c r="C2198" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2199">
@@ -31643,7 +31641,7 @@
         </is>
       </c>
       <c r="C2245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -32246,7 +32244,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2289">
@@ -32260,9 +32258,7 @@
           <t>CKJ23202S6016210</t>
         </is>
       </c>
-      <c r="C2289" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2289" t="inlineStr"/>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
@@ -32786,9 +32782,7 @@
           <t>CKJ226505119971</t>
         </is>
       </c>
-      <c r="C2329" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
@@ -32869,7 +32863,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2336">
@@ -33728,7 +33722,7 @@
         </is>
       </c>
       <c r="C2400" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2401">
@@ -34123,9 +34117,7 @@
           <t>CKJ226225117001</t>
         </is>
       </c>
-      <c r="C2430" t="n">
-        <v>4</v>
-      </c>
+      <c r="C2430" t="inlineStr"/>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
@@ -34230,7 +34222,7 @@
         </is>
       </c>
       <c r="C2438" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2439">
@@ -34245,7 +34237,7 @@
         </is>
       </c>
       <c r="C2439" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2440">
@@ -37496,7 +37488,7 @@
         </is>
       </c>
       <c r="C2686" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2687">
@@ -37859,7 +37851,7 @@
         </is>
       </c>
       <c r="C2711" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2712">
@@ -42744,7 +42736,7 @@
         </is>
       </c>
       <c r="C3080" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3081">
@@ -42758,7 +42750,9 @@
           <t>DK50585217001</t>
         </is>
       </c>
-      <c r="C3081" t="inlineStr"/>
+      <c r="C3081" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3082">
       <c r="A3082" t="inlineStr">
@@ -42946,7 +42940,7 @@
         </is>
       </c>
       <c r="C3094" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3095">
@@ -42989,7 +42983,7 @@
         </is>
       </c>
       <c r="C3097" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3098">
@@ -43016,7 +43010,9 @@
           <t>DK547S5516001</t>
         </is>
       </c>
-      <c r="C3099" t="inlineStr"/>
+      <c r="C3099" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3100">
       <c r="A3100" t="inlineStr">
@@ -43029,7 +43025,9 @@
           <t>DK547S5516237</t>
         </is>
       </c>
-      <c r="C3100" t="inlineStr"/>
+      <c r="C3100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3101">
       <c r="A3101" t="inlineStr">
@@ -43056,7 +43054,7 @@
         </is>
       </c>
       <c r="C3102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3103">
@@ -43071,7 +43069,7 @@
         </is>
       </c>
       <c r="C3103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3104">
@@ -43085,7 +43083,9 @@
           <t>DK548S5120248</t>
         </is>
       </c>
-      <c r="C3104" t="inlineStr"/>
+      <c r="C3104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3105">
       <c r="A3105" t="inlineStr">
@@ -43099,7 +43099,7 @@
         </is>
       </c>
       <c r="C3105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3106">
@@ -45203,7 +45203,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3260">
@@ -45218,7 +45218,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3261">
@@ -45233,7 +45233,7 @@
         </is>
       </c>
       <c r="C3261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3262">
@@ -45248,7 +45248,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3263">
@@ -45328,7 +45328,7 @@
         </is>
       </c>
       <c r="C3268" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3269">
@@ -45356,7 +45356,7 @@
         </is>
       </c>
       <c r="C3270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3271">
@@ -45453,7 +45453,7 @@
         </is>
       </c>
       <c r="C3277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3278">
@@ -45524,7 +45524,7 @@
         </is>
       </c>
       <c r="C3282" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3283">
@@ -45554,7 +45554,7 @@
         </is>
       </c>
       <c r="C3284" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3285">
@@ -45569,7 +45569,7 @@
         </is>
       </c>
       <c r="C3285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3286">
@@ -45872,7 +45872,9 @@
           <t>L29355318001</t>
         </is>
       </c>
-      <c r="C3307" t="inlineStr"/>
+      <c r="C3307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3308">
       <c r="A3308" t="inlineStr">
@@ -45916,7 +45918,7 @@
         </is>
       </c>
       <c r="C3310" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3311">
@@ -45931,7 +45933,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3312">
@@ -45976,7 +45978,7 @@
         </is>
       </c>
       <c r="C3314" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3315">
@@ -46190,7 +46192,9 @@
           <t>L29405716272</t>
         </is>
       </c>
-      <c r="C3329" t="inlineStr"/>
+      <c r="C3329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3330">
       <c r="A3330" t="inlineStr">
@@ -46204,7 +46208,7 @@
         </is>
       </c>
       <c r="C3330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3331">
@@ -46219,7 +46223,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3332">
@@ -46233,7 +46237,9 @@
           <t>L29415020218</t>
         </is>
       </c>
-      <c r="C3332" t="inlineStr"/>
+      <c r="C3332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3333">
       <c r="A3333" t="inlineStr">
@@ -46247,7 +46253,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3334">
@@ -46262,7 +46268,7 @@
         </is>
       </c>
       <c r="C3334" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3335">
@@ -46289,7 +46295,9 @@
           <t>L36475016214</t>
         </is>
       </c>
-      <c r="C3336" t="inlineStr"/>
+      <c r="C3336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3337">
       <c r="A3337" t="inlineStr">
@@ -46426,7 +46434,7 @@
         </is>
       </c>
       <c r="C3346" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3347">
@@ -46441,7 +46449,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3348">
@@ -46456,7 +46464,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3349">
@@ -46471,7 +46479,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3350">
@@ -47117,7 +47125,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3396">
@@ -47478,7 +47486,9 @@
           <t>L982S5319401</t>
         </is>
       </c>
-      <c r="C3421" t="inlineStr"/>
+      <c r="C3421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3422">
       <c r="A3422" t="inlineStr">
@@ -47731,7 +47741,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3440">
@@ -47787,7 +47797,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3444">
@@ -48318,7 +48328,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3483">
@@ -48829,7 +48839,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3520">
@@ -49261,7 +49271,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3552">
@@ -49345,7 +49355,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3558">
@@ -49373,7 +49383,7 @@
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3560">
@@ -49537,7 +49547,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3572">
@@ -49552,7 +49562,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3573">
@@ -49763,7 +49773,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3588">
@@ -49819,7 +49829,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3592">
@@ -50174,7 +50184,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3619">
@@ -50260,7 +50270,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3625">
@@ -50275,7 +50285,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3626">
@@ -50383,7 +50393,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3634">
@@ -50795,7 +50805,7 @@
         </is>
       </c>
       <c r="C3663" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3664">
@@ -52296,7 +52306,9 @@
           <t>471875618001</t>
         </is>
       </c>
-      <c r="C3777" t="inlineStr"/>
+      <c r="C3777" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3778">
       <c r="A3778" t="inlineStr">
@@ -58346,7 +58358,9 @@
           <t>N5147S6018005</t>
         </is>
       </c>
-      <c r="C4231" t="inlineStr"/>
+      <c r="C4231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4232">
       <c r="A4232" t="inlineStr">
@@ -58886,7 +58900,9 @@
           <t>N81805618206</t>
         </is>
       </c>
-      <c r="C4269" t="inlineStr"/>
+      <c r="C4269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4270">
       <c r="A4270" t="inlineStr">
@@ -59872,9 +59888,7 @@
           <t>395755717005</t>
         </is>
       </c>
-      <c r="C4341" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4341" t="inlineStr"/>
     </row>
     <row r="4342">
       <c r="A4342" t="inlineStr">
@@ -61593,7 +61607,9 @@
           <t>NK43155517076</t>
         </is>
       </c>
-      <c r="C4472" t="inlineStr"/>
+      <c r="C4472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4473">
       <c r="A4473" t="inlineStr">
@@ -61782,7 +61798,7 @@
         </is>
       </c>
       <c r="C4486" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4487">
@@ -63241,7 +63257,7 @@
         </is>
       </c>
       <c r="C4593" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4594">
@@ -66258,7 +66274,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4821">
@@ -66273,7 +66289,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4822">
@@ -66303,7 +66319,7 @@
         </is>
       </c>
       <c r="C4823" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4824">
@@ -67010,7 +67026,7 @@
         </is>
       </c>
       <c r="C4876" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4877">
@@ -73151,7 +73167,7 @@
         </is>
       </c>
       <c r="C5335" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5336">
@@ -73379,7 +73395,9 @@
           <t>ZS23536S4922216</t>
         </is>
       </c>
-      <c r="C5352" t="inlineStr"/>
+      <c r="C5352" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5353">
       <c r="A5353" t="inlineStr">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276">
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329">
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="470">
@@ -7114,9 +7114,7 @@
           <t>L29665020275</t>
         </is>
       </c>
-      <c r="C471" t="n">
-        <v>16</v>
-      </c>
+      <c r="C471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7158,7 +7156,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="475">
@@ -7173,7 +7171,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="476">
@@ -7706,7 +7704,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="513">
@@ -7882,7 +7880,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="525">
@@ -7897,7 +7895,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="526">
@@ -10212,7 +10210,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="689">
@@ -10242,7 +10240,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="691">
@@ -11396,7 +11394,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="771">
@@ -12969,7 +12967,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882">
@@ -14284,7 +14282,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="975">
@@ -14400,7 +14398,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="983">
@@ -15801,7 +15799,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1082">
@@ -16063,7 +16061,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1100">
@@ -19277,9 +19275,7 @@
           <t>NK70155517001</t>
         </is>
       </c>
-      <c r="C1332" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1332" t="inlineStr"/>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -19293,7 +19289,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1334">
@@ -19494,7 +19490,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -24090,7 +24086,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1683">
@@ -24654,7 +24650,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1725">
@@ -30433,7 +30429,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2160">
@@ -30448,7 +30444,7 @@
         </is>
       </c>
       <c r="C2160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2161">
@@ -30534,7 +30530,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2167">
@@ -30994,7 +30990,7 @@
         </is>
       </c>
       <c r="C2198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2199">
@@ -32244,7 +32240,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2289">
@@ -32863,7 +32859,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2336">
@@ -33722,7 +33718,7 @@
         </is>
       </c>
       <c r="C2400" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2401">
@@ -34222,7 +34218,7 @@
         </is>
       </c>
       <c r="C2438" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2439">
@@ -34237,7 +34233,7 @@
         </is>
       </c>
       <c r="C2439" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2440">
@@ -45692,7 +45688,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3295">
@@ -45707,7 +45703,7 @@
         </is>
       </c>
       <c r="C3295" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3296">
@@ -45948,7 +45944,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3313">
@@ -46237,9 +46233,7 @@
           <t>L29415020218</t>
         </is>
       </c>
-      <c r="C3332" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3332" t="inlineStr"/>
     </row>
     <row r="3333">
       <c r="A3333" t="inlineStr">
@@ -46449,7 +46443,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3348">
@@ -48839,7 +48833,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3520">
@@ -49562,7 +49556,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3573">
@@ -49829,7 +49823,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3592">
@@ -50270,7 +50264,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3625">
@@ -50790,7 +50784,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3663">
@@ -61715,9 +61709,7 @@
           <t>NK50385014006</t>
         </is>
       </c>
-      <c r="C4480" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4480" t="inlineStr"/>
     </row>
     <row r="4481">
       <c r="A4481" t="inlineStr">
@@ -61871,7 +61863,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4492">
@@ -66177,7 +66169,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4814">
@@ -66347,7 +66339,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4826">
@@ -67901,7 +67893,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4944">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -2506,9 +2506,7 @@
           <t>LO21625418710</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
+      <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4341,7 +4339,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="276">
@@ -4386,7 +4384,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="279">
@@ -7085,7 +7083,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="470">
@@ -7100,7 +7098,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="471">
@@ -7156,7 +7154,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="475">
@@ -7171,7 +7169,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="476">
@@ -7577,7 +7575,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="504">
@@ -7764,7 +7762,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="517">
@@ -7779,7 +7777,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="518">
@@ -10210,7 +10208,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="689">
@@ -10225,7 +10223,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="690">
@@ -10313,7 +10311,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="696">
@@ -12967,7 +12965,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -13057,7 +13055,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="888">
@@ -13132,7 +13130,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="893">
@@ -15612,7 +15610,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -15799,7 +15797,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1082">
@@ -15887,7 +15885,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1088">
@@ -16061,7 +16059,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1100">
@@ -45448,9 +45446,7 @@
           <t>L2707N5315400</t>
         </is>
       </c>
-      <c r="C3277" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3277" t="inlineStr"/>
     </row>
     <row r="3278">
       <c r="A3278" t="inlineStr">
@@ -45974,7 +45970,7 @@
         </is>
       </c>
       <c r="C3314" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3315">
@@ -46219,7 +46215,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3332">
@@ -46247,7 +46243,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3334">
@@ -46443,7 +46439,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3348">
@@ -47119,7 +47115,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3396">
@@ -48833,7 +48829,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3520">
@@ -49349,7 +49345,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3558">
@@ -49541,7 +49537,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3572">
@@ -49556,7 +49552,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3573">
@@ -49767,7 +49763,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3588">
@@ -49823,7 +49819,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3592">
@@ -50264,7 +50260,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3625">
@@ -50387,7 +50383,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3634">
@@ -50402,7 +50398,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3635">
@@ -50784,7 +50780,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3663">
@@ -50799,7 +50795,7 @@
         </is>
       </c>
       <c r="C3663" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3664">
@@ -57094,9 +57090,7 @@
           <t>LO27295116319</t>
         </is>
       </c>
-      <c r="C4141" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4141" t="inlineStr"/>
     </row>
     <row r="4142">
       <c r="A4142" t="inlineStr">
@@ -62249,7 +62243,7 @@
         </is>
       </c>
       <c r="C4519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4520">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7184,7 +7184,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="477">
@@ -8423,7 +8423,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="574">
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="683">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="789">
@@ -12253,7 +12253,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832">
@@ -13632,7 +13632,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="929">
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1084">
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1334">
@@ -22071,9 +22071,7 @@
           <t>CK231275019009</t>
         </is>
       </c>
-      <c r="C1538" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1538" t="inlineStr"/>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
@@ -23370,7 +23368,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1631">
@@ -24603,7 +24601,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1722">
@@ -24663,7 +24661,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1726">
@@ -24678,7 +24676,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="1727">
@@ -24838,7 +24836,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1739">
@@ -29557,7 +29555,7 @@
         </is>
       </c>
       <c r="C2097" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2098">
@@ -30528,7 +30526,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2167">
@@ -31901,9 +31899,7 @@
           <t>CKJ23605S5618400</t>
         </is>
       </c>
-      <c r="C2264" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2264" t="inlineStr"/>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
@@ -33716,7 +33712,7 @@
         </is>
       </c>
       <c r="C2400" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2401">
@@ -34215,9 +34211,7 @@
           <t>CKJ222075518002</t>
         </is>
       </c>
-      <c r="C2438" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2438" t="inlineStr"/>
     </row>
     <row r="2439">
       <c r="A2439" t="inlineStr">
@@ -46215,7 +46209,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3332">
@@ -49101,7 +49095,7 @@
         </is>
       </c>
       <c r="C3539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3540">
@@ -52046,7 +52040,7 @@
         </is>
       </c>
       <c r="C3758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3759">
@@ -72466,7 +72460,7 @@
         </is>
       </c>
       <c r="C5286" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5287">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="475">
@@ -7184,7 +7184,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="477">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="502">
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="504">
@@ -7777,7 +7777,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="518">
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="566">
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
@@ -10311,7 +10311,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="696">
@@ -11126,7 +11126,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="753">
@@ -13130,7 +13130,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="893">
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="975">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="983">
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1084">
@@ -15857,7 +15857,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1086">
@@ -15999,7 +15999,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1096">
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1098">
@@ -16059,7 +16059,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1100">
@@ -20328,7 +20328,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -22298,7 +22298,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1555">
@@ -24942,7 +24942,7 @@
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1747">
@@ -30425,7 +30425,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2160">
@@ -30439,9 +30439,7 @@
           <t>CKJ236495318050</t>
         </is>
       </c>
-      <c r="C2160" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2160" t="inlineStr"/>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
@@ -30526,7 +30524,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2167">
@@ -32853,7 +32851,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2336">
@@ -33712,7 +33710,7 @@
         </is>
       </c>
       <c r="C2400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2401">
@@ -37193,9 +37191,7 @@
           <t>CV10145216045</t>
         </is>
       </c>
-      <c r="C2666" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2666" t="inlineStr"/>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
@@ -40242,9 +40238,7 @@
           <t>476294916511</t>
         </is>
       </c>
-      <c r="C2891" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2891" t="inlineStr"/>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
@@ -44115,7 +44109,7 @@
         </is>
       </c>
       <c r="C3181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3182">
@@ -46433,7 +46427,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3348">
@@ -46463,7 +46457,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3350">
@@ -47109,7 +47103,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3396">
@@ -48576,9 +48570,7 @@
           <t>L29105517300</t>
         </is>
       </c>
-      <c r="C3501" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3501" t="inlineStr"/>
     </row>
     <row r="3502">
       <c r="A3502" t="inlineStr">
@@ -49052,7 +49044,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3537">
@@ -49338,9 +49330,7 @@
           <t>460745619424</t>
         </is>
       </c>
-      <c r="C3557" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3557" t="inlineStr"/>
     </row>
     <row r="3558">
       <c r="A3558" t="inlineStr">
@@ -49813,7 +49803,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3592">
@@ -49907,7 +49897,9 @@
           <t>215155417214</t>
         </is>
       </c>
-      <c r="C3598" t="inlineStr"/>
+      <c r="C3598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3599">
       <c r="A3599" t="inlineStr">
@@ -50168,7 +50160,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3619">
@@ -52711,7 +52703,7 @@
         </is>
       </c>
       <c r="C3809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3810">
@@ -52881,9 +52873,7 @@
           <t>479035618002</t>
         </is>
       </c>
-      <c r="C3822" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3822" t="inlineStr"/>
     </row>
     <row r="3823">
       <c r="A3823" t="inlineStr">
@@ -63236,9 +63226,7 @@
           <t>NKFD18505120901</t>
         </is>
       </c>
-      <c r="C4593" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4593" t="inlineStr"/>
     </row>
     <row r="4594">
       <c r="A4594" t="inlineStr">
@@ -66025,7 +66013,7 @@
         </is>
       </c>
       <c r="C4803" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4804">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -3661,7 +3661,9 @@
           <t>SF29545417001</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3918,7 +3920,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247">
@@ -4017,7 +4019,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254">
@@ -4133,7 +4135,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262">
@@ -4223,7 +4225,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268">
@@ -4339,7 +4341,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="276">
@@ -4384,7 +4386,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279">
@@ -4412,7 +4414,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281">
@@ -4453,7 +4455,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284">
@@ -4496,7 +4498,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287">
@@ -4511,7 +4513,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="288">
@@ -4526,7 +4528,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -4855,7 +4857,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312">
@@ -4900,7 +4902,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315">
@@ -4928,7 +4930,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -4971,7 +4973,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="320">
@@ -5102,7 +5104,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329">
@@ -5371,7 +5373,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="348">
@@ -6254,7 +6256,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="411">
@@ -6381,7 +6383,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="420">
@@ -6652,7 +6654,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
@@ -6818,7 +6820,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451">
@@ -6846,7 +6848,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="453">
@@ -6887,7 +6889,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="456">
@@ -6928,7 +6930,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="459">
@@ -6973,7 +6975,7 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -7003,7 +7005,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="464">
@@ -7098,7 +7100,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="471">
@@ -7126,7 +7128,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="473">
@@ -7154,7 +7156,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="475">
@@ -7184,7 +7186,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="477">
@@ -7199,7 +7201,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="478">
@@ -7296,7 +7298,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485">
@@ -7311,7 +7313,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="486">
@@ -7326,7 +7328,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="487">
@@ -7341,7 +7343,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="488">
@@ -7386,7 +7388,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="491">
@@ -7461,7 +7463,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="496">
@@ -7501,9 +7503,7 @@
           <t>L29655317001</t>
         </is>
       </c>
-      <c r="C498" t="n">
-        <v>17</v>
-      </c>
+      <c r="C498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="502">
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="509">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="510">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="512">
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="514">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="517">
@@ -8256,9 +8256,7 @@
           <t>470835317002</t>
         </is>
       </c>
-      <c r="C551" t="n">
-        <v>1</v>
-      </c>
+      <c r="C551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -8468,7 +8466,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="567">
@@ -8482,9 +8480,7 @@
           <t>M40225517200</t>
         </is>
       </c>
-      <c r="C567" t="n">
-        <v>1</v>
-      </c>
+      <c r="C567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -8644,7 +8640,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579">
@@ -8659,7 +8655,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -8964,9 +8960,7 @@
           <t>469305816001</t>
         </is>
       </c>
-      <c r="C601" t="n">
-        <v>1</v>
-      </c>
+      <c r="C601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -10079,7 +10073,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="680">
@@ -10120,7 +10114,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="683">
@@ -10148,7 +10142,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="685">
@@ -10223,7 +10217,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="690">
@@ -10238,7 +10232,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="691">
@@ -10266,7 +10260,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693">
@@ -10281,7 +10275,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="694">
@@ -10296,7 +10290,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
@@ -10311,7 +10305,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="696">
@@ -10326,7 +10320,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="697">
@@ -10354,7 +10348,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="699">
@@ -10369,7 +10363,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="700">
@@ -10384,7 +10378,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="701">
@@ -11065,9 +11059,7 @@
           <t>CKJ223014618400</t>
         </is>
       </c>
-      <c r="C748" t="n">
-        <v>1</v>
-      </c>
+      <c r="C748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -11096,7 +11088,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="751">
@@ -11156,7 +11148,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="755">
@@ -11171,7 +11163,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="756">
@@ -11231,7 +11223,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760">
@@ -11287,7 +11279,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="764">
@@ -11302,7 +11294,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="765">
@@ -11347,7 +11339,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="768">
@@ -11392,7 +11384,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="771">
@@ -11676,7 +11668,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="791">
@@ -11691,7 +11683,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="792">
@@ -11706,7 +11698,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="793">
@@ -11721,7 +11713,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="794">
@@ -12223,7 +12215,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="830">
@@ -12238,7 +12230,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="831">
@@ -12311,7 +12303,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="836">
@@ -12354,7 +12346,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="839">
@@ -12369,7 +12361,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="840">
@@ -12384,7 +12376,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="841">
@@ -12414,7 +12406,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="843">
@@ -12457,7 +12449,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="846">
@@ -12673,7 +12665,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862">
@@ -12905,7 +12897,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="878">
@@ -12920,7 +12912,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="879">
@@ -12950,7 +12942,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="881">
@@ -12964,9 +12956,7 @@
           <t>L29465516275</t>
         </is>
       </c>
-      <c r="C881" t="n">
-        <v>1</v>
-      </c>
+      <c r="C881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -12980,7 +12970,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="883">
@@ -12995,7 +12985,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884">
@@ -13055,7 +13045,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="888">
@@ -13145,7 +13135,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="894">
@@ -13451,7 +13441,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="916">
@@ -13572,7 +13562,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="925">
@@ -13602,7 +13592,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="927">
@@ -13617,7 +13607,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="928">
@@ -13632,7 +13622,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="929">
@@ -13677,7 +13667,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932">
@@ -13692,7 +13682,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="933">
@@ -13707,7 +13697,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="934">
@@ -14039,7 +14029,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958">
@@ -14168,7 +14158,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="967">
@@ -14280,7 +14270,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="975">
@@ -14396,7 +14386,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983">
@@ -15509,7 +15499,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1062">
@@ -15523,9 +15513,7 @@
           <t>460575515275</t>
         </is>
       </c>
-      <c r="C1062" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -15567,7 +15555,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1066">
@@ -15625,7 +15613,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1070">
@@ -15640,7 +15628,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1071">
@@ -15668,7 +15656,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1073">
@@ -15698,7 +15686,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1075">
@@ -15782,7 +15770,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1081">
@@ -15812,7 +15800,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1083">
@@ -15827,7 +15815,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1084">
@@ -15857,7 +15845,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1086">
@@ -15885,7 +15873,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1088">
@@ -15999,7 +15987,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1096">
@@ -16014,7 +16002,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097">
@@ -16029,7 +16017,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1098">
@@ -16044,7 +16032,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
@@ -16059,7 +16047,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1100">
@@ -16173,7 +16161,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -16308,9 +16296,7 @@
           <t>NK72725615034</t>
         </is>
       </c>
-      <c r="C1117" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1117" t="inlineStr"/>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
@@ -16544,7 +16530,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -16653,7 +16639,9 @@
           <t>ZS225005718239</t>
         </is>
       </c>
-      <c r="C1142" t="inlineStr"/>
+      <c r="C1142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
@@ -17310,7 +17298,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1191">
@@ -17547,7 +17535,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1208">
@@ -19162,7 +19150,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -20589,7 +20577,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1428">
@@ -20604,7 +20592,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -22171,7 +22159,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1546">
@@ -22298,7 +22286,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1555">
@@ -22905,7 +22893,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1598">
@@ -23121,7 +23109,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1614">
@@ -23150,7 +23138,9 @@
           <t>CK235495019035</t>
         </is>
       </c>
-      <c r="C1615" t="inlineStr"/>
+      <c r="C1615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
@@ -23293,7 +23283,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1626">
@@ -23368,7 +23358,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1631">
@@ -23383,7 +23373,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1632">
@@ -23398,7 +23388,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1633">
@@ -23456,7 +23446,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1637">
@@ -23486,7 +23476,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1639">
@@ -23557,7 +23547,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1644">
@@ -23639,7 +23629,7 @@
         </is>
       </c>
       <c r="C1649" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1650">
@@ -24616,7 +24606,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1723">
@@ -24646,7 +24636,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1725">
@@ -24691,7 +24681,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1728">
@@ -24836,7 +24826,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1739">
@@ -25048,7 +25038,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1755">
@@ -25063,7 +25053,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1756">
@@ -25104,7 +25094,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1759">
@@ -25290,7 +25280,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1773">
@@ -25305,7 +25295,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1774">
@@ -29773,7 +29763,7 @@
         </is>
       </c>
       <c r="C2113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -30425,7 +30415,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2160">
@@ -30524,7 +30514,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2167">
@@ -30795,7 +30785,7 @@
         </is>
       </c>
       <c r="C2185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2186">
@@ -30983,9 +30973,7 @@
           <t>CKJ23659S5518002</t>
         </is>
       </c>
-      <c r="C2198" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2198" t="inlineStr"/>
     </row>
     <row r="2199">
       <c r="A2199" t="inlineStr">
@@ -32232,7 +32220,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2289">
@@ -32851,7 +32839,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2336">
@@ -32879,7 +32867,7 @@
         </is>
       </c>
       <c r="C2337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2338">
@@ -33709,9 +33697,7 @@
           <t>CKJ226205616400</t>
         </is>
       </c>
-      <c r="C2400" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2400" t="inlineStr"/>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
@@ -34105,7 +34091,9 @@
           <t>CKJ226225117001</t>
         </is>
       </c>
-      <c r="C2430" t="inlineStr"/>
+      <c r="C2430" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
@@ -36044,7 +36032,7 @@
         </is>
       </c>
       <c r="C2578" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2579">
@@ -44983,7 +44971,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3246">
@@ -45069,7 +45057,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3252">
@@ -45084,7 +45072,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3253">
@@ -45353,7 +45341,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3272">
@@ -45394,7 +45382,7 @@
         </is>
       </c>
       <c r="C3274" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3275">
@@ -45672,7 +45660,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3295">
@@ -45883,7 +45871,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3310">
@@ -46203,7 +46191,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3332">
@@ -46217,7 +46205,9 @@
           <t>L29415020218</t>
         </is>
       </c>
-      <c r="C3332" t="inlineStr"/>
+      <c r="C3332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3333">
       <c r="A3333" t="inlineStr">
@@ -46231,7 +46221,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3334">
@@ -46315,7 +46305,7 @@
         </is>
       </c>
       <c r="C3339" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3340">
@@ -46412,7 +46402,7 @@
         </is>
       </c>
       <c r="C3346" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3347">
@@ -46427,7 +46417,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3348">
@@ -46442,7 +46432,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3349">
@@ -46662,9 +46652,7 @@
           <t>L6015S4922001</t>
         </is>
       </c>
-      <c r="C3363" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3363" t="inlineStr"/>
     </row>
     <row r="3364">
       <c r="A3364" t="inlineStr">
@@ -47103,7 +47091,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3396">
@@ -47719,7 +47707,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3440">
@@ -47775,7 +47763,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3444">
@@ -48306,7 +48294,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3483">
@@ -49521,7 +49509,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3572">
@@ -49536,7 +49524,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3573">
@@ -49566,7 +49554,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3575">
@@ -49732,7 +49720,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3587">
@@ -49747,7 +49735,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3588">
@@ -49803,7 +49791,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3592">
@@ -49883,7 +49871,7 @@
         </is>
       </c>
       <c r="C3597" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3598">
@@ -50160,7 +50148,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3619">
@@ -50246,7 +50234,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3625">
@@ -50384,7 +50372,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3635">
@@ -56972,7 +56960,7 @@
         </is>
       </c>
       <c r="C4134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4135">
@@ -57047,7 +57035,7 @@
         </is>
       </c>
       <c r="C4139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4140">
@@ -61783,7 +61771,7 @@
         </is>
       </c>
       <c r="C4487" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4488">
@@ -61811,7 +61799,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4490">
@@ -61841,7 +61829,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4492">
@@ -62050,7 +62038,7 @@
         </is>
       </c>
       <c r="C4506" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4507">
@@ -62065,7 +62053,7 @@
         </is>
       </c>
       <c r="C4507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4508">
@@ -64133,7 +64121,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4662">
@@ -65159,7 +65147,7 @@
         </is>
       </c>
       <c r="C4739" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4740">
@@ -66145,7 +66133,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4814">
@@ -66201,7 +66189,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4818">
@@ -66272,7 +66260,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4823">
@@ -66994,7 +66982,7 @@
         </is>
       </c>
       <c r="C4876" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4877">
@@ -67869,7 +67857,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4944">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1051,7 +1051,9 @@
           <t>NK50364717688</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1249,7 +1251,9 @@
           <t>NK72875417034</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1304,7 +1308,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -1611,7 +1615,9 @@
           <t>ZS245415616207</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1725,7 +1731,9 @@
           <t>ZS241455317303</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1782,7 +1790,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -1855,7 +1863,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -1994,9 +2002,7 @@
           <t>LO27185415215</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>4</v>
-      </c>
+      <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2079,7 +2085,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2279,7 +2285,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -2380,7 +2386,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -2573,9 +2579,7 @@
           <t>LO27185415233</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>2</v>
-      </c>
+      <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2713,9 +2717,7 @@
           <t>LO27405115011</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>2</v>
-      </c>
+      <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2856,7 +2858,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2914,7 +2916,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -3086,7 +3088,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
@@ -3155,7 +3157,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -3170,7 +3172,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -3239,7 +3241,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200">
@@ -3327,7 +3329,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -3501,7 +3503,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -3631,9 +3633,7 @@
           <t>464285615001</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
+      <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="252">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254">
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268">
@@ -4282,9 +4282,7 @@
           <t>L22985417275</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>1</v>
-      </c>
+      <c r="C271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4341,7 +4339,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="276">
@@ -4455,7 +4453,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284">
@@ -4498,7 +4496,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -4699,9 +4697,7 @@
           <t>LO2742L5216640</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>1</v>
-      </c>
+      <c r="C300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4857,7 +4853,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312">
@@ -4872,7 +4868,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313">
@@ -4887,7 +4883,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314">
@@ -4902,7 +4898,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
@@ -4944,7 +4940,9 @@
           <t>CK245225218004</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
+      <c r="C317" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4958,7 +4956,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -4973,7 +4971,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="320">
@@ -5147,7 +5145,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -5358,7 +5356,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -5373,7 +5371,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348">
@@ -5459,7 +5457,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -5530,7 +5528,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -5904,9 +5902,7 @@
           <t>469555116001</t>
         </is>
       </c>
-      <c r="C385" t="n">
-        <v>2</v>
-      </c>
+      <c r="C385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5960,7 +5956,9 @@
           <t>CV50955417001</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -6055,9 +6053,7 @@
           <t>DK50405318520</t>
         </is>
       </c>
-      <c r="C396" t="n">
-        <v>1</v>
-      </c>
+      <c r="C396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6127,7 +6123,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402">
@@ -6142,7 +6138,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="403">
@@ -6157,7 +6153,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404">
@@ -6213,7 +6209,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408">
@@ -6241,7 +6237,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410">
@@ -6339,9 +6335,7 @@
           <t>CK245195317300</t>
         </is>
       </c>
-      <c r="C416" t="n">
-        <v>1</v>
-      </c>
+      <c r="C416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -6368,7 +6362,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419">
@@ -6383,7 +6377,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="420">
@@ -6555,7 +6549,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432">
@@ -6779,7 +6773,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="448">
@@ -6820,7 +6814,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="451">
@@ -6848,7 +6842,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="453">
@@ -6889,7 +6883,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="456">
@@ -7085,7 +7079,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="470">
@@ -7100,7 +7094,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="471">
@@ -7114,7 +7108,9 @@
           <t>L29665020275</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr"/>
+      <c r="C471" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7128,7 +7124,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="473">
@@ -7171,7 +7167,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="476">
@@ -7186,7 +7182,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="477">
@@ -7201,7 +7197,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="478">
@@ -7229,7 +7225,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="480">
@@ -7270,7 +7266,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="483">
@@ -7298,7 +7294,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="485">
@@ -7313,7 +7309,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="486">
@@ -7373,7 +7369,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="490">
@@ -7403,7 +7399,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="492">
@@ -7433,7 +7429,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="494">
@@ -7448,7 +7444,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="495">
@@ -7463,7 +7459,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="496">
@@ -7477,7 +7473,9 @@
           <t>L29645120214</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -7490,7 +7488,9 @@
           <t>L29645120275</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr"/>
+      <c r="C497" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7503,7 +7503,9 @@
           <t>L29655317001</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7530,7 +7532,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="501">
@@ -7545,7 +7547,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="502">
@@ -7560,7 +7562,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="503">
@@ -7575,7 +7577,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="504">
@@ -7642,7 +7644,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="509">
@@ -7657,7 +7659,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="510">
@@ -7672,7 +7674,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="511">
@@ -7687,7 +7689,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="512">
@@ -7702,7 +7704,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="513">
@@ -7717,7 +7719,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="514">
@@ -7732,7 +7734,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="515">
@@ -7747,7 +7749,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="516">
@@ -7762,7 +7764,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="517">
@@ -7776,9 +7778,7 @@
           <t>L23055419001</t>
         </is>
       </c>
-      <c r="C517" t="n">
-        <v>22</v>
-      </c>
+      <c r="C517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="526">
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="527">
@@ -7953,7 +7953,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="530">
@@ -8013,7 +8013,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="534">
@@ -8184,7 +8184,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547">
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548">
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="549">
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="550">
@@ -8243,7 +8243,9 @@
           <t>470755214540</t>
         </is>
       </c>
-      <c r="C550" t="inlineStr"/>
+      <c r="C550" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -8256,7 +8258,9 @@
           <t>470835317002</t>
         </is>
       </c>
-      <c r="C551" t="inlineStr"/>
+      <c r="C551" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -8269,7 +8273,9 @@
           <t>470835317410</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr"/>
+      <c r="C552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -8282,7 +8288,9 @@
           <t>M20215517072</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr"/>
+      <c r="C553" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -8296,7 +8304,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -8324,7 +8332,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="557">
@@ -8339,7 +8347,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558">
@@ -8353,7 +8361,9 @@
           <t>M20315718002</t>
         </is>
       </c>
-      <c r="C558" t="inlineStr"/>
+      <c r="C558" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -8380,7 +8390,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561">
@@ -8421,7 +8431,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="564">
@@ -8436,7 +8446,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
@@ -8451,7 +8461,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="566">
@@ -8466,7 +8476,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="567">
@@ -8480,7 +8490,9 @@
           <t>M40225517200</t>
         </is>
       </c>
-      <c r="C567" t="inlineStr"/>
+      <c r="C567" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -8536,9 +8548,7 @@
           <t>M50225315433</t>
         </is>
       </c>
-      <c r="C571" t="n">
-        <v>1</v>
-      </c>
+      <c r="C571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -8567,7 +8577,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="574">
@@ -8581,7 +8591,9 @@
           <t>M50275814250</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr"/>
+      <c r="C574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -8595,7 +8607,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576">
@@ -8640,7 +8652,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579">
@@ -8655,7 +8667,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580">
@@ -8727,7 +8739,9 @@
           <t>N73335318005</t>
         </is>
       </c>
-      <c r="C584" t="inlineStr"/>
+      <c r="C584" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -8867,7 +8881,9 @@
           <t>NK80545516006</t>
         </is>
       </c>
-      <c r="C594" t="inlineStr"/>
+      <c r="C594" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -9222,7 +9238,9 @@
           <t>ZS22521SLP5419002</t>
         </is>
       </c>
-      <c r="C619" t="inlineStr"/>
+      <c r="C619" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -9289,7 +9307,9 @@
           <t>ZS23124S5716002</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr"/>
+      <c r="C624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -9317,7 +9337,9 @@
           <t>ZS231255520201</t>
         </is>
       </c>
-      <c r="C626" t="inlineStr"/>
+      <c r="C626" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -9359,7 +9381,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
@@ -9457,7 +9479,9 @@
           <t>ZS235355020001</t>
         </is>
       </c>
-      <c r="C636" t="inlineStr"/>
+      <c r="C636" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -9485,7 +9509,9 @@
           <t>ZS235355020463</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr"/>
+      <c r="C638" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -10073,7 +10099,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="680">
@@ -10100,7 +10126,9 @@
           <t>460575315410</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -10114,7 +10142,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="683">
@@ -10128,7 +10156,9 @@
           <t>479035618301</t>
         </is>
       </c>
-      <c r="C683" t="inlineStr"/>
+      <c r="C683" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -10172,7 +10202,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -10187,7 +10217,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="688">
@@ -10202,7 +10232,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="689">
@@ -10217,7 +10247,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="690">
@@ -10232,7 +10262,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691">
@@ -10260,7 +10290,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693">
@@ -10423,7 +10453,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="704">
@@ -10509,7 +10539,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
@@ -10703,7 +10733,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -10820,9 +10850,7 @@
           <t>LO727S5416435</t>
         </is>
       </c>
-      <c r="C731" t="n">
-        <v>1</v>
-      </c>
+      <c r="C731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -10910,9 +10938,7 @@
           <t>LO742S5418036</t>
         </is>
       </c>
-      <c r="C737" t="n">
-        <v>1</v>
-      </c>
+      <c r="C737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -10980,7 +11006,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -11059,7 +11085,9 @@
           <t>CKJ223014618400</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr"/>
+      <c r="C748" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -11073,7 +11101,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750">
@@ -11087,9 +11115,7 @@
           <t>CKJ24202S5913001</t>
         </is>
       </c>
-      <c r="C750" t="n">
-        <v>4</v>
-      </c>
+      <c r="C750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -11118,7 +11144,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="753">
@@ -11223,7 +11249,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="760">
@@ -11279,7 +11305,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="764">
@@ -11294,7 +11320,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="765">
@@ -11309,7 +11335,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="766">
@@ -11339,7 +11365,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="768">
@@ -11384,7 +11410,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="771">
@@ -11484,7 +11510,9 @@
           <t>CK23503S5420528</t>
         </is>
       </c>
-      <c r="C777" t="inlineStr"/>
+      <c r="C777" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -11566,7 +11594,9 @@
           <t>CK241015118720</t>
         </is>
       </c>
-      <c r="C783" t="inlineStr"/>
+      <c r="C783" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -11593,7 +11623,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="786">
@@ -11608,7 +11638,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787">
@@ -11683,7 +11713,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="792">
@@ -11727,7 +11757,9 @@
           <t>CV10195119780</t>
         </is>
       </c>
-      <c r="C794" t="inlineStr"/>
+      <c r="C794" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -11754,7 +11786,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="797">
@@ -11768,9 +11800,7 @@
           <t>CV50865317022</t>
         </is>
       </c>
-      <c r="C797" t="n">
-        <v>2</v>
-      </c>
+      <c r="C797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -12215,7 +12245,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="830">
@@ -12230,7 +12260,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="831">
@@ -12245,7 +12275,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="832">
@@ -12273,7 +12303,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -12303,7 +12333,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="836">
@@ -12318,7 +12348,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="837">
@@ -12346,7 +12376,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="839">
@@ -12361,7 +12391,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="840">
@@ -12376,7 +12406,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="841">
@@ -12391,7 +12421,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="842">
@@ -12406,7 +12436,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="843">
@@ -12420,7 +12450,9 @@
           <t>CK24507S5717039</t>
         </is>
       </c>
-      <c r="C843" t="inlineStr"/>
+      <c r="C843" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -12897,7 +12929,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="878">
@@ -12912,7 +12944,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="879">
@@ -12942,7 +12974,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="881">
@@ -12956,7 +12988,9 @@
           <t>L29465516275</t>
         </is>
       </c>
-      <c r="C881" t="inlineStr"/>
+      <c r="C881" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -12970,7 +13004,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="883">
@@ -12985,7 +13019,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="884">
@@ -13000,7 +13034,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="885">
@@ -13015,7 +13049,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="886">
@@ -13030,7 +13064,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="887">
@@ -13045,7 +13079,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="888">
@@ -13060,7 +13094,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="889">
@@ -13075,7 +13109,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="890">
@@ -13090,7 +13124,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="891">
@@ -13105,7 +13139,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="892">
@@ -13120,7 +13154,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="893">
@@ -13135,7 +13169,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="894">
@@ -13175,7 +13209,9 @@
           <t>NK72735318410</t>
         </is>
       </c>
-      <c r="C896" t="inlineStr"/>
+      <c r="C896" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -13202,7 +13238,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="899">
@@ -13217,7 +13253,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="900">
@@ -13261,7 +13297,9 @@
           <t>ZS23123SLP5614201</t>
         </is>
       </c>
-      <c r="C902" t="inlineStr"/>
+      <c r="C902" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -13562,7 +13600,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="925">
@@ -13577,7 +13615,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="926">
@@ -13592,7 +13630,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="927">
@@ -13607,7 +13645,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="928">
@@ -13622,7 +13660,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="929">
@@ -13652,7 +13690,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="931">
@@ -13667,7 +13705,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="932">
@@ -13682,7 +13720,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="933">
@@ -13697,7 +13735,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="934">
@@ -13916,7 +13954,9 @@
           <t>CK245135217228</t>
         </is>
       </c>
-      <c r="C949" t="inlineStr"/>
+      <c r="C949" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -13988,7 +14028,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="955">
@@ -14059,7 +14099,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="960">
@@ -14116,7 +14156,9 @@
           <t>CKJ236265416001</t>
         </is>
       </c>
-      <c r="C963" t="inlineStr"/>
+      <c r="C963" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -14173,7 +14215,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="968">
@@ -14270,7 +14312,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="975">
@@ -14385,9 +14427,7 @@
           <t>CKJ242054920717</t>
         </is>
       </c>
-      <c r="C982" t="n">
-        <v>2</v>
-      </c>
+      <c r="C982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
@@ -14676,7 +14716,9 @@
           <t>409235215280</t>
         </is>
       </c>
-      <c r="C1003" t="inlineStr"/>
+      <c r="C1003" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
@@ -14732,9 +14774,7 @@
           <t>DK711S5518001</t>
         </is>
       </c>
-      <c r="C1007" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1007" t="inlineStr"/>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -14803,9 +14843,7 @@
           <t>DK30075216430</t>
         </is>
       </c>
-      <c r="C1012" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1012" t="inlineStr"/>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -14818,9 +14856,7 @@
           <t>DK712S5719001</t>
         </is>
       </c>
-      <c r="C1013" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1013" t="inlineStr"/>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
@@ -15455,7 +15491,9 @@
           <t>460575315001</t>
         </is>
       </c>
-      <c r="C1058" t="inlineStr"/>
+      <c r="C1058" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
@@ -15484,7 +15522,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1061">
@@ -15513,7 +15551,9 @@
           <t>460575515275</t>
         </is>
       </c>
-      <c r="C1062" t="inlineStr"/>
+      <c r="C1062" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -15583,7 +15623,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1068">
@@ -15598,7 +15638,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1069">
@@ -15613,7 +15653,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1070">
@@ -15628,7 +15668,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1071">
@@ -15671,7 +15711,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1074">
@@ -15686,7 +15726,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1075">
@@ -15701,7 +15741,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1076">
@@ -15756,7 +15796,9 @@
           <t>L29485318214</t>
         </is>
       </c>
-      <c r="C1079" t="inlineStr"/>
+      <c r="C1079" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -15785,7 +15827,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1082">
@@ -15800,7 +15842,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1083">
@@ -15830,7 +15872,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1085">
@@ -15845,7 +15887,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1086">
@@ -15873,7 +15915,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1088">
@@ -15903,7 +15945,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1090">
@@ -15933,7 +15975,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1092">
@@ -15947,7 +15989,9 @@
           <t>L36584817424</t>
         </is>
       </c>
-      <c r="C1092" t="inlineStr"/>
+      <c r="C1092" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
@@ -16002,7 +16046,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1097">
@@ -16047,7 +16091,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1100">
@@ -16161,7 +16205,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1108">
@@ -16434,7 +16478,9 @@
           <t>420375616034</t>
         </is>
       </c>
-      <c r="C1127" t="inlineStr"/>
+      <c r="C1127" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
@@ -16488,7 +16534,9 @@
           <t>NK81565219039</t>
         </is>
       </c>
-      <c r="C1131" t="inlineStr"/>
+      <c r="C1131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
@@ -16530,7 +16578,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1135">
@@ -16640,7 +16688,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143">
@@ -16729,7 +16777,9 @@
           <t>ZS235345517001</t>
         </is>
       </c>
-      <c r="C1148" t="inlineStr"/>
+      <c r="C1148" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -16825,7 +16875,7 @@
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1156">
@@ -17298,7 +17348,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1191">
@@ -17564,7 +17614,9 @@
           <t>CKJ226465415671</t>
         </is>
       </c>
-      <c r="C1209" t="inlineStr"/>
+      <c r="C1209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
@@ -17799,9 +17851,7 @@
           <t>CV50645317444</t>
         </is>
       </c>
-      <c r="C1226" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1226" t="inlineStr"/>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
@@ -18115,7 +18165,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1250">
@@ -18883,7 +18933,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1306">
@@ -19261,7 +19311,9 @@
           <t>NK70155517001</t>
         </is>
       </c>
-      <c r="C1332" t="inlineStr"/>
+      <c r="C1332" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -19275,7 +19327,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1334">
@@ -19302,7 +19354,9 @@
           <t>NK70155517410</t>
         </is>
       </c>
-      <c r="C1335" t="inlineStr"/>
+      <c r="C1335" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -20153,9 +20207,7 @@
           <t>DK543S5516310</t>
         </is>
       </c>
-      <c r="C1396" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1396" t="inlineStr"/>
     </row>
     <row r="1397">
       <c r="A1397" t="inlineStr">
@@ -20316,7 +20368,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1409">
@@ -20398,7 +20450,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1415">
@@ -20454,7 +20506,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1419">
@@ -20523,7 +20575,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1424">
@@ -20577,7 +20629,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1428">
@@ -20592,7 +20644,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1429">
@@ -20674,7 +20726,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1435">
@@ -20728,7 +20780,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1439">
@@ -21759,9 +21811,7 @@
           <t>CK22534S5518001</t>
         </is>
       </c>
-      <c r="C1516" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1516" t="inlineStr"/>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
@@ -21907,7 +21957,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1528">
@@ -21961,7 +22011,7 @@
         </is>
       </c>
       <c r="C1531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532">
@@ -22059,7 +22109,9 @@
           <t>CK231275019009</t>
         </is>
       </c>
-      <c r="C1538" t="inlineStr"/>
+      <c r="C1538" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
@@ -22086,7 +22138,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1541">
@@ -22114,7 +22166,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1543">
@@ -22159,7 +22211,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1546">
@@ -22213,7 +22265,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1550">
@@ -22241,7 +22293,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1552">
@@ -22286,7 +22338,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1555">
@@ -22369,9 +22421,7 @@
           <t>CK23534S5420035</t>
         </is>
       </c>
-      <c r="C1560" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1560" t="inlineStr"/>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
@@ -22734,7 +22784,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1587">
@@ -22793,7 +22843,9 @@
           <t>CK235415317460</t>
         </is>
       </c>
-      <c r="C1590" t="inlineStr"/>
+      <c r="C1590" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
@@ -22933,7 +22985,9 @@
           <t>CK235445317004</t>
         </is>
       </c>
-      <c r="C1600" t="inlineStr"/>
+      <c r="C1600" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
@@ -23028,7 +23082,9 @@
           <t>CK235464919230</t>
         </is>
       </c>
-      <c r="C1607" t="inlineStr"/>
+      <c r="C1607" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
@@ -23124,7 +23180,7 @@
         </is>
       </c>
       <c r="C1614" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1615">
@@ -23139,7 +23195,7 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1616">
@@ -23283,7 +23339,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1626">
@@ -23313,7 +23369,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1628">
@@ -23328,7 +23384,7 @@
         </is>
       </c>
       <c r="C1628" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1629">
@@ -23343,7 +23399,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1630">
@@ -23358,7 +23414,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1631">
@@ -23373,7 +23429,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1632">
@@ -23388,7 +23444,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1633">
@@ -23403,7 +23459,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1634">
@@ -23417,7 +23473,9 @@
           <t>CK22125TA5018001</t>
         </is>
       </c>
-      <c r="C1634" t="inlineStr"/>
+      <c r="C1634" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" t="inlineStr">
@@ -23446,7 +23504,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1637">
@@ -23476,7 +23534,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1639">
@@ -23491,7 +23549,7 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1640">
@@ -23532,7 +23590,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1643">
@@ -23547,7 +23605,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1644">
@@ -23629,7 +23687,7 @@
         </is>
       </c>
       <c r="C1649" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1650">
@@ -23656,7 +23714,9 @@
           <t>451185316515</t>
         </is>
       </c>
-      <c r="C1651" t="inlineStr"/>
+      <c r="C1651" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
@@ -23774,7 +23834,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1661">
@@ -23960,7 +24020,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1675">
@@ -23975,7 +24035,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1676">
@@ -24072,7 +24132,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1683">
@@ -24139,7 +24199,7 @@
         </is>
       </c>
       <c r="C1687" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1688">
@@ -24507,7 +24567,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1716">
@@ -24535,7 +24595,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1718">
@@ -24550,7 +24610,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1719">
@@ -24591,7 +24651,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1722">
@@ -24606,7 +24666,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1723">
@@ -24636,7 +24696,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1725">
@@ -24651,7 +24711,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1726">
@@ -24666,7 +24726,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1727">
@@ -24681,7 +24741,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1728">
@@ -24932,7 +24992,7 @@
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1747">
@@ -25038,7 +25098,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1755">
@@ -25053,7 +25113,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1756">
@@ -25094,7 +25154,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1759">
@@ -25280,7 +25340,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1773">
@@ -25295,7 +25355,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1774">
@@ -25309,9 +25369,7 @@
           <t>351554920715</t>
         </is>
       </c>
-      <c r="C1774" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1774" t="inlineStr"/>
     </row>
     <row r="1775">
       <c r="A1775" t="inlineStr">
@@ -29404,9 +29462,7 @@
           <t>CKJ223014618410</t>
         </is>
       </c>
-      <c r="C2087" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2087" t="inlineStr"/>
     </row>
     <row r="2088">
       <c r="A2088" t="inlineStr">
@@ -29433,7 +29489,7 @@
         </is>
       </c>
       <c r="C2089" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2090">
@@ -29545,7 +29601,7 @@
         </is>
       </c>
       <c r="C2097" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2098">
@@ -29559,7 +29615,9 @@
           <t>CKJ226445616400</t>
         </is>
       </c>
-      <c r="C2098" t="inlineStr"/>
+      <c r="C2098" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2099">
       <c r="A2099" t="inlineStr">
@@ -29763,7 +29821,7 @@
         </is>
       </c>
       <c r="C2113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2114">
@@ -29926,9 +29984,7 @@
           <t>CKJ236155418002</t>
         </is>
       </c>
-      <c r="C2125" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2125" t="inlineStr"/>
     </row>
     <row r="2126">
       <c r="A2126" t="inlineStr">
@@ -30099,7 +30155,7 @@
         </is>
       </c>
       <c r="C2137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2138">
@@ -30415,7 +30471,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2160">
@@ -30429,7 +30485,9 @@
           <t>CKJ236495318050</t>
         </is>
       </c>
-      <c r="C2160" t="inlineStr"/>
+      <c r="C2160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
@@ -30458,7 +30516,7 @@
         </is>
       </c>
       <c r="C2162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2163">
@@ -30514,7 +30572,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2167">
@@ -30644,7 +30702,9 @@
           <t>CKJ23653S5517002</t>
         </is>
       </c>
-      <c r="C2175" t="inlineStr"/>
+      <c r="C2175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2176">
       <c r="A2176" t="inlineStr">
@@ -30800,7 +30860,7 @@
         </is>
       </c>
       <c r="C2186" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2187">
@@ -30929,7 +30989,7 @@
         </is>
       </c>
       <c r="C2195" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2196">
@@ -30944,7 +31004,7 @@
         </is>
       </c>
       <c r="C2196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2197">
@@ -31240,7 +31300,7 @@
         </is>
       </c>
       <c r="C2218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -32220,7 +32280,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2289">
@@ -32547,7 +32607,7 @@
         </is>
       </c>
       <c r="C2313" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2314">
@@ -32602,7 +32662,9 @@
           <t>CKJ226485417671</t>
         </is>
       </c>
-      <c r="C2317" t="inlineStr"/>
+      <c r="C2317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
@@ -32758,7 +32820,9 @@
           <t>CKJ226505119971</t>
         </is>
       </c>
-      <c r="C2329" t="inlineStr"/>
+      <c r="C2329" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
@@ -32839,7 +32903,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2336">
@@ -34091,9 +34155,7 @@
           <t>CKJ226225117001</t>
         </is>
       </c>
-      <c r="C2430" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2430" t="inlineStr"/>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
@@ -34210,9 +34272,7 @@
           <t>CKJ222075518050</t>
         </is>
       </c>
-      <c r="C2439" t="n">
-        <v>5</v>
-      </c>
+      <c r="C2439" t="inlineStr"/>
     </row>
     <row r="2440">
       <c r="A2440" t="inlineStr">
@@ -37792,9 +37852,7 @@
           <t>CV556S5120001</t>
         </is>
       </c>
-      <c r="C2709" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2709" t="inlineStr"/>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
@@ -37867,9 +37925,7 @@
           <t>CV557S5319260</t>
         </is>
       </c>
-      <c r="C2714" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2714" t="inlineStr"/>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
@@ -38653,7 +38709,7 @@
         </is>
       </c>
       <c r="C2773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2774">
@@ -38870,9 +38926,7 @@
           <t>469545217054</t>
         </is>
       </c>
-      <c r="C2789" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2789" t="inlineStr"/>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
@@ -39477,7 +39531,7 @@
         </is>
       </c>
       <c r="C2835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2836">
@@ -39690,9 +39744,7 @@
           <t>469555116420</t>
         </is>
       </c>
-      <c r="C2851" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2851" t="inlineStr"/>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
@@ -39971,7 +40023,9 @@
           <t>469455117001</t>
         </is>
       </c>
-      <c r="C2872" t="inlineStr"/>
+      <c r="C2872" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
@@ -40278,9 +40332,7 @@
           <t>469385217201</t>
         </is>
       </c>
-      <c r="C2895" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2895" t="inlineStr"/>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
@@ -40711,7 +40763,9 @@
           <t>469765519001</t>
         </is>
       </c>
-      <c r="C2928" t="inlineStr"/>
+      <c r="C2928" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2929">
       <c r="A2929" t="inlineStr">
@@ -42589,9 +42643,7 @@
           <t>DK10324820717</t>
         </is>
       </c>
-      <c r="C3072" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3072" t="inlineStr"/>
     </row>
     <row r="3073">
       <c r="A3073" t="inlineStr">
@@ -42646,7 +42698,7 @@
         </is>
       </c>
       <c r="C3076" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3077">
@@ -42720,9 +42772,7 @@
           <t>DK50585217001</t>
         </is>
       </c>
-      <c r="C3081" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3081" t="inlineStr"/>
     </row>
     <row r="3082">
       <c r="A3082" t="inlineStr">
@@ -43039,7 +43089,7 @@
         </is>
       </c>
       <c r="C3103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3104">
@@ -43153,7 +43203,7 @@
         </is>
       </c>
       <c r="C3111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3112">
@@ -44240,9 +44290,7 @@
           <t>SF1107S5520708</t>
         </is>
       </c>
-      <c r="C3191" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3191" t="inlineStr"/>
     </row>
     <row r="3192">
       <c r="A3192" t="inlineStr">
@@ -44971,7 +45019,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3246">
@@ -44986,7 +45034,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3247">
@@ -45001,7 +45049,7 @@
         </is>
       </c>
       <c r="C3247" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3248">
@@ -45057,7 +45105,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3252">
@@ -45072,7 +45120,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3253">
@@ -45100,7 +45148,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3255">
@@ -45173,7 +45221,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3260">
@@ -45298,7 +45346,7 @@
         </is>
       </c>
       <c r="C3268" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3269">
@@ -45326,7 +45374,7 @@
         </is>
       </c>
       <c r="C3270" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3271">
@@ -45341,7 +45389,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3272">
@@ -45675,7 +45723,7 @@
         </is>
       </c>
       <c r="C3295" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3296">
@@ -45781,7 +45829,7 @@
         </is>
       </c>
       <c r="C3303" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3304">
@@ -45796,7 +45844,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3305">
@@ -45826,7 +45874,7 @@
         </is>
       </c>
       <c r="C3306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3307">
@@ -45886,7 +45934,7 @@
         </is>
       </c>
       <c r="C3310" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3311">
@@ -45901,7 +45949,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3312">
@@ -45916,7 +45964,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3313">
@@ -45931,7 +45979,7 @@
         </is>
       </c>
       <c r="C3313" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3314">
@@ -46131,7 +46179,7 @@
         </is>
       </c>
       <c r="C3327" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3328">
@@ -46146,7 +46194,7 @@
         </is>
       </c>
       <c r="C3328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3329">
@@ -46191,7 +46239,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3332">
@@ -46206,7 +46254,7 @@
         </is>
       </c>
       <c r="C3332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3333">
@@ -46221,7 +46269,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3334">
@@ -46250,7 +46298,9 @@
           <t>402444718615</t>
         </is>
       </c>
-      <c r="C3335" t="inlineStr"/>
+      <c r="C3335" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3336">
       <c r="A3336" t="inlineStr">
@@ -46291,7 +46341,9 @@
           <t>L6008S5319002</t>
         </is>
       </c>
-      <c r="C3338" t="inlineStr"/>
+      <c r="C3338" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="3339">
       <c r="A3339" t="inlineStr">
@@ -46305,7 +46357,7 @@
         </is>
       </c>
       <c r="C3339" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3340">
@@ -46319,7 +46371,9 @@
           <t>L6008S5319210</t>
         </is>
       </c>
-      <c r="C3340" t="inlineStr"/>
+      <c r="C3340" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="3341">
       <c r="A3341" t="inlineStr">
@@ -46402,7 +46456,7 @@
         </is>
       </c>
       <c r="C3346" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3347">
@@ -46417,7 +46471,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3348">
@@ -46432,7 +46486,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3349">
@@ -46447,7 +46501,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3350">
@@ -46462,7 +46516,7 @@
         </is>
       </c>
       <c r="C3350" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3351">
@@ -46638,7 +46692,7 @@
         </is>
       </c>
       <c r="C3362" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3363">
@@ -47091,7 +47145,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3396">
@@ -47452,9 +47506,7 @@
           <t>L982S5319401</t>
         </is>
       </c>
-      <c r="C3421" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3421" t="inlineStr"/>
     </row>
     <row r="3422">
       <c r="A3422" t="inlineStr">
@@ -47664,7 +47716,7 @@
         </is>
       </c>
       <c r="C3436" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3437">
@@ -47707,7 +47759,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3440">
@@ -48294,7 +48346,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3483">
@@ -49032,7 +49084,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3537">
@@ -49181,7 +49233,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3548">
@@ -49235,7 +49287,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3552">
@@ -49318,7 +49370,9 @@
           <t>460745619424</t>
         </is>
       </c>
-      <c r="C3557" t="inlineStr"/>
+      <c r="C3557" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3558">
       <c r="A3558" t="inlineStr">
@@ -49345,7 +49399,7 @@
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3560">
@@ -49373,7 +49427,7 @@
         </is>
       </c>
       <c r="C3561" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3562">
@@ -49539,7 +49593,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3574">
@@ -49554,7 +49608,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3575">
@@ -49569,7 +49623,7 @@
         </is>
       </c>
       <c r="C3575" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3576">
@@ -49583,7 +49637,9 @@
           <t>401095418424</t>
         </is>
       </c>
-      <c r="C3576" t="inlineStr"/>
+      <c r="C3576" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="3577">
       <c r="A3577" t="inlineStr">
@@ -49720,7 +49776,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3587">
@@ -49735,7 +49791,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3588">
@@ -49791,7 +49847,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3592">
@@ -49871,7 +49927,7 @@
         </is>
       </c>
       <c r="C3597" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3598">
@@ -50148,7 +50204,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3619">
@@ -50163,7 +50219,7 @@
         </is>
       </c>
       <c r="C3619" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3620">
@@ -50178,7 +50234,7 @@
         </is>
       </c>
       <c r="C3620" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3621">
@@ -50234,7 +50290,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3625">
@@ -50249,7 +50305,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3626">
@@ -50328,7 +50384,9 @@
           <t>592365618400</t>
         </is>
       </c>
-      <c r="C3631" t="inlineStr"/>
+      <c r="C3631" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3632">
       <c r="A3632" t="inlineStr">
@@ -50754,7 +50812,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3663">
@@ -50953,7 +51011,7 @@
         </is>
       </c>
       <c r="C3677" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3678">
@@ -52271,7 +52329,7 @@
         </is>
       </c>
       <c r="C3777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3778">
@@ -52676,7 +52734,7 @@
         </is>
       </c>
       <c r="C3808" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3809">
@@ -52691,7 +52749,7 @@
         </is>
       </c>
       <c r="C3809" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3810">
@@ -56309,7 +56367,7 @@
         </is>
       </c>
       <c r="C4087" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4088">
@@ -56323,9 +56381,7 @@
           <t>LO27265415210</t>
         </is>
       </c>
-      <c r="C4088" t="n">
-        <v>2</v>
-      </c>
+      <c r="C4088" t="inlineStr"/>
     </row>
     <row r="4089">
       <c r="A4089" t="inlineStr">
@@ -56588,9 +56644,7 @@
           <t>LO21605018705</t>
         </is>
       </c>
-      <c r="C4107" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4107" t="inlineStr"/>
     </row>
     <row r="4108">
       <c r="A4108" t="inlineStr">
@@ -56860,7 +56914,9 @@
           <t>LO27155215230</t>
         </is>
       </c>
-      <c r="C4127" t="inlineStr"/>
+      <c r="C4127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4128">
       <c r="A4128" t="inlineStr">
@@ -56931,9 +56987,7 @@
           <t>LO27275315037</t>
         </is>
       </c>
-      <c r="C4132" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4132" t="inlineStr"/>
     </row>
     <row r="4133">
       <c r="A4133" t="inlineStr">
@@ -58318,9 +58372,7 @@
           <t>N5147S6018005</t>
         </is>
       </c>
-      <c r="C4231" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4231" t="inlineStr"/>
     </row>
     <row r="4232">
       <c r="A4232" t="inlineStr">
@@ -58832,7 +58884,9 @@
           <t>N81805618005</t>
         </is>
       </c>
-      <c r="C4267" t="inlineStr"/>
+      <c r="C4267" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4268">
       <c r="A4268" t="inlineStr">
@@ -59848,7 +59902,9 @@
           <t>395755717005</t>
         </is>
       </c>
-      <c r="C4341" t="inlineStr"/>
+      <c r="C4341" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4342">
       <c r="A4342" t="inlineStr">
@@ -60426,7 +60482,9 @@
           <t>397785318040</t>
         </is>
       </c>
-      <c r="C4385" t="inlineStr"/>
+      <c r="C4385" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4386">
       <c r="A4386" t="inlineStr">
@@ -61727,7 +61785,9 @@
           <t>NK70565320001</t>
         </is>
       </c>
-      <c r="C4484" t="inlineStr"/>
+      <c r="C4484" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4485">
       <c r="A4485" t="inlineStr">
@@ -61756,7 +61816,7 @@
         </is>
       </c>
       <c r="C4486" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4487">
@@ -61799,7 +61859,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4490">
@@ -61829,7 +61889,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4492">
@@ -62038,7 +62098,7 @@
         </is>
       </c>
       <c r="C4506" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4507">
@@ -62255,7 +62315,9 @@
           <t>NKFV23915914060</t>
         </is>
       </c>
-      <c r="C4522" t="inlineStr"/>
+      <c r="C4522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4523">
       <c r="A4523" t="inlineStr">
@@ -63136,7 +63198,9 @@
           <t>NKFD18495718013</t>
         </is>
       </c>
-      <c r="C4587" t="inlineStr"/>
+      <c r="C4587" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4588">
       <c r="A4588" t="inlineStr">
@@ -63175,7 +63239,9 @@
           <t>NKFD18505120011</t>
         </is>
       </c>
-      <c r="C4590" t="inlineStr"/>
+      <c r="C4590" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4591">
       <c r="A4591" t="inlineStr">
@@ -64581,7 +64647,9 @@
           <t>441585615302</t>
         </is>
       </c>
-      <c r="C4696" t="inlineStr"/>
+      <c r="C4696" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4697">
       <c r="A4697" t="inlineStr">
@@ -65054,7 +65122,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4733">
@@ -65161,7 +65229,9 @@
           <t>406985015011</t>
         </is>
       </c>
-      <c r="C4740" t="inlineStr"/>
+      <c r="C4740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4741">
       <c r="A4741" t="inlineStr">
@@ -65644,7 +65714,7 @@
         </is>
       </c>
       <c r="C4776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4777">
@@ -66001,7 +66071,7 @@
         </is>
       </c>
       <c r="C4803" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4804">
@@ -66133,7 +66203,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4814">
@@ -66160,7 +66230,9 @@
           <t>276335514011</t>
         </is>
       </c>
-      <c r="C4815" t="inlineStr"/>
+      <c r="C4815" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4816">
       <c r="A4816" t="inlineStr">
@@ -66189,7 +66261,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4818">
@@ -66230,7 +66302,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4821">
@@ -66245,7 +66317,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4822">
@@ -66260,7 +66332,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4823">
@@ -66303,7 +66375,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4826">
@@ -66318,7 +66390,7 @@
         </is>
       </c>
       <c r="C4826" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4827">
@@ -66359,7 +66431,7 @@
         </is>
       </c>
       <c r="C4829" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4830">
@@ -66374,7 +66446,7 @@
         </is>
       </c>
       <c r="C4830" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4831">
@@ -66440,7 +66512,9 @@
           <t>398615415001</t>
         </is>
       </c>
-      <c r="C4835" t="inlineStr"/>
+      <c r="C4835" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4836">
       <c r="A4836" t="inlineStr">
@@ -66743,7 +66817,9 @@
           <t>337035317070</t>
         </is>
       </c>
-      <c r="C4858" t="inlineStr"/>
+      <c r="C4858" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4859">
       <c r="A4859" t="inlineStr">
@@ -66982,7 +67058,7 @@
         </is>
       </c>
       <c r="C4876" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4877">
@@ -67023,7 +67099,7 @@
         </is>
       </c>
       <c r="C4879" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4880">
@@ -67872,7 +67948,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4945">
@@ -67900,7 +67976,7 @@
         </is>
       </c>
       <c r="C4946" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4947">
@@ -72704,7 +72780,9 @@
           <t>ZS22509SP5320001</t>
         </is>
       </c>
-      <c r="C5305" t="inlineStr"/>
+      <c r="C5305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5306">
       <c r="A5306" t="inlineStr">
@@ -73232,7 +73310,9 @@
           <t>ZS231405517403</t>
         </is>
       </c>
-      <c r="C5343" t="inlineStr"/>
+      <c r="C5343" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5344">
       <c r="A5344" t="inlineStr">
@@ -73260,7 +73340,9 @@
           <t>ZS231414920002</t>
         </is>
       </c>
-      <c r="C5345" t="inlineStr"/>
+      <c r="C5345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
@@ -73273,7 +73355,9 @@
           <t>ZS231414920069</t>
         </is>
       </c>
-      <c r="C5346" t="inlineStr"/>
+      <c r="C5346" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5347">
       <c r="A5347" t="inlineStr">
@@ -73286,7 +73370,9 @@
           <t>ZS231414920203</t>
         </is>
       </c>
-      <c r="C5347" t="inlineStr"/>
+      <c r="C5347" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5348">
       <c r="A5348" t="inlineStr">
@@ -73433,7 +73519,9 @@
           <t>ZS235375022462</t>
         </is>
       </c>
-      <c r="C5358" t="inlineStr"/>
+      <c r="C5358" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5359">
       <c r="A5359" t="inlineStr">
@@ -73506,7 +73594,9 @@
           <t>ZS235395318002</t>
         </is>
       </c>
-      <c r="C5363" t="inlineStr"/>
+      <c r="C5363" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5364">
       <c r="A5364" t="inlineStr">
@@ -73532,7 +73622,9 @@
           <t>ZS235395318404</t>
         </is>
       </c>
-      <c r="C5365" t="inlineStr"/>
+      <c r="C5365" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5366">
       <c r="A5366" t="inlineStr">
@@ -73545,7 +73637,9 @@
           <t>ZS235395318601</t>
         </is>
       </c>
-      <c r="C5366" t="inlineStr"/>
+      <c r="C5366" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5367">
       <c r="A5367" t="inlineStr">
@@ -73571,7 +73665,9 @@
           <t>ZS235405020002</t>
         </is>
       </c>
-      <c r="C5368" t="inlineStr"/>
+      <c r="C5368" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
@@ -73623,7 +73719,9 @@
           <t>ZS235405020821</t>
         </is>
       </c>
-      <c r="C5372" t="inlineStr"/>
+      <c r="C5372" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5373">
       <c r="A5373" t="inlineStr">
@@ -73774,7 +73872,9 @@
           <t>ZS237185518325</t>
         </is>
       </c>
-      <c r="C5383" t="inlineStr"/>
+      <c r="C5383" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5384">
       <c r="A5384" t="inlineStr">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="276">
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="403">
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="404">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="453">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="485">
@@ -7719,7 +7719,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="514">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="516">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526">
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="753">
@@ -11249,7 +11249,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="760">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="771">
@@ -12230,7 +12230,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="829">
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="832">
@@ -13094,7 +13094,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="889">
@@ -13210,7 +13210,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="897">
@@ -13238,7 +13238,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="899">
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="900">
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="928">
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="929">
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="975">
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1128">
@@ -16535,7 +16535,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1333">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1334">
@@ -19355,7 +19355,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1336">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1550">
@@ -22378,9 +22378,7 @@
           <t>CK23533S5320244</t>
         </is>
       </c>
-      <c r="C1557" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1557" t="inlineStr"/>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
@@ -22986,7 +22984,7 @@
         </is>
       </c>
       <c r="C1600" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1601">
@@ -23165,7 +23163,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1614">
@@ -24020,7 +24018,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1675">
@@ -24595,7 +24593,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1718">
@@ -24666,7 +24664,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1723">
@@ -24696,7 +24694,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1725">
@@ -24726,7 +24724,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1727">
@@ -24886,7 +24884,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1739">
@@ -25154,7 +25152,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1759">
@@ -29616,7 +29614,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2099">
@@ -30471,7 +30469,7 @@
         </is>
       </c>
       <c r="C2159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2160">
@@ -30572,7 +30570,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2167">
@@ -32197,9 +32195,7 @@
           <t>CKJ236145414001</t>
         </is>
       </c>
-      <c r="C2282" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2282" t="inlineStr"/>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
@@ -32903,7 +32899,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2336">
@@ -45034,7 +45030,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3247">
@@ -45120,7 +45116,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3253">
@@ -45148,7 +45144,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3255">
@@ -47145,7 +47141,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3396">
@@ -47287,7 +47283,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3406">
@@ -49608,7 +49604,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3575">
@@ -49638,7 +49634,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3577">
@@ -61625,9 +61621,7 @@
           <t>NK43155517076</t>
         </is>
       </c>
-      <c r="C4472" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4472" t="inlineStr"/>
     </row>
     <row r="4473">
       <c r="A4473" t="inlineStr">
@@ -61874,7 +61868,7 @@
         </is>
       </c>
       <c r="C4490" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4491">
@@ -62112,9 +62106,7 @@
           <t>NK81545317076</t>
         </is>
       </c>
-      <c r="C4507" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4507" t="inlineStr"/>
     </row>
     <row r="4508">
       <c r="A4508" t="inlineStr">
@@ -66230,9 +66222,7 @@
           <t>276335514011</t>
         </is>
       </c>
-      <c r="C4815" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4815" t="inlineStr"/>
     </row>
     <row r="4816">
       <c r="A4816" t="inlineStr">
@@ -66261,7 +66251,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4818">
@@ -66302,7 +66292,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4821">
@@ -66317,7 +66307,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4822">
@@ -66347,7 +66337,7 @@
         </is>
       </c>
       <c r="C4823" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4824">
@@ -66431,7 +66421,7 @@
         </is>
       </c>
       <c r="C4829" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4830">
@@ -67948,7 +67938,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4945">
@@ -67976,7 +67966,7 @@
         </is>
       </c>
       <c r="C4946" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4947">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="515">
@@ -11234,7 +11234,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="759">
@@ -13124,7 +13124,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="891">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1083">
@@ -23163,7 +23163,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1614">
@@ -24724,7 +24724,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1727">
@@ -25353,7 +25353,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1774">
@@ -47283,7 +47283,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3406">
@@ -48046,7 +48046,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3461">
@@ -49574,7 +49574,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3573">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -564,9 +564,7 @@
           <t>M20305317002</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -776,7 +774,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1036,9 +1034,7 @@
           <t>NK50364717034</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1051,9 +1047,7 @@
           <t>NK50364717688</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1067,7 +1061,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1252,7 +1246,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1308,7 +1302,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -1615,9 +1609,7 @@
           <t>ZS245415616207</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2100,7 +2092,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -3088,7 +3080,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
@@ -3157,7 +3149,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
@@ -3313,9 +3305,7 @@
           <t>SF29545417275</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
+      <c r="C204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3502,9 +3492,7 @@
           <t>SF2004S5318024</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1</v>
-      </c>
+      <c r="C217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3605,9 +3593,7 @@
           <t>SF29725416601</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>1</v>
-      </c>
+      <c r="C224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3661,9 +3647,7 @@
           <t>SF29545417001</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>1</v>
-      </c>
+      <c r="C228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3920,7 +3904,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="247">
@@ -3991,7 +3975,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="252">
@@ -4019,7 +4003,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254">
@@ -4049,7 +4033,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -4064,7 +4048,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -4150,7 +4134,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263">
@@ -4165,7 +4149,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -4323,9 +4307,7 @@
           <t>L29475418001</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>1</v>
-      </c>
+      <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4339,7 +4321,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="276">
@@ -4412,7 +4394,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -4453,7 +4435,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284">
@@ -4481,7 +4463,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
@@ -4496,7 +4478,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287">
@@ -4511,7 +4493,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="288">
@@ -4853,7 +4835,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="312">
@@ -4868,7 +4850,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -4898,7 +4880,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315">
@@ -4925,9 +4907,7 @@
           <t>CK245135417005</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>1</v>
-      </c>
+      <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4941,7 +4921,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -4971,7 +4951,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320">
@@ -5059,7 +5039,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326">
@@ -5074,7 +5054,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -5370,9 +5350,7 @@
           <t>CKJ242095517671</t>
         </is>
       </c>
-      <c r="C347" t="n">
-        <v>16</v>
-      </c>
+      <c r="C347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5818,7 +5796,9 @@
           <t>CV50935317412</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr"/>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6138,7 +6118,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="403">
@@ -6153,7 +6133,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404">
@@ -6209,7 +6189,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408">
@@ -6237,7 +6217,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410">
@@ -6252,7 +6232,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="411">
@@ -6377,7 +6357,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="420">
@@ -6648,7 +6628,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439">
@@ -6773,7 +6753,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="448">
@@ -6814,7 +6794,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451">
@@ -6842,7 +6822,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="453">
@@ -6883,7 +6863,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="456">
@@ -6924,7 +6904,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="459">
@@ -6939,7 +6919,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="460">
@@ -6968,9 +6948,7 @@
           <t>CKJ246115216001</t>
         </is>
       </c>
-      <c r="C461" t="n">
-        <v>1</v>
-      </c>
+      <c r="C461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -6984,7 +6962,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="463">
@@ -6999,7 +6977,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="464">
@@ -7079,7 +7057,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="470">
@@ -7094,7 +7072,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="471">
@@ -7109,7 +7087,7 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="472">
@@ -7124,7 +7102,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="473">
@@ -7152,7 +7130,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="475">
@@ -7167,7 +7145,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="476">
@@ -7182,7 +7160,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="477">
@@ -7197,7 +7175,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="478">
@@ -7225,7 +7203,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="480">
@@ -7266,7 +7244,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="483">
@@ -7294,7 +7272,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="485">
@@ -7309,7 +7287,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="486">
@@ -7324,7 +7302,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="487">
@@ -7339,7 +7317,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="488">
@@ -7369,7 +7347,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="490">
@@ -7384,7 +7362,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="491">
@@ -7414,7 +7392,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="493">
@@ -7429,7 +7407,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="494">
@@ -7444,7 +7422,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="495">
@@ -7459,7 +7437,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="496">
@@ -7489,7 +7467,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="498">
@@ -7504,7 +7482,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="499">
@@ -7532,7 +7510,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="501">
@@ -7547,7 +7525,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="502">
@@ -7562,7 +7540,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="503">
@@ -7577,7 +7555,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="504">
@@ -7617,7 +7595,9 @@
           <t>L6041S5418001</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -7644,7 +7624,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="509">
@@ -7674,7 +7654,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="511">
@@ -7689,7 +7669,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="512">
@@ -7719,7 +7699,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="514">
@@ -7734,7 +7714,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515">
@@ -7749,7 +7729,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="516">
@@ -7764,7 +7744,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="517">
@@ -7792,7 +7772,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="519">
@@ -7878,7 +7858,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="525">
@@ -7892,9 +7872,7 @@
           <t>NK72915614006</t>
         </is>
       </c>
-      <c r="C525" t="n">
-        <v>16</v>
-      </c>
+      <c r="C525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -7908,7 +7886,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="527">
@@ -8184,7 +8162,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="547">
@@ -8244,7 +8222,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551">
@@ -8259,7 +8237,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -8273,9 +8251,7 @@
           <t>470835317410</t>
         </is>
       </c>
-      <c r="C552" t="n">
-        <v>1</v>
-      </c>
+      <c r="C552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -8289,7 +8265,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -8362,7 +8338,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -8390,7 +8366,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561">
@@ -8431,7 +8407,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="564">
@@ -8461,7 +8437,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="566">
@@ -8476,7 +8452,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="567">
@@ -8491,7 +8467,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -8652,7 +8628,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579">
@@ -8667,7 +8643,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -8740,7 +8716,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -9253,7 +9229,9 @@
           <t>ZS225265418002</t>
         </is>
       </c>
-      <c r="C620" t="inlineStr"/>
+      <c r="C620" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -9337,9 +9315,7 @@
           <t>ZS231255520201</t>
         </is>
       </c>
-      <c r="C626" t="n">
-        <v>1</v>
-      </c>
+      <c r="C626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -9479,9 +9455,7 @@
           <t>ZS235355020001</t>
         </is>
       </c>
-      <c r="C636" t="n">
-        <v>1</v>
-      </c>
+      <c r="C636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -9495,7 +9469,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638">
@@ -9510,7 +9484,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -9553,7 +9527,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -10099,7 +10073,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="680">
@@ -10127,7 +10101,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="682">
@@ -10142,7 +10116,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="683">
@@ -10157,7 +10131,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684">
@@ -10172,7 +10146,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="685">
@@ -10217,7 +10191,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="688">
@@ -10232,7 +10206,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="689">
@@ -10247,7 +10221,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="690">
@@ -10262,7 +10236,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="691">
@@ -10290,7 +10264,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="693">
@@ -10305,7 +10279,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="694">
@@ -10335,7 +10309,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="696">
@@ -10350,7 +10324,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697">
@@ -10378,7 +10352,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="699">
@@ -10393,7 +10367,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="700">
@@ -10408,7 +10382,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="701">
@@ -10453,7 +10427,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="704">
@@ -10977,9 +10951,7 @@
           <t>421375417215</t>
         </is>
       </c>
-      <c r="C740" t="n">
-        <v>1</v>
-      </c>
+      <c r="C740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -11006,7 +10978,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743">
@@ -11144,7 +11116,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="753">
@@ -11174,7 +11146,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="755">
@@ -11189,7 +11161,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="756">
@@ -11249,7 +11221,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="760">
@@ -11277,7 +11249,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="762">
@@ -11305,7 +11277,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="764">
@@ -11320,7 +11292,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="765">
@@ -11335,7 +11307,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="766">
@@ -11350,7 +11322,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="767">
@@ -11365,7 +11337,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="768">
@@ -11410,7 +11382,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="771">
@@ -11595,7 +11567,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -11623,7 +11595,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786">
@@ -11638,7 +11610,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787">
@@ -11653,7 +11625,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="788">
@@ -11698,7 +11670,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="791">
@@ -11728,7 +11700,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="793">
@@ -11743,7 +11715,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="794">
@@ -11758,7 +11730,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="795">
@@ -12245,7 +12217,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="830">
@@ -12260,7 +12232,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="831">
@@ -12275,7 +12247,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="832">
@@ -12303,7 +12275,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -12333,7 +12305,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="836">
@@ -12348,7 +12320,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="837">
@@ -12376,7 +12348,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="839">
@@ -12391,7 +12363,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -12406,7 +12378,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="841">
@@ -12421,7 +12393,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="842">
@@ -12436,7 +12408,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="843">
@@ -12481,7 +12453,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="846">
@@ -12696,9 +12668,7 @@
           <t>CKJ246195317050</t>
         </is>
       </c>
-      <c r="C861" t="n">
-        <v>1</v>
-      </c>
+      <c r="C861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -12711,9 +12681,7 @@
           <t>CKJ246105418002</t>
         </is>
       </c>
-      <c r="C862" t="n">
-        <v>2</v>
-      </c>
+      <c r="C862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -12929,7 +12897,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="878">
@@ -12944,7 +12912,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="879">
@@ -12959,7 +12927,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="880">
@@ -12974,7 +12942,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="881">
@@ -12989,7 +12957,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882">
@@ -13004,7 +12972,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="883">
@@ -13019,7 +12987,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884">
@@ -13034,7 +13002,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="885">
@@ -13049,7 +13017,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="886">
@@ -13064,7 +13032,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="887">
@@ -13079,7 +13047,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="888">
@@ -13094,7 +13062,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="889">
@@ -13124,7 +13092,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891">
@@ -13139,7 +13107,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="892">
@@ -13169,7 +13137,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="894">
@@ -13253,7 +13221,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="900">
@@ -13298,7 +13266,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903">
@@ -13463,9 +13431,7 @@
           <t>451065316001</t>
         </is>
       </c>
-      <c r="C914" t="n">
-        <v>3</v>
-      </c>
+      <c r="C914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -13532,7 +13498,9 @@
           <t>CK23503S5420320</t>
         </is>
       </c>
-      <c r="C919" t="inlineStr"/>
+      <c r="C919" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -13600,7 +13568,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="925">
@@ -13615,7 +13583,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="926">
@@ -13630,7 +13598,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="927">
@@ -13645,7 +13613,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="928">
@@ -13660,7 +13628,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="929">
@@ -13690,7 +13658,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="931">
@@ -13705,7 +13673,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="932">
@@ -13720,7 +13688,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="933">
@@ -13735,7 +13703,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="934">
@@ -13955,7 +13923,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950">
@@ -14069,7 +14037,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958">
@@ -14099,7 +14067,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960">
@@ -14200,7 +14168,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="967">
@@ -14312,7 +14280,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="975">
@@ -14357,7 +14325,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="978">
@@ -14372,7 +14340,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979">
@@ -14993,7 +14961,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
@@ -15352,7 +15320,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -15492,7 +15460,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1059">
@@ -15522,7 +15490,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1061">
@@ -15537,7 +15505,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1062">
@@ -15595,7 +15563,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1066">
@@ -15623,7 +15591,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1068">
@@ -15638,7 +15606,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -15653,7 +15621,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1070">
@@ -15668,7 +15636,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1071">
@@ -15696,7 +15664,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1073">
@@ -15711,7 +15679,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1074">
@@ -15726,7 +15694,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1075">
@@ -15797,7 +15765,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -15842,7 +15810,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1083">
@@ -15872,7 +15840,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1085">
@@ -15915,7 +15883,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1088">
@@ -15945,7 +15913,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1090">
@@ -15975,7 +15943,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1092">
@@ -15989,9 +15957,7 @@
           <t>L36584817424</t>
         </is>
       </c>
-      <c r="C1092" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1092" t="inlineStr"/>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
@@ -16031,7 +15997,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
@@ -16046,7 +16012,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1097">
@@ -16091,7 +16057,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1100">
@@ -16479,7 +16445,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1128">
@@ -16578,7 +16544,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1135">
@@ -16733,7 +16699,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1146">
@@ -17214,7 +17180,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1181">
@@ -19312,7 +19278,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1333">
@@ -19327,7 +19293,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1334">
@@ -19355,7 +19321,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1336">
@@ -19530,7 +19496,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1349">
@@ -20368,7 +20334,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -20506,7 +20472,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1419">
@@ -20575,7 +20541,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1424">
@@ -20629,7 +20595,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1428">
@@ -20644,7 +20610,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1429">
@@ -20726,7 +20692,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1435">
@@ -21811,7 +21777,9 @@
           <t>CK22534S5518001</t>
         </is>
       </c>
-      <c r="C1516" t="inlineStr"/>
+      <c r="C1516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
@@ -22211,7 +22179,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1546">
@@ -22293,7 +22261,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1552">
@@ -22338,7 +22306,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1555">
@@ -22419,7 +22387,9 @@
           <t>CK23534S5420035</t>
         </is>
       </c>
-      <c r="C1560" t="inlineStr"/>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
@@ -22782,7 +22752,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1587">
@@ -22841,9 +22811,7 @@
           <t>CK235415317460</t>
         </is>
       </c>
-      <c r="C1590" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1590" t="inlineStr"/>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
@@ -22885,7 +22853,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1594">
@@ -22984,7 +22952,7 @@
         </is>
       </c>
       <c r="C1600" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1601">
@@ -23081,7 +23049,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1608">
@@ -23163,7 +23131,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1614">
@@ -23193,7 +23161,7 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616">
@@ -23294,7 +23262,7 @@
         </is>
       </c>
       <c r="C1622" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1623">
@@ -23337,7 +23305,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1626">
@@ -23367,7 +23335,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1628">
@@ -23397,7 +23365,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1630">
@@ -23412,7 +23380,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1631">
@@ -23442,7 +23410,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1633">
@@ -23457,7 +23425,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1634">
@@ -23472,7 +23440,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1635">
@@ -23502,7 +23470,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1637">
@@ -23517,7 +23485,7 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1638">
@@ -23532,7 +23500,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1639">
@@ -23547,7 +23515,7 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1640">
@@ -23588,7 +23556,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1643">
@@ -23603,7 +23571,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1644">
@@ -23685,7 +23653,7 @@
         </is>
       </c>
       <c r="C1649" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1650">
@@ -23832,7 +23800,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1661">
@@ -24018,7 +23986,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1675">
@@ -24033,7 +24001,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1676">
@@ -24115,7 +24083,7 @@
         </is>
       </c>
       <c r="C1681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1682">
@@ -24130,7 +24098,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1683">
@@ -24197,7 +24165,7 @@
         </is>
       </c>
       <c r="C1687" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1688">
@@ -24593,7 +24561,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1718">
@@ -24608,7 +24576,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1719">
@@ -24649,7 +24617,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1722">
@@ -24664,7 +24632,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1723">
@@ -24679,7 +24647,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1724">
@@ -24694,7 +24662,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1725">
@@ -24709,7 +24677,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1726">
@@ -24724,7 +24692,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1727">
@@ -24739,7 +24707,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1728">
@@ -24884,7 +24852,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1739">
@@ -24990,7 +24958,7 @@
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1747">
@@ -25096,7 +25064,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1755">
@@ -25111,7 +25079,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1756">
@@ -25152,7 +25120,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1759">
@@ -25338,7 +25306,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="1773">
@@ -25353,7 +25321,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1774">
@@ -29598,9 +29566,7 @@
           <t>CKJ226445616050</t>
         </is>
       </c>
-      <c r="C2097" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2097" t="inlineStr"/>
     </row>
     <row r="2098">
       <c r="A2098" t="inlineStr">
@@ -29819,7 +29785,7 @@
         </is>
       </c>
       <c r="C2113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2114">
@@ -29901,7 +29867,7 @@
         </is>
       </c>
       <c r="C2119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2120">
@@ -29967,9 +29933,7 @@
           <t>CKJ236115417050</t>
         </is>
       </c>
-      <c r="C2124" t="n">
-        <v>2</v>
-      </c>
+      <c r="C2124" t="inlineStr"/>
     </row>
     <row r="2125">
       <c r="A2125" t="inlineStr">
@@ -30138,7 +30102,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2137">
@@ -30468,9 +30432,7 @@
           <t>CKJ236495318002</t>
         </is>
       </c>
-      <c r="C2159" t="n">
-        <v>3</v>
-      </c>
+      <c r="C2159" t="inlineStr"/>
     </row>
     <row r="2160">
       <c r="A2160" t="inlineStr">
@@ -30484,7 +30446,7 @@
         </is>
       </c>
       <c r="C2160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2161">
@@ -30570,7 +30532,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2167">
@@ -31204,9 +31166,7 @@
           <t>CKJ22643S5220309</t>
         </is>
       </c>
-      <c r="C2211" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2211" t="inlineStr"/>
     </row>
     <row r="2212">
       <c r="A2212" t="inlineStr">
@@ -32276,7 +32236,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2289">
@@ -32658,9 +32618,7 @@
           <t>CKJ226485417671</t>
         </is>
       </c>
-      <c r="C2317" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2317" t="inlineStr"/>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
@@ -32817,7 +32775,7 @@
         </is>
       </c>
       <c r="C2329" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2330">
@@ -32899,7 +32857,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2336">
@@ -32993,7 +32951,9 @@
           <t>CKJ222205119043</t>
         </is>
       </c>
-      <c r="C2342" t="inlineStr"/>
+      <c r="C2342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
@@ -33102,7 +33062,7 @@
         </is>
       </c>
       <c r="C2350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2351">
@@ -37399,7 +37359,9 @@
           <t>CV50645317281</t>
         </is>
       </c>
-      <c r="C2678" t="inlineStr"/>
+      <c r="C2678" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2679">
       <c r="A2679" t="inlineStr">
@@ -40020,7 +39982,7 @@
         </is>
       </c>
       <c r="C2872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2873">
@@ -40222,7 +40184,9 @@
           <t>476285117426</t>
         </is>
       </c>
-      <c r="C2887" t="inlineStr"/>
+      <c r="C2887" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
@@ -42694,7 +42658,7 @@
         </is>
       </c>
       <c r="C3076" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3077">
@@ -45015,7 +44979,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3246">
@@ -45030,7 +44994,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3247">
@@ -45101,7 +45065,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3252">
@@ -45116,7 +45080,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3253">
@@ -45144,7 +45108,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3255">
@@ -45217,7 +45181,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3260">
@@ -45232,7 +45196,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3261">
@@ -45247,7 +45211,7 @@
         </is>
       </c>
       <c r="C3261" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3262">
@@ -45385,7 +45349,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3272">
@@ -45426,7 +45390,7 @@
         </is>
       </c>
       <c r="C3274" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3275">
@@ -45536,7 +45500,7 @@
         </is>
       </c>
       <c r="C3282" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3283">
@@ -45566,7 +45530,7 @@
         </is>
       </c>
       <c r="C3284" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3285">
@@ -45704,7 +45668,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3295">
@@ -45840,7 +45804,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3305">
@@ -45869,9 +45833,7 @@
           <t>L29345415601</t>
         </is>
       </c>
-      <c r="C3306" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3306" t="inlineStr"/>
     </row>
     <row r="3307">
       <c r="A3307" t="inlineStr">
@@ -45900,7 +45862,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3309">
@@ -45930,7 +45892,7 @@
         </is>
       </c>
       <c r="C3310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3311">
@@ -45945,7 +45907,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3312">
@@ -45960,7 +45922,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3313">
@@ -45975,7 +45937,7 @@
         </is>
       </c>
       <c r="C3313" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3314">
@@ -45990,7 +45952,7 @@
         </is>
       </c>
       <c r="C3314" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3315">
@@ -46235,7 +46197,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3332">
@@ -46265,7 +46227,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3334">
@@ -46338,7 +46300,7 @@
         </is>
       </c>
       <c r="C3338" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3339">
@@ -46368,7 +46330,7 @@
         </is>
       </c>
       <c r="C3340" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3341">
@@ -46452,7 +46414,7 @@
         </is>
       </c>
       <c r="C3346" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3347">
@@ -46467,7 +46429,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3348">
@@ -46482,7 +46444,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3349">
@@ -46497,7 +46459,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3350">
@@ -46644,7 +46606,9 @@
           <t>L6014S5519001</t>
         </is>
       </c>
-      <c r="C3359" t="inlineStr"/>
+      <c r="C3359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3360">
       <c r="A3360" t="inlineStr">
@@ -47141,7 +47105,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3396">
@@ -47755,7 +47719,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3440">
@@ -47811,7 +47775,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3444">
@@ -47841,7 +47805,7 @@
         </is>
       </c>
       <c r="C3445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3446">
@@ -48061,7 +48025,7 @@
         </is>
       </c>
       <c r="C3461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3462">
@@ -48342,7 +48306,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3483">
@@ -48549,7 +48513,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3498">
@@ -48851,7 +48815,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3520">
@@ -49229,7 +49193,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3548">
@@ -49283,7 +49247,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3552">
@@ -49367,7 +49331,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3558">
@@ -49395,7 +49359,7 @@
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3560">
@@ -49559,7 +49523,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3572">
@@ -49574,7 +49538,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3573">
@@ -49589,7 +49553,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3574">
@@ -49604,7 +49568,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3575">
@@ -49634,7 +49598,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3577">
@@ -49772,7 +49736,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3587">
@@ -49787,7 +49751,7 @@
         </is>
       </c>
       <c r="C3587" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3588">
@@ -49843,7 +49807,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3592">
@@ -50200,7 +50164,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3619">
@@ -50286,7 +50250,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3625">
@@ -50301,7 +50265,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3626">
@@ -50411,7 +50375,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3634">
@@ -50426,7 +50390,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3635">
@@ -50823,7 +50787,7 @@
         </is>
       </c>
       <c r="C3663" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3664">
@@ -52284,7 +52248,7 @@
         </is>
       </c>
       <c r="C3774" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3775">
@@ -56856,9 +56820,7 @@
           <t>LO27085317610</t>
         </is>
       </c>
-      <c r="C4123" t="n">
-        <v>2</v>
-      </c>
+      <c r="C4123" t="inlineStr"/>
     </row>
     <row r="4124">
       <c r="A4124" t="inlineStr">
@@ -58541,7 +58503,7 @@
         </is>
       </c>
       <c r="C4243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4244">
@@ -58685,7 +58647,7 @@
         </is>
       </c>
       <c r="C4253" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4254">
@@ -58700,7 +58662,7 @@
         </is>
       </c>
       <c r="C4254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4255">
@@ -58895,9 +58857,7 @@
           <t>N81805618015</t>
         </is>
       </c>
-      <c r="C4268" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4268" t="inlineStr"/>
     </row>
     <row r="4269">
       <c r="A4269" t="inlineStr">
@@ -58964,9 +58924,7 @@
           <t>N81845118410</t>
         </is>
       </c>
-      <c r="C4273" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4273" t="inlineStr"/>
     </row>
     <row r="4274">
       <c r="A4274" t="inlineStr">
@@ -61606,9 +61564,7 @@
           <t>NK43155517001</t>
         </is>
       </c>
-      <c r="C4471" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4471" t="inlineStr"/>
     </row>
     <row r="4472">
       <c r="A4472" t="inlineStr">
@@ -61795,7 +61751,7 @@
         </is>
       </c>
       <c r="C4485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4486">
@@ -61853,7 +61809,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4490">
@@ -61868,7 +61824,7 @@
         </is>
       </c>
       <c r="C4490" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4491">
@@ -61883,7 +61839,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4492">
@@ -62120,7 +62076,7 @@
         </is>
       </c>
       <c r="C4508" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4509">
@@ -62307,9 +62263,7 @@
           <t>NKFV23915914060</t>
         </is>
       </c>
-      <c r="C4522" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4522" t="inlineStr"/>
     </row>
     <row r="4523">
       <c r="A4523" t="inlineStr">
@@ -64179,7 +64133,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4662">
@@ -64640,7 +64594,7 @@
         </is>
       </c>
       <c r="C4696" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4697">
@@ -65747,7 +65701,7 @@
         </is>
       </c>
       <c r="C4779" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4780">
@@ -66063,7 +66017,7 @@
         </is>
       </c>
       <c r="C4803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4804">
@@ -66195,7 +66149,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4814">
@@ -66251,7 +66205,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4818">
@@ -66307,7 +66261,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4822">
@@ -66322,7 +66276,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4823">
@@ -66337,7 +66291,7 @@
         </is>
       </c>
       <c r="C4823" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4824">
@@ -66421,7 +66375,7 @@
         </is>
       </c>
       <c r="C4829" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4830">
@@ -66502,9 +66456,7 @@
           <t>398615415001</t>
         </is>
       </c>
-      <c r="C4835" t="n">
-        <v>3</v>
-      </c>
+      <c r="C4835" t="inlineStr"/>
     </row>
     <row r="4836">
       <c r="A4836" t="inlineStr">
@@ -67938,7 +67890,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4945">
@@ -67952,7 +67904,9 @@
           <t>420355416073</t>
         </is>
       </c>
-      <c r="C4945" t="inlineStr"/>
+      <c r="C4945" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
@@ -68169,7 +68123,7 @@
         </is>
       </c>
       <c r="C4961" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4962">
@@ -72935,7 +72889,7 @@
         </is>
       </c>
       <c r="C5317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5318">
@@ -73191,7 +73145,7 @@
         </is>
       </c>
       <c r="C5335" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5336">
@@ -73330,9 +73284,7 @@
           <t>ZS231414920002</t>
         </is>
       </c>
-      <c r="C5345" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5345" t="inlineStr"/>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
@@ -73655,9 +73607,7 @@
           <t>ZS235405020002</t>
         </is>
       </c>
-      <c r="C5368" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5368" t="inlineStr"/>
     </row>
     <row r="5369">
       <c r="A5369" t="inlineStr">
@@ -73863,7 +73813,7 @@
         </is>
       </c>
       <c r="C5383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5384">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1060,9 +1060,7 @@
           <t>NK71585219553</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1091,7 +1089,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1177,7 +1175,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1246,7 +1244,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1302,7 +1300,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1317,7 +1315,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1694,7 +1692,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1797,7 +1795,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2021,7 +2019,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3080,7 +3078,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -3148,9 +3146,7 @@
           <t>M55125218242</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>17</v>
-      </c>
+      <c r="C193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3164,7 +3160,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -3904,7 +3900,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="247">
@@ -3919,7 +3915,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -3975,7 +3971,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252">
@@ -4104,7 +4100,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="261">
@@ -4321,7 +4317,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="276">
@@ -4435,7 +4431,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284">
@@ -4463,7 +4459,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286">
@@ -4478,7 +4474,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="287">
@@ -4493,7 +4489,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
@@ -4835,7 +4831,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312">
@@ -4850,7 +4846,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -4865,7 +4861,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314">
@@ -4920,9 +4916,7 @@
           <t>CK245225218004</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>1</v>
-      </c>
+      <c r="C317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4951,7 +4945,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320">
@@ -5081,9 +5075,7 @@
           <t>CKJ246285017605</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>16</v>
-      </c>
+      <c r="C328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5109,9 +5101,7 @@
           <t>CKJ233015016300</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>2</v>
-      </c>
+      <c r="C330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5336,7 +5326,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -5825,7 +5815,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -6118,7 +6108,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="403">
@@ -6133,7 +6123,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="404">
@@ -6217,7 +6207,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410">
@@ -6357,7 +6347,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="420">
@@ -6794,7 +6784,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="451">
@@ -6822,7 +6812,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="453">
@@ -6863,7 +6853,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="456">
@@ -6977,7 +6967,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464">
@@ -7057,7 +7047,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="470">
@@ -7072,7 +7062,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="471">
@@ -7086,9 +7076,7 @@
           <t>L29665020275</t>
         </is>
       </c>
-      <c r="C471" t="n">
-        <v>16</v>
-      </c>
+      <c r="C471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7130,7 +7118,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="475">
@@ -7160,7 +7148,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="477">
@@ -7203,7 +7191,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="480">
@@ -7244,7 +7232,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="483">
@@ -7272,7 +7260,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="485">
@@ -7287,7 +7275,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="486">
@@ -7302,7 +7290,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="487">
@@ -7317,7 +7305,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="488">
@@ -7347,7 +7335,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="490">
@@ -7362,7 +7350,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="491">
@@ -7377,7 +7365,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="492">
@@ -7407,7 +7395,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="494">
@@ -7422,7 +7410,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="495">
@@ -7437,7 +7425,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="496">
@@ -7467,7 +7455,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="498">
@@ -7525,7 +7513,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="502">
@@ -7555,7 +7543,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="504">
@@ -7639,7 +7627,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="510">
@@ -7654,7 +7642,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="511">
@@ -7699,7 +7687,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514">
@@ -7714,7 +7702,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="515">
@@ -7728,9 +7716,7 @@
           <t>L23045318424</t>
         </is>
       </c>
-      <c r="C515" t="n">
-        <v>17</v>
-      </c>
+      <c r="C515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -7744,7 +7730,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="517">
@@ -7886,7 +7872,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="527">
@@ -8162,7 +8148,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="547">
@@ -8177,7 +8163,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548">
@@ -8236,9 +8222,7 @@
           <t>470835317002</t>
         </is>
       </c>
-      <c r="C551" t="n">
-        <v>1</v>
-      </c>
+      <c r="C551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -8264,9 +8248,7 @@
           <t>M20215517072</t>
         </is>
       </c>
-      <c r="C553" t="n">
-        <v>3</v>
-      </c>
+      <c r="C553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -8279,9 +8261,7 @@
           <t>M20215517200</t>
         </is>
       </c>
-      <c r="C554" t="n">
-        <v>1</v>
-      </c>
+      <c r="C554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -8308,7 +8288,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557">
@@ -8337,9 +8317,7 @@
           <t>M20315718002</t>
         </is>
       </c>
-      <c r="C558" t="n">
-        <v>2</v>
-      </c>
+      <c r="C558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -8437,7 +8415,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="566">
@@ -8452,7 +8430,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="567">
@@ -8553,7 +8531,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="574">
@@ -8583,7 +8561,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
@@ -8628,7 +8606,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579">
@@ -8743,9 +8721,7 @@
           <t>443485717071</t>
         </is>
       </c>
-      <c r="C586" t="n">
-        <v>1</v>
-      </c>
+      <c r="C586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -9200,7 +9176,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619">
@@ -10073,7 +10049,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="680">
@@ -10116,7 +10092,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="683">
@@ -10176,7 +10152,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687">
@@ -10206,7 +10182,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="689">
@@ -10221,7 +10197,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="690">
@@ -10236,7 +10212,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="691">
@@ -10309,7 +10285,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="696">
@@ -10352,7 +10328,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="699">
@@ -10367,7 +10343,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="700">
@@ -10978,7 +10954,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743">
@@ -11058,7 +11034,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -11116,7 +11092,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="753">
@@ -11161,7 +11137,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="756">
@@ -11221,7 +11197,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="760">
@@ -11277,7 +11253,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="764">
@@ -11292,7 +11268,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="765">
@@ -11382,7 +11358,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="771">
@@ -11567,7 +11543,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784">
@@ -11610,7 +11586,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787">
@@ -11685,7 +11661,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="792">
@@ -11700,7 +11676,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="793">
@@ -11715,7 +11691,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="794">
@@ -12217,7 +12193,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="830">
@@ -12247,7 +12223,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="832">
@@ -12274,9 +12250,7 @@
           <t>CK245245415602</t>
         </is>
       </c>
-      <c r="C833" t="n">
-        <v>1</v>
-      </c>
+      <c r="C833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -12363,7 +12337,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840">
@@ -12378,7 +12352,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="841">
@@ -12393,7 +12367,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="842">
@@ -12423,7 +12397,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="844">
@@ -12453,7 +12427,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="846">
@@ -12927,7 +12901,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="880">
@@ -12972,7 +12946,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="883">
@@ -12987,7 +12961,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="884">
@@ -13002,7 +12976,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="885">
@@ -13017,7 +12991,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="886">
@@ -13032,7 +13006,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="887">
@@ -13047,7 +13021,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="888">
@@ -13062,7 +13036,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="889">
@@ -13077,7 +13051,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="890">
@@ -13107,7 +13081,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="892">
@@ -13122,7 +13096,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="893">
@@ -13178,7 +13152,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -13221,7 +13195,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="900">
@@ -13445,7 +13419,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916">
@@ -13568,7 +13542,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="925">
@@ -13598,7 +13572,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="927">
@@ -13613,7 +13587,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="928">
@@ -13628,7 +13602,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="929">
@@ -13673,7 +13647,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -13922,9 +13896,7 @@
           <t>CK245135217228</t>
         </is>
       </c>
-      <c r="C949" t="n">
-        <v>1</v>
-      </c>
+      <c r="C949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -14168,7 +14140,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="967">
@@ -14280,7 +14252,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="975">
@@ -14460,9 +14432,7 @@
           <t>CKJ24302S4816001</t>
         </is>
       </c>
-      <c r="C987" t="n">
-        <v>1</v>
-      </c>
+      <c r="C987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
@@ -14559,9 +14529,7 @@
           <t>CV5073Y5017684</t>
         </is>
       </c>
-      <c r="C994" t="n">
-        <v>1</v>
-      </c>
+      <c r="C994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -15460,7 +15428,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1059">
@@ -15475,7 +15443,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1060">
@@ -15490,7 +15458,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1061">
@@ -15505,7 +15473,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1062">
@@ -15563,7 +15531,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1066">
@@ -15591,7 +15559,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1068">
@@ -15606,7 +15574,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069">
@@ -15636,7 +15604,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1071">
@@ -15679,7 +15647,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1074">
@@ -15694,7 +15662,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1075">
@@ -15709,7 +15677,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1076">
@@ -15795,7 +15763,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1082">
@@ -15840,7 +15808,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1085">
@@ -15855,7 +15823,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1086">
@@ -15913,7 +15881,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1090">
@@ -16057,7 +16025,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1100">
@@ -16445,7 +16413,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -16501,7 +16469,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -16528,9 +16496,7 @@
           <t>NK60455617001</t>
         </is>
       </c>
-      <c r="C1133" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1133" t="inlineStr"/>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
@@ -16544,7 +16510,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1135">
@@ -16639,7 +16605,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -17551,7 +17517,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1208">
@@ -17581,7 +17547,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210">
@@ -18258,7 +18224,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1259">
@@ -19165,9 +19131,7 @@
           <t>NK55464917001</t>
         </is>
       </c>
-      <c r="C1324" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1324" t="inlineStr"/>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
@@ -19293,7 +19257,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1334">
@@ -19537,7 +19501,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1352">
@@ -19834,7 +19798,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1373">
@@ -20333,9 +20297,7 @@
           <t>435805316215</t>
         </is>
       </c>
-      <c r="C1408" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1408" t="inlineStr"/>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
@@ -20416,7 +20378,7 @@
         </is>
       </c>
       <c r="C1414" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1415">
@@ -20472,7 +20434,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1419">
@@ -20595,7 +20557,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1428">
@@ -20610,7 +20572,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
@@ -20692,7 +20654,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1435">
@@ -20746,7 +20708,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1439">
@@ -22078,7 +22040,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1539">
@@ -22106,7 +22068,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1541">
@@ -22233,7 +22195,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1550">
@@ -22261,7 +22223,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1552">
@@ -22291,7 +22253,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1554">
@@ -22306,7 +22268,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1555">
@@ -22853,7 +22815,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1594">
@@ -23232,7 +23194,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1621">
@@ -23305,7 +23267,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1626">
@@ -23365,7 +23327,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1630">
@@ -23380,7 +23342,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1631">
@@ -23425,7 +23387,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1634">
@@ -23571,7 +23533,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1644">
@@ -23652,9 +23614,7 @@
           <t>CK235165415200</t>
         </is>
       </c>
-      <c r="C1649" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1649" t="inlineStr"/>
     </row>
     <row r="1650">
       <c r="A1650" t="inlineStr">
@@ -23681,7 +23641,7 @@
         </is>
       </c>
       <c r="C1651" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1652">
@@ -23986,7 +23946,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1675">
@@ -24001,7 +23961,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1676">
@@ -24164,9 +24124,7 @@
           <t>451185316235</t>
         </is>
       </c>
-      <c r="C1687" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1687" t="inlineStr"/>
     </row>
     <row r="1688">
       <c r="A1688" t="inlineStr">
@@ -24561,7 +24519,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1718">
@@ -24576,7 +24534,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1719">
@@ -24617,7 +24575,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1722">
@@ -24632,7 +24590,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1723">
@@ -24647,7 +24605,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1724">
@@ -24662,7 +24620,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1725">
@@ -24677,7 +24635,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1726">
@@ -24692,7 +24650,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1727">
@@ -24707,7 +24665,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1728">
@@ -24852,7 +24810,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1739">
@@ -25120,7 +25078,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1759">
@@ -29580,7 +29538,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2099">
@@ -29743,9 +29701,7 @@
           <t>CKJ232225318001</t>
         </is>
       </c>
-      <c r="C2110" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2110" t="inlineStr"/>
     </row>
     <row r="2111">
       <c r="A2111" t="inlineStr">
@@ -30102,7 +30058,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2137">
@@ -30116,9 +30072,7 @@
           <t>CKJ236435317300</t>
         </is>
       </c>
-      <c r="C2137" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2137" t="inlineStr"/>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
@@ -30272,7 +30226,7 @@
         </is>
       </c>
       <c r="C2148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2149">
@@ -30445,9 +30399,7 @@
           <t>CKJ236495318050</t>
         </is>
       </c>
-      <c r="C2160" t="n">
-        <v>3</v>
-      </c>
+      <c r="C2160" t="inlineStr"/>
     </row>
     <row r="2161">
       <c r="A2161" t="inlineStr">
@@ -30532,7 +30484,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2167">
@@ -31257,9 +31209,7 @@
           <t>CKJ232035615001</t>
         </is>
       </c>
-      <c r="C2218" t="n">
-        <v>3</v>
-      </c>
+      <c r="C2218" t="inlineStr"/>
     </row>
     <row r="2219">
       <c r="A2219" t="inlineStr">
@@ -31652,7 +31602,7 @@
         </is>
       </c>
       <c r="C2246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -32774,9 +32724,7 @@
           <t>CKJ226505119971</t>
         </is>
       </c>
-      <c r="C2329" t="n">
-        <v>4</v>
-      </c>
+      <c r="C2329" t="inlineStr"/>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
@@ -32857,7 +32805,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2336">
@@ -44979,7 +44927,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3246">
@@ -44994,7 +44942,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3247">
@@ -45065,7 +45013,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3252">
@@ -45080,7 +45028,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3253">
@@ -45108,7 +45056,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3255">
@@ -45181,7 +45129,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3260">
@@ -45196,7 +45144,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3261">
@@ -45226,7 +45174,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3263">
@@ -45530,7 +45478,7 @@
         </is>
       </c>
       <c r="C3284" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3285">
@@ -45653,7 +45601,7 @@
         </is>
       </c>
       <c r="C3293" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3294">
@@ -45668,7 +45616,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3295">
@@ -45789,7 +45737,7 @@
         </is>
       </c>
       <c r="C3303" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3304">
@@ -45804,7 +45752,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3305">
@@ -45862,7 +45810,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3309">
@@ -45877,7 +45825,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3310">
@@ -45907,7 +45855,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3312">
@@ -45922,7 +45870,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3313">
@@ -45952,7 +45900,7 @@
         </is>
       </c>
       <c r="C3314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3315">
@@ -46020,9 +45968,7 @@
           <t>L29385120001</t>
         </is>
       </c>
-      <c r="C3319" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3319" t="inlineStr"/>
     </row>
     <row r="3320">
       <c r="A3320" t="inlineStr">
@@ -46197,7 +46143,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3332">
@@ -46300,7 +46246,7 @@
         </is>
       </c>
       <c r="C3338" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3339">
@@ -46330,7 +46276,7 @@
         </is>
       </c>
       <c r="C3340" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3341">
@@ -46414,7 +46360,7 @@
         </is>
       </c>
       <c r="C3346" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3347">
@@ -46429,7 +46375,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3348">
@@ -46444,7 +46390,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3349">
@@ -46459,7 +46405,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3350">
@@ -46474,7 +46420,7 @@
         </is>
       </c>
       <c r="C3350" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3351">
@@ -47064,7 +47010,7 @@
         </is>
       </c>
       <c r="C3392" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3393">
@@ -47105,7 +47051,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3396">
@@ -47247,7 +47193,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3406">
@@ -47676,7 +47622,7 @@
         </is>
       </c>
       <c r="C3436" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3437">
@@ -47719,7 +47665,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3440">
@@ -47775,7 +47721,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3444">
@@ -47805,7 +47751,7 @@
         </is>
       </c>
       <c r="C3445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3446">
@@ -48010,7 +47956,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3461">
@@ -48306,7 +48252,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3483">
@@ -48513,7 +48459,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3498">
@@ -48528,7 +48474,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3499">
@@ -48653,7 +48599,7 @@
         </is>
       </c>
       <c r="C3507" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3508">
@@ -48815,7 +48761,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3520">
@@ -49044,7 +48990,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3537">
@@ -49193,7 +49139,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3548">
@@ -49247,7 +49193,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3552">
@@ -49387,7 +49333,7 @@
         </is>
       </c>
       <c r="C3561" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3562">
@@ -49523,7 +49469,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3572">
@@ -49538,7 +49484,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3573">
@@ -49553,7 +49499,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3574">
@@ -49568,7 +49514,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3575">
@@ -49598,7 +49544,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3577">
@@ -49807,7 +49753,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3592">
@@ -50164,7 +50110,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3619">
@@ -50179,7 +50125,7 @@
         </is>
       </c>
       <c r="C3619" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3620">
@@ -50194,7 +50140,7 @@
         </is>
       </c>
       <c r="C3620" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3621">
@@ -50250,7 +50196,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3625">
@@ -50265,7 +50211,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3626">
@@ -50375,7 +50321,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3634">
@@ -50390,7 +50336,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3635">
@@ -50772,7 +50718,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3663">
@@ -52248,7 +52194,7 @@
         </is>
       </c>
       <c r="C3774" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3775">
@@ -61736,7 +61682,7 @@
         </is>
       </c>
       <c r="C4484" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4485">
@@ -61750,9 +61696,7 @@
           <t>NK70565320003</t>
         </is>
       </c>
-      <c r="C4485" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4485" t="inlineStr"/>
     </row>
     <row r="4486">
       <c r="A4486" t="inlineStr">
@@ -61766,7 +61710,7 @@
         </is>
       </c>
       <c r="C4486" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4487">
@@ -61824,7 +61768,7 @@
         </is>
       </c>
       <c r="C4490" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4491">
@@ -63144,9 +63088,7 @@
           <t>NKFD18495718013</t>
         </is>
       </c>
-      <c r="C4587" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4587" t="inlineStr"/>
     </row>
     <row r="4588">
       <c r="A4588" t="inlineStr">
@@ -64133,7 +64075,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4662">
@@ -64593,9 +64535,7 @@
           <t>441585615302</t>
         </is>
       </c>
-      <c r="C4696" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4696" t="inlineStr"/>
     </row>
     <row r="4697">
       <c r="A4697" t="inlineStr">
@@ -65068,7 +65008,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4733">
@@ -66016,9 +65956,7 @@
           <t>277185317018</t>
         </is>
       </c>
-      <c r="C4803" t="n">
-        <v>2</v>
-      </c>
+      <c r="C4803" t="inlineStr"/>
     </row>
     <row r="4804">
       <c r="A4804" t="inlineStr">
@@ -66149,7 +66087,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4814">
@@ -66190,7 +66128,7 @@
         </is>
       </c>
       <c r="C4816" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4817">
@@ -66205,7 +66143,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4818">
@@ -66246,7 +66184,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4821">
@@ -66261,7 +66199,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4822">
@@ -66276,7 +66214,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4823">
@@ -66290,9 +66228,7 @@
           <t>420375416305</t>
         </is>
       </c>
-      <c r="C4823" t="n">
-        <v>3</v>
-      </c>
+      <c r="C4823" t="inlineStr"/>
     </row>
     <row r="4824">
       <c r="A4824" t="inlineStr">
@@ -66319,7 +66255,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4826">
@@ -66334,7 +66270,7 @@
         </is>
       </c>
       <c r="C4826" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4827">
@@ -66999,9 +66935,7 @@
           <t>398635020036</t>
         </is>
       </c>
-      <c r="C4876" t="n">
-        <v>4</v>
-      </c>
+      <c r="C4876" t="inlineStr"/>
     </row>
     <row r="4877">
       <c r="A4877" t="inlineStr">
@@ -67041,7 +66975,7 @@
         </is>
       </c>
       <c r="C4879" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4880">
@@ -67875,7 +67809,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4944">
@@ -67890,7 +67824,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4945">
@@ -67904,9 +67838,7 @@
           <t>420355416073</t>
         </is>
       </c>
-      <c r="C4945" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4945" t="inlineStr"/>
     </row>
     <row r="4946">
       <c r="A4946" t="inlineStr">
@@ -67920,7 +67852,7 @@
         </is>
       </c>
       <c r="C4946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4947">
@@ -73522,7 +73454,7 @@
         </is>
       </c>
       <c r="C5362" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5363">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -549,9 +549,7 @@
           <t>M50295017971</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -774,7 +772,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1089,7 +1087,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1299,9 +1297,7 @@
           <t>NK74055618001</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>16</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1508,9 +1504,7 @@
           <t>455585318033</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1825,7 +1819,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2075,7 +2069,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2084,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -2963,9 +2957,7 @@
           <t>LO741S5517406</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>1</v>
-      </c>
+      <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3077,9 +3069,7 @@
           <t>M50295017620</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>3</v>
-      </c>
+      <c r="C188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3160,7 +3150,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3229,7 +3219,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
@@ -3900,7 +3890,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247">
@@ -3971,7 +3961,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252">
@@ -3999,7 +3989,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="254">
@@ -4100,7 +4090,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261">
@@ -4115,7 +4105,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="262">
@@ -4130,7 +4120,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="263">
@@ -4144,9 +4134,7 @@
           <t>L6024S5222662</t>
         </is>
       </c>
-      <c r="C263" t="n">
-        <v>1</v>
-      </c>
+      <c r="C263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4175,7 +4163,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4205,7 +4193,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268">
@@ -4275,9 +4263,7 @@
           <t>245575115001</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v>1</v>
-      </c>
+      <c r="C272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4317,7 +4303,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="276">
@@ -4362,7 +4348,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279">
@@ -4390,7 +4376,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
@@ -4431,7 +4417,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284">
@@ -4459,7 +4445,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286">
@@ -4474,7 +4460,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287">
@@ -4831,7 +4817,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312">
@@ -4861,7 +4847,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314">
@@ -4876,7 +4862,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315">
@@ -4930,7 +4916,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319">
@@ -4945,7 +4931,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="320">
@@ -5033,7 +5019,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326">
@@ -5048,7 +5034,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327">
@@ -5326,7 +5312,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -5786,9 +5772,7 @@
           <t>CV50935317412</t>
         </is>
       </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
+      <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -5968,7 +5952,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393">
@@ -6108,7 +6092,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="403">
@@ -6123,7 +6107,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="404">
@@ -6138,7 +6122,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405">
@@ -6179,7 +6163,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408">
@@ -6207,7 +6191,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -6222,7 +6206,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411">
@@ -6331,9 +6315,7 @@
           <t>CK245435218240</t>
         </is>
       </c>
-      <c r="C418" t="n">
-        <v>22</v>
-      </c>
+      <c r="C418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6347,7 +6329,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="420">
@@ -6519,7 +6501,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432">
@@ -6533,9 +6515,7 @@
           <t>CK24501S5615240</t>
         </is>
       </c>
-      <c r="C432" t="n">
-        <v>1</v>
-      </c>
+      <c r="C432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -6618,7 +6598,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="439">
@@ -6728,7 +6708,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="447">
@@ -6743,7 +6723,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="448">
@@ -6784,7 +6764,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="451">
@@ -6812,7 +6792,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="453">
@@ -6952,7 +6932,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="463">
@@ -6967,7 +6947,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="464">
@@ -7047,7 +7027,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="470">
@@ -7062,7 +7042,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="471">
@@ -7090,7 +7070,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="473">
@@ -7118,7 +7098,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="475">
@@ -7133,7 +7113,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="476">
@@ -7148,7 +7128,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="477">
@@ -7163,7 +7143,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="478">
@@ -7191,7 +7171,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="480">
@@ -7232,7 +7212,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="483">
@@ -7260,7 +7240,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="485">
@@ -7275,7 +7255,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="486">
@@ -7290,7 +7270,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="487">
@@ -7305,7 +7285,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="488">
@@ -7319,9 +7299,7 @@
           <t>L29625415035</t>
         </is>
       </c>
-      <c r="C488" t="n">
-        <v>16</v>
-      </c>
+      <c r="C488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -7335,7 +7313,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="490">
@@ -7365,7 +7343,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="492">
@@ -7380,7 +7358,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="493">
@@ -7395,7 +7373,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="494">
@@ -7410,7 +7388,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="495">
@@ -7425,7 +7403,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="496">
@@ -7440,7 +7418,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497">
@@ -7454,9 +7432,7 @@
           <t>L29645120275</t>
         </is>
       </c>
-      <c r="C497" t="n">
-        <v>24</v>
-      </c>
+      <c r="C497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7469,9 +7445,7 @@
           <t>L29655317001</t>
         </is>
       </c>
-      <c r="C498" t="n">
-        <v>21</v>
-      </c>
+      <c r="C498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7498,7 +7472,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="501">
@@ -7513,7 +7487,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="502">
@@ -7528,7 +7502,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="503">
@@ -7543,7 +7517,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="504">
@@ -7583,9 +7557,7 @@
           <t>L6041S5418001</t>
         </is>
       </c>
-      <c r="C506" t="n">
-        <v>16</v>
-      </c>
+      <c r="C506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -7612,7 +7584,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="509">
@@ -7627,7 +7599,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="510">
@@ -7642,7 +7614,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="511">
@@ -7657,7 +7629,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="512">
@@ -7672,7 +7644,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="513">
@@ -7686,9 +7658,7 @@
           <t>L23045318002</t>
         </is>
       </c>
-      <c r="C513" t="n">
-        <v>19</v>
-      </c>
+      <c r="C513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -7701,9 +7671,7 @@
           <t>L23045318275</t>
         </is>
       </c>
-      <c r="C514" t="n">
-        <v>16</v>
-      </c>
+      <c r="C514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -7730,7 +7698,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="517">
@@ -7758,7 +7726,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="519">
@@ -7887,7 +7855,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="528">
@@ -7902,7 +7870,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="529">
@@ -8148,7 +8116,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="547">
@@ -8163,7 +8131,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548">
@@ -8178,7 +8146,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="549">
@@ -8193,7 +8161,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="550">
@@ -8288,7 +8256,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557">
@@ -8303,7 +8271,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558">
@@ -8344,7 +8312,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561">
@@ -8385,7 +8353,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="564">
@@ -8415,7 +8383,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="566">
@@ -8430,7 +8398,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="567">
@@ -8445,7 +8413,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -8531,7 +8499,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="574">
@@ -8561,7 +8529,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576">
@@ -8605,9 +8573,7 @@
           <t>M90095616002</t>
         </is>
       </c>
-      <c r="C578" t="n">
-        <v>5</v>
-      </c>
+      <c r="C578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -8620,9 +8586,7 @@
           <t>M90095616072</t>
         </is>
       </c>
-      <c r="C579" t="n">
-        <v>4</v>
-      </c>
+      <c r="C579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -8649,7 +8613,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -8679,7 +8643,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584">
@@ -8694,7 +8658,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -8747,9 +8711,7 @@
           <t>NK60465517001</t>
         </is>
       </c>
-      <c r="C588" t="n">
-        <v>1</v>
-      </c>
+      <c r="C588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -9191,7 +9153,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
@@ -9205,9 +9167,7 @@
           <t>ZS225265418002</t>
         </is>
       </c>
-      <c r="C620" t="n">
-        <v>1</v>
-      </c>
+      <c r="C620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -9503,7 +9463,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="642">
@@ -10049,7 +10009,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="680">
@@ -10092,7 +10052,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="683">
@@ -10122,7 +10082,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="685">
@@ -10151,9 +10111,7 @@
           <t>L22995419301</t>
         </is>
       </c>
-      <c r="C686" t="n">
-        <v>2</v>
-      </c>
+      <c r="C686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -10167,7 +10125,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="688">
@@ -10182,7 +10140,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="689">
@@ -10197,7 +10155,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="690">
@@ -10212,7 +10170,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691">
@@ -10240,7 +10198,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693">
@@ -10255,7 +10213,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694">
@@ -10269,9 +10227,7 @@
           <t>L29485318410</t>
         </is>
       </c>
-      <c r="C694" t="n">
-        <v>1</v>
-      </c>
+      <c r="C694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -10285,7 +10241,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="696">
@@ -10300,7 +10256,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697">
@@ -10328,7 +10284,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="699">
@@ -10343,7 +10299,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="700">
@@ -10358,7 +10314,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="701">
@@ -10373,7 +10329,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -10403,7 +10359,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="704">
@@ -10859,7 +10815,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736">
@@ -10953,9 +10909,7 @@
           <t>431405316035</t>
         </is>
       </c>
-      <c r="C742" t="n">
-        <v>1</v>
-      </c>
+      <c r="C742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -11034,7 +10988,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -11092,7 +11046,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="753">
@@ -11137,7 +11091,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="756">
@@ -11197,7 +11151,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="760">
@@ -11253,7 +11207,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="764">
@@ -11268,7 +11222,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="765">
@@ -11313,7 +11267,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="768">
@@ -11328,7 +11282,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="769">
@@ -11343,7 +11297,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="770">
@@ -11358,7 +11312,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="771">
@@ -11515,7 +11469,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782">
@@ -11542,9 +11496,7 @@
           <t>CK241015118720</t>
         </is>
       </c>
-      <c r="C783" t="n">
-        <v>1</v>
-      </c>
+      <c r="C783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -11571,7 +11523,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="786">
@@ -11586,7 +11538,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="787">
@@ -11616,7 +11568,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="789">
@@ -11646,7 +11598,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="791">
@@ -11661,7 +11613,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="792">
@@ -11676,7 +11628,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="793">
@@ -11691,7 +11643,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="794">
@@ -12178,7 +12130,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="829">
@@ -12193,7 +12145,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="830">
@@ -12208,7 +12160,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="831">
@@ -12223,7 +12175,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="832">
@@ -12264,7 +12216,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835">
@@ -12279,7 +12231,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="836">
@@ -12294,7 +12246,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -12322,7 +12274,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="839">
@@ -12337,7 +12289,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="840">
@@ -12352,7 +12304,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="841">
@@ -12427,7 +12379,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="846">
@@ -12871,7 +12823,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="878">
@@ -12886,7 +12838,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="879">
@@ -12901,7 +12853,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="880">
@@ -12916,7 +12868,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="881">
@@ -12946,7 +12898,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="883">
@@ -12961,7 +12913,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="884">
@@ -12976,7 +12928,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="885">
@@ -12991,7 +12943,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="886">
@@ -13006,7 +12958,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="887">
@@ -13021,7 +12973,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="888">
@@ -13035,9 +12987,7 @@
           <t>L23005418424</t>
         </is>
       </c>
-      <c r="C888" t="n">
-        <v>4</v>
-      </c>
+      <c r="C888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -13051,7 +13001,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="890">
@@ -13081,7 +13031,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="892">
@@ -13096,7 +13046,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="893">
@@ -13111,7 +13061,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="894">
@@ -13151,9 +13101,7 @@
           <t>NK72735318410</t>
         </is>
       </c>
-      <c r="C896" t="n">
-        <v>1</v>
-      </c>
+      <c r="C896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -13180,7 +13128,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="899">
@@ -13195,7 +13143,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="900">
@@ -13418,9 +13366,7 @@
           <t>451065316662</t>
         </is>
       </c>
-      <c r="C915" t="n">
-        <v>4</v>
-      </c>
+      <c r="C915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -13472,9 +13418,7 @@
           <t>CK23503S5420320</t>
         </is>
       </c>
-      <c r="C919" t="n">
-        <v>3</v>
-      </c>
+      <c r="C919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -13542,7 +13486,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="925">
@@ -13556,9 +13500,7 @@
           <t>CK245235216004</t>
         </is>
       </c>
-      <c r="C925" t="n">
-        <v>8</v>
-      </c>
+      <c r="C925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -13572,7 +13514,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927">
@@ -13587,7 +13529,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="928">
@@ -13602,7 +13544,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="929">
@@ -13632,7 +13574,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -13646,9 +13588,7 @@
           <t>CK245225218036</t>
         </is>
       </c>
-      <c r="C931" t="n">
-        <v>3</v>
-      </c>
+      <c r="C931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -13662,7 +13602,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933">
@@ -13677,7 +13617,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="934">
@@ -13968,7 +13908,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="955">
@@ -14140,7 +14080,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967">
@@ -14252,7 +14192,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="975">
@@ -14312,7 +14252,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979">
@@ -14681,7 +14621,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1006">
@@ -15428,7 +15368,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1059">
@@ -15443,7 +15383,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1060">
@@ -15458,7 +15398,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -15473,7 +15413,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1062">
@@ -15487,9 +15427,7 @@
           <t>460575515275</t>
         </is>
       </c>
-      <c r="C1062" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
@@ -15531,7 +15469,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1066">
@@ -15559,7 +15497,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1068">
@@ -15573,9 +15511,7 @@
           <t>L29445517210</t>
         </is>
       </c>
-      <c r="C1068" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1068" t="inlineStr"/>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
@@ -15589,7 +15525,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1070">
@@ -15604,7 +15540,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1071">
@@ -15632,7 +15568,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1073">
@@ -15647,7 +15583,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1074">
@@ -15662,7 +15598,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1075">
@@ -15677,7 +15613,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1076">
@@ -15732,9 +15668,7 @@
           <t>L29485318214</t>
         </is>
       </c>
-      <c r="C1079" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1079" t="inlineStr"/>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -15763,7 +15697,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1082">
@@ -15778,7 +15712,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1083">
@@ -15793,7 +15727,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1084">
@@ -15808,7 +15742,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1085">
@@ -15823,7 +15757,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1086">
@@ -15851,7 +15785,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1088">
@@ -15866,7 +15800,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1089">
@@ -15881,7 +15815,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1090">
@@ -15911,7 +15845,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -15980,7 +15914,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1097">
@@ -15995,7 +15929,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1098">
@@ -16025,7 +15959,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1100">
@@ -16139,7 +16073,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -16288,7 +16222,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -16412,9 +16346,7 @@
           <t>420375616034</t>
         </is>
       </c>
-      <c r="C1127" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1127" t="inlineStr"/>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
@@ -16510,7 +16442,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1135">
@@ -16620,7 +16552,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -16918,7 +16850,9 @@
           <t>NKEV240015915011</t>
         </is>
       </c>
-      <c r="C1163" t="inlineStr"/>
+      <c r="C1163" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
@@ -17040,7 +16974,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1173">
@@ -17517,7 +17451,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1208">
@@ -18140,7 +18074,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
@@ -18865,7 +18799,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1306">
@@ -18879,9 +18813,7 @@
           <t>451315618005</t>
         </is>
       </c>
-      <c r="C1306" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1306" t="inlineStr"/>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
@@ -18908,7 +18840,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -18922,9 +18854,7 @@
           <t>N73245718030</t>
         </is>
       </c>
-      <c r="C1309" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1309" t="inlineStr"/>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
@@ -18951,7 +18881,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -19050,7 +18980,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1319">
@@ -19187,9 +19117,7 @@
           <t>NK60465517006</t>
         </is>
       </c>
-      <c r="C1328" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1328" t="inlineStr"/>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
@@ -19242,7 +19170,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -19257,7 +19185,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1334">
@@ -19326,7 +19254,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1339">
@@ -19460,7 +19388,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -19501,7 +19429,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1352">
@@ -20095,7 +20023,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -20433,9 +20361,7 @@
           <t>M20215517002</t>
         </is>
       </c>
-      <c r="C1418" t="n">
-        <v>6</v>
-      </c>
+      <c r="C1418" t="inlineStr"/>
     </row>
     <row r="1419">
       <c r="A1419" t="inlineStr">
@@ -20475,7 +20401,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1422">
@@ -20503,7 +20429,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1424">
@@ -20557,7 +20483,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1428">
@@ -20571,9 +20497,7 @@
           <t>467975418072</t>
         </is>
       </c>
-      <c r="C1428" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1428" t="inlineStr"/>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
@@ -20654,7 +20578,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1435">
@@ -20708,7 +20632,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1439">
@@ -21563,7 +21487,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -21887,7 +21811,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1528">
@@ -21940,9 +21864,7 @@
           <t>CK23125S5119717</t>
         </is>
       </c>
-      <c r="C1531" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1531" t="inlineStr"/>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
@@ -22040,7 +21962,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1539">
@@ -22068,7 +21990,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1541">
@@ -22195,7 +22117,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1550">
@@ -22223,7 +22145,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1552">
@@ -22238,7 +22160,7 @@
         </is>
       </c>
       <c r="C1552" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1553">
@@ -22253,7 +22175,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1554">
@@ -22268,7 +22190,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1555">
@@ -22349,9 +22271,7 @@
           <t>CK23534S5420035</t>
         </is>
       </c>
-      <c r="C1560" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1560" t="inlineStr"/>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
@@ -22744,7 +22664,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1589">
@@ -22913,9 +22833,7 @@
           <t>CK235445317004</t>
         </is>
       </c>
-      <c r="C1600" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1600" t="inlineStr"/>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
@@ -23011,7 +22929,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1608">
@@ -23092,9 +23010,7 @@
           <t>CK235485516438</t>
         </is>
       </c>
-      <c r="C1613" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
@@ -23194,7 +23110,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1621">
@@ -23267,7 +23183,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1626">
@@ -23297,7 +23213,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1628">
@@ -23327,7 +23243,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1630">
@@ -23342,7 +23258,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1631">
@@ -23357,7 +23273,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="1632">
@@ -23372,7 +23288,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1633">
@@ -23387,7 +23303,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1634">
@@ -23402,7 +23318,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1635">
@@ -23417,7 +23333,7 @@
         </is>
       </c>
       <c r="C1635" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1636">
@@ -23432,7 +23348,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1637">
@@ -23447,7 +23363,7 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1638">
@@ -23462,7 +23378,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1639">
@@ -23477,7 +23393,7 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1640">
@@ -23518,7 +23434,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1643">
@@ -23533,7 +23449,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1644">
@@ -23640,9 +23556,7 @@
           <t>451185316515</t>
         </is>
       </c>
-      <c r="C1651" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1651" t="inlineStr"/>
     </row>
     <row r="1652">
       <c r="A1652" t="inlineStr">
@@ -23760,7 +23674,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1661">
@@ -23946,7 +23860,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1675">
@@ -23961,7 +23875,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1676">
@@ -24058,7 +23972,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1683">
@@ -24519,7 +24433,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1718">
@@ -24534,7 +24448,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1719">
@@ -24575,7 +24489,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1722">
@@ -24590,7 +24504,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1723">
@@ -24620,7 +24534,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1725">
@@ -24635,7 +24549,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1726">
@@ -24650,7 +24564,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1727">
@@ -24665,7 +24579,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1728">
@@ -24810,7 +24724,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1739">
@@ -24916,7 +24830,7 @@
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1747">
@@ -25022,7 +24936,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1755">
@@ -25037,7 +24951,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1756">
@@ -25078,7 +24992,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1759">
@@ -25264,7 +25178,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="1773">
@@ -25279,7 +25193,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1774">
@@ -29372,7 +29286,7 @@
         </is>
       </c>
       <c r="C2086" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2087">
@@ -29413,7 +29327,7 @@
         </is>
       </c>
       <c r="C2089" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2090">
@@ -29481,9 +29395,7 @@
           <t>CKJ22643S5220001</t>
         </is>
       </c>
-      <c r="C2094" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2094" t="inlineStr"/>
     </row>
     <row r="2095">
       <c r="A2095" t="inlineStr">
@@ -29538,7 +29450,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2099">
@@ -29781,9 +29693,7 @@
           <t>CKJ232235418044</t>
         </is>
       </c>
-      <c r="C2116" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2116" t="inlineStr"/>
     </row>
     <row r="2117">
       <c r="A2117" t="inlineStr">
@@ -30058,7 +29968,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2137">
@@ -30144,7 +30054,7 @@
         </is>
       </c>
       <c r="C2142" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2143">
@@ -30226,7 +30136,7 @@
         </is>
       </c>
       <c r="C2148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2149">
@@ -30412,9 +30322,7 @@
           <t>CKJ236495318300</t>
         </is>
       </c>
-      <c r="C2161" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2161" t="inlineStr"/>
     </row>
     <row r="2162">
       <c r="A2162" t="inlineStr">
@@ -30428,7 +30336,7 @@
         </is>
       </c>
       <c r="C2162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2163">
@@ -30484,7 +30392,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2167">
@@ -32186,7 +32094,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2289">
@@ -32513,7 +32421,7 @@
         </is>
       </c>
       <c r="C2313" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2314">
@@ -32805,7 +32713,7 @@
         </is>
       </c>
       <c r="C2335" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2336">
@@ -35981,7 +35889,7 @@
         </is>
       </c>
       <c r="C2577" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2578">
@@ -37366,7 +37274,7 @@
         </is>
       </c>
       <c r="C2682" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2683">
@@ -37456,7 +37364,7 @@
         </is>
       </c>
       <c r="C2688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2689">
@@ -42793,7 +42701,7 @@
         </is>
       </c>
       <c r="C3089" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3090">
@@ -42808,7 +42716,7 @@
         </is>
       </c>
       <c r="C3090" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3091">
@@ -42853,7 +42761,7 @@
         </is>
       </c>
       <c r="C3093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3094">
@@ -43799,7 +43707,7 @@
         </is>
       </c>
       <c r="C3163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3164">
@@ -44399,7 +44307,7 @@
         </is>
       </c>
       <c r="C3205" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3206">
@@ -44927,7 +44835,7 @@
         </is>
       </c>
       <c r="C3245" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3246">
@@ -44942,7 +44850,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3247">
@@ -44957,7 +44865,7 @@
         </is>
       </c>
       <c r="C3247" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3248">
@@ -44998,7 +44906,7 @@
         </is>
       </c>
       <c r="C3250" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3251">
@@ -45013,7 +44921,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3252">
@@ -45028,7 +44936,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3253">
@@ -45056,7 +44964,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3255">
@@ -45129,7 +45037,7 @@
         </is>
       </c>
       <c r="C3259" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3260">
@@ -45144,7 +45052,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3261">
@@ -45174,7 +45082,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3263">
@@ -45297,7 +45205,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3272">
@@ -45338,7 +45246,7 @@
         </is>
       </c>
       <c r="C3274" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3275">
@@ -45478,7 +45386,7 @@
         </is>
       </c>
       <c r="C3284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3285">
@@ -45586,7 +45494,7 @@
         </is>
       </c>
       <c r="C3292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3293">
@@ -45601,7 +45509,7 @@
         </is>
       </c>
       <c r="C3293" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3294">
@@ -45616,7 +45524,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3295">
@@ -45752,7 +45660,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3305">
@@ -45794,9 +45702,7 @@
           <t>L29355318001</t>
         </is>
       </c>
-      <c r="C3307" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3307" t="inlineStr"/>
     </row>
     <row r="3308">
       <c r="A3308" t="inlineStr">
@@ -45810,7 +45716,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3309">
@@ -45825,7 +45731,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3310">
@@ -45839,9 +45745,7 @@
           <t>L29355318424</t>
         </is>
       </c>
-      <c r="C3310" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3310" t="inlineStr"/>
     </row>
     <row r="3311">
       <c r="A3311" t="inlineStr">
@@ -45855,7 +45759,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3312">
@@ -45870,7 +45774,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3313">
@@ -45900,7 +45804,7 @@
         </is>
       </c>
       <c r="C3314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3315">
@@ -46143,7 +46047,7 @@
         </is>
       </c>
       <c r="C3331" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3332">
@@ -46173,7 +46077,7 @@
         </is>
       </c>
       <c r="C3333" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3334">
@@ -46246,7 +46150,7 @@
         </is>
       </c>
       <c r="C3338" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3339">
@@ -46261,7 +46165,7 @@
         </is>
       </c>
       <c r="C3339" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3340">
@@ -46276,7 +46180,7 @@
         </is>
       </c>
       <c r="C3340" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3341">
@@ -46375,7 +46279,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3348">
@@ -46390,7 +46294,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3349">
@@ -46420,7 +46324,7 @@
         </is>
       </c>
       <c r="C3350" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3351">
@@ -46449,9 +46353,7 @@
           <t>L6011S5618301</t>
         </is>
       </c>
-      <c r="C3352" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3352" t="inlineStr"/>
     </row>
     <row r="3353">
       <c r="A3353" t="inlineStr">
@@ -46552,9 +46454,7 @@
           <t>L6014S5519001</t>
         </is>
       </c>
-      <c r="C3359" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3359" t="inlineStr"/>
     </row>
     <row r="3360">
       <c r="A3360" t="inlineStr">
@@ -46598,7 +46498,7 @@
         </is>
       </c>
       <c r="C3362" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3363">
@@ -47051,7 +46951,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3396">
@@ -47193,7 +47093,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3406">
@@ -47482,7 +47382,7 @@
         </is>
       </c>
       <c r="C3426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3427">
@@ -47622,7 +47522,7 @@
         </is>
       </c>
       <c r="C3436" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3437">
@@ -47649,9 +47549,7 @@
           <t>L995S5318401</t>
         </is>
       </c>
-      <c r="C3438" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3438" t="inlineStr"/>
     </row>
     <row r="3439">
       <c r="A3439" t="inlineStr">
@@ -47665,7 +47563,7 @@
         </is>
       </c>
       <c r="C3439" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3440">
@@ -48252,7 +48150,7 @@
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3483">
@@ -48321,7 +48219,7 @@
         </is>
       </c>
       <c r="C3487" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3488">
@@ -48392,7 +48290,7 @@
         </is>
       </c>
       <c r="C3492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3493">
@@ -48459,7 +48357,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3498">
@@ -48474,7 +48372,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3499">
@@ -48584,7 +48482,7 @@
         </is>
       </c>
       <c r="C3506" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3507">
@@ -48599,7 +48497,7 @@
         </is>
       </c>
       <c r="C3507" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3508">
@@ -48733,7 +48631,7 @@
         </is>
       </c>
       <c r="C3517" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3518">
@@ -48761,7 +48659,7 @@
         </is>
       </c>
       <c r="C3519" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3520">
@@ -49139,7 +49037,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3548">
@@ -49193,7 +49091,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3552">
@@ -49220,9 +49118,7 @@
           <t>479575515690</t>
         </is>
       </c>
-      <c r="C3553" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3553" t="inlineStr"/>
     </row>
     <row r="3554">
       <c r="A3554" t="inlineStr">
@@ -49277,7 +49173,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3558">
@@ -49304,9 +49200,7 @@
           <t>479545519401</t>
         </is>
       </c>
-      <c r="C3559" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3559" t="inlineStr"/>
     </row>
     <row r="3560">
       <c r="A3560" t="inlineStr">
@@ -49333,7 +49227,7 @@
         </is>
       </c>
       <c r="C3561" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3562">
@@ -49469,7 +49363,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3572">
@@ -49484,7 +49378,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3573">
@@ -49499,7 +49393,7 @@
         </is>
       </c>
       <c r="C3573" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3574">
@@ -49514,7 +49408,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3575">
@@ -49529,7 +49423,7 @@
         </is>
       </c>
       <c r="C3575" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3576">
@@ -49544,7 +49438,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3577">
@@ -49652,7 +49546,7 @@
         </is>
       </c>
       <c r="C3584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3585">
@@ -49682,7 +49576,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3587">
@@ -49696,9 +49590,7 @@
           <t>460745619033</t>
         </is>
       </c>
-      <c r="C3587" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3587" t="inlineStr"/>
     </row>
     <row r="3588">
       <c r="A3588" t="inlineStr">
@@ -49753,7 +49645,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3592">
@@ -49833,7 +49725,7 @@
         </is>
       </c>
       <c r="C3597" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3598">
@@ -50110,7 +50002,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3619">
@@ -50196,7 +50088,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3625">
@@ -50211,7 +50103,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3626">
@@ -50321,7 +50213,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3634">
@@ -50336,7 +50228,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3635">
@@ -50431,7 +50323,7 @@
         </is>
       </c>
       <c r="C3641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3642">
@@ -50690,7 +50582,7 @@
         </is>
       </c>
       <c r="C3660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3661">
@@ -50718,7 +50610,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3663">
@@ -50733,7 +50625,7 @@
         </is>
       </c>
       <c r="C3663" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3664">
@@ -51550,9 +51442,7 @@
           <t>434724914424</t>
         </is>
       </c>
-      <c r="C3725" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3725" t="inlineStr"/>
     </row>
     <row r="3726">
       <c r="A3726" t="inlineStr">
@@ -52194,7 +52084,7 @@
         </is>
       </c>
       <c r="C3774" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3775">
@@ -52640,7 +52530,7 @@
         </is>
       </c>
       <c r="C3808" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3809">
@@ -56273,7 +56163,7 @@
         </is>
       </c>
       <c r="C4087" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4088">
@@ -57223,7 +57113,7 @@
         </is>
       </c>
       <c r="C4155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4156">
@@ -57489,9 +57379,7 @@
           <t>LO741S5517306</t>
         </is>
       </c>
-      <c r="C4174" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4174" t="inlineStr"/>
     </row>
     <row r="4175">
       <c r="A4175" t="inlineStr">
@@ -58151,9 +58039,7 @@
           <t>N2246S5815210</t>
         </is>
       </c>
-      <c r="C4222" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4222" t="inlineStr"/>
     </row>
     <row r="4223">
       <c r="A4223" t="inlineStr">
@@ -58318,7 +58204,7 @@
         </is>
       </c>
       <c r="C4234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4235">
@@ -58403,9 +58289,7 @@
           <t>N6254S5718001</t>
         </is>
       </c>
-      <c r="C4240" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4240" t="inlineStr"/>
     </row>
     <row r="4241">
       <c r="A4241" t="inlineStr">
@@ -58419,7 +58303,7 @@
         </is>
       </c>
       <c r="C4241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4242">
@@ -58434,7 +58318,7 @@
         </is>
       </c>
       <c r="C4242" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4243">
@@ -58744,7 +58628,7 @@
         </is>
       </c>
       <c r="C4264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4265">
@@ -58774,7 +58658,7 @@
         </is>
       </c>
       <c r="C4266" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4267">
@@ -58899,7 +58783,7 @@
         </is>
       </c>
       <c r="C4275" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4276">
@@ -59224,7 +59108,7 @@
         </is>
       </c>
       <c r="C4298" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4299">
@@ -59601,9 +59485,7 @@
           <t>451265518005</t>
         </is>
       </c>
-      <c r="C4326" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4326" t="inlineStr"/>
     </row>
     <row r="4327">
       <c r="A4327" t="inlineStr">
@@ -61682,7 +61564,7 @@
         </is>
       </c>
       <c r="C4484" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4485">
@@ -61710,7 +61592,7 @@
         </is>
       </c>
       <c r="C4486" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4487">
@@ -61753,7 +61635,7 @@
         </is>
       </c>
       <c r="C4489" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4490">
@@ -61768,7 +61650,7 @@
         </is>
       </c>
       <c r="C4490" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4491">
@@ -61783,7 +61665,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4492">
@@ -61992,7 +61874,7 @@
         </is>
       </c>
       <c r="C4506" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4507">
@@ -62020,7 +61902,7 @@
         </is>
       </c>
       <c r="C4508" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4509">
@@ -63128,7 +63010,7 @@
         </is>
       </c>
       <c r="C4590" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4591">
@@ -63350,9 +63232,7 @@
           <t>NK55434917410</t>
         </is>
       </c>
-      <c r="C4607" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4607" t="inlineStr"/>
     </row>
     <row r="4608">
       <c r="A4608" t="inlineStr">
@@ -64075,7 +63955,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4662">
@@ -65008,7 +64888,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4733">
@@ -65101,7 +64981,7 @@
         </is>
       </c>
       <c r="C4739" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4740">
@@ -65116,7 +64996,7 @@
         </is>
       </c>
       <c r="C4740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4741">
@@ -65235,7 +65115,7 @@
         </is>
       </c>
       <c r="C4749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4750">
@@ -66087,7 +65967,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4814">
@@ -66128,7 +66008,7 @@
         </is>
       </c>
       <c r="C4816" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4817">
@@ -66143,7 +66023,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4818">
@@ -66184,7 +66064,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4821">
@@ -66199,7 +66079,7 @@
         </is>
       </c>
       <c r="C4821" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4822">
@@ -66214,7 +66094,7 @@
         </is>
       </c>
       <c r="C4822" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4823">
@@ -66255,7 +66135,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4826">
@@ -66326,7 +66206,7 @@
         </is>
       </c>
       <c r="C4830" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4831">
@@ -66695,9 +66575,7 @@
           <t>337035317070</t>
         </is>
       </c>
-      <c r="C4858" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4858" t="inlineStr"/>
     </row>
     <row r="4859">
       <c r="A4859" t="inlineStr">
@@ -66975,7 +66853,7 @@
         </is>
       </c>
       <c r="C4879" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4880">
@@ -67809,7 +67687,7 @@
         </is>
       </c>
       <c r="C4943" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4944">
@@ -67824,7 +67702,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4945">
@@ -67851,9 +67729,7 @@
           <t>420355616073</t>
         </is>
       </c>
-      <c r="C4946" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4946" t="inlineStr"/>
     </row>
     <row r="4947">
       <c r="A4947" t="inlineStr">
@@ -68055,7 +67931,7 @@
         </is>
       </c>
       <c r="C4961" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4962">
@@ -69612,9 +69488,7 @@
           <t>593415318540</t>
         </is>
       </c>
-      <c r="C5079" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5079" t="inlineStr"/>
     </row>
     <row r="5080">
       <c r="A5080" t="inlineStr">
@@ -73077,7 +72951,7 @@
         </is>
       </c>
       <c r="C5335" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5336">
@@ -73216,7 +73090,9 @@
           <t>ZS231414920002</t>
         </is>
       </c>
-      <c r="C5345" t="inlineStr"/>
+      <c r="C5345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5346">
       <c r="A5346" t="inlineStr">
@@ -73851,7 +73727,7 @@
         </is>
       </c>
       <c r="C5391" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5392">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3149,9 +3149,7 @@
           <t>470755214019</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>2</v>
-      </c>
+      <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3890,7 +3888,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="247">
@@ -3961,7 +3959,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252">
@@ -3989,7 +3987,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="254">
@@ -4193,7 +4191,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268">
@@ -4417,7 +4415,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284">
@@ -4445,7 +4443,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286">
@@ -4817,7 +4815,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="312">
@@ -4847,7 +4845,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314">
@@ -4931,7 +4929,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="320">
@@ -6092,7 +6090,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="403">
@@ -6107,7 +6105,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="404">
@@ -6206,7 +6204,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="411">
@@ -6329,7 +6327,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="420">
@@ -6455,9 +6453,7 @@
           <t>CK24506S4921618</t>
         </is>
       </c>
-      <c r="C428" t="n">
-        <v>1</v>
-      </c>
+      <c r="C428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -6625,9 +6621,7 @@
           <t>CK24532S5420261</t>
         </is>
       </c>
-      <c r="C440" t="n">
-        <v>16</v>
-      </c>
+      <c r="C440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -6764,7 +6758,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451">
@@ -6833,7 +6827,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="456">
@@ -7042,7 +7036,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="471">
@@ -7098,7 +7092,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="475">
@@ -7212,7 +7206,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="483">
@@ -7240,7 +7234,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="485">
@@ -7255,7 +7249,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="486">
@@ -7285,7 +7279,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="488">
@@ -7313,7 +7307,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="490">
@@ -7388,7 +7382,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="495">
@@ -7418,7 +7412,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497">
@@ -7487,7 +7481,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="502">
@@ -7517,7 +7511,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="504">
@@ -7598,9 +7592,7 @@
           <t>L23025718714</t>
         </is>
       </c>
-      <c r="C509" t="n">
-        <v>16</v>
-      </c>
+      <c r="C509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -7629,7 +7621,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="512">
@@ -7812,7 +7804,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="525">
@@ -8176,7 +8168,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -8513,9 +8505,7 @@
           <t>M50275814250</t>
         </is>
       </c>
-      <c r="C574" t="n">
-        <v>1</v>
-      </c>
+      <c r="C574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -10009,7 +9999,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="680">
@@ -10052,7 +10042,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="683">
@@ -10097,7 +10087,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686">
@@ -10140,7 +10130,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="689">
@@ -10155,7 +10145,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="690">
@@ -10170,7 +10160,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -10241,7 +10231,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="696">
@@ -10299,7 +10289,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="700">
@@ -10988,7 +10978,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -11046,7 +11036,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -11151,7 +11141,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="760">
@@ -11222,7 +11212,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="765">
@@ -11267,7 +11257,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="768">
@@ -11312,7 +11302,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="771">
@@ -11613,7 +11603,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="792">
@@ -11628,7 +11618,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="793">
@@ -11643,7 +11633,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="794">
@@ -11658,7 +11648,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="795">
@@ -11686,7 +11676,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="797">
@@ -12130,7 +12120,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="829">
@@ -12160,7 +12150,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="831">
@@ -12175,7 +12165,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="832">
@@ -12334,7 +12324,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="843">
@@ -12823,7 +12813,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="878">
@@ -12853,7 +12843,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880">
@@ -12882,9 +12872,7 @@
           <t>L29465516275</t>
         </is>
       </c>
-      <c r="C881" t="n">
-        <v>1</v>
-      </c>
+      <c r="C881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -12913,7 +12901,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884">
@@ -12928,7 +12916,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="885">
@@ -12958,7 +12946,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="887">
@@ -12973,7 +12961,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="888">
@@ -13031,7 +13019,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892">
@@ -13128,7 +13116,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="899">
@@ -13143,7 +13131,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="900">
@@ -13486,7 +13474,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="925">
@@ -13513,9 +13501,7 @@
           <t>CK245235216343</t>
         </is>
       </c>
-      <c r="C926" t="n">
-        <v>2</v>
-      </c>
+      <c r="C926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -13544,7 +13530,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="929">
@@ -13602,7 +13588,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933">
@@ -14079,9 +14065,7 @@
           <t>CKJ246125217450</t>
         </is>
       </c>
-      <c r="C966" t="n">
-        <v>1</v>
-      </c>
+      <c r="C966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -14192,7 +14176,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="975">
@@ -14746,7 +14730,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1015">
@@ -15413,7 +15397,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1062">
@@ -15497,7 +15481,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1068">
@@ -15583,7 +15567,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1074">
@@ -15598,7 +15582,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1075">
@@ -15613,7 +15597,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1076">
@@ -15712,7 +15696,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1083">
@@ -15757,7 +15741,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1086">
@@ -15785,7 +15769,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1088">
@@ -15815,7 +15799,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1090">
@@ -15959,7 +15943,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1100">
@@ -16442,7 +16426,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1135">
@@ -19170,7 +19154,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333">
@@ -19185,7 +19169,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1334">
@@ -19213,7 +19197,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1336">
@@ -20632,7 +20616,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -21811,7 +21795,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1528">
@@ -21962,7 +21946,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1539">
@@ -21990,7 +21974,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1541">
@@ -22117,7 +22101,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1550">
@@ -22190,7 +22174,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1555">
@@ -22873,7 +22857,7 @@
         </is>
       </c>
       <c r="C1603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1604">
@@ -22929,7 +22913,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1608">
@@ -23183,7 +23167,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1626">
@@ -23213,7 +23197,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1628">
@@ -23258,7 +23242,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1631">
@@ -23288,7 +23272,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1633">
@@ -23303,7 +23287,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1634">
@@ -23318,7 +23302,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1635">
@@ -23333,7 +23317,7 @@
         </is>
       </c>
       <c r="C1635" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1636">
@@ -23348,7 +23332,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1637">
@@ -23449,7 +23433,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1644">
@@ -23674,7 +23658,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1661">
@@ -23972,7 +23956,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1683">
@@ -24433,7 +24417,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1718">
@@ -24448,7 +24432,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1719">
@@ -24489,7 +24473,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1722">
@@ -24504,7 +24488,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1723">
@@ -24534,7 +24518,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1725">
@@ -24564,7 +24548,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1727">
@@ -24724,7 +24708,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1739">
@@ -24951,7 +24935,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1756">
@@ -25193,7 +25177,7 @@
         </is>
       </c>
       <c r="C1773" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1774">
@@ -29450,7 +29434,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2099">
@@ -29733,7 +29717,7 @@
         </is>
       </c>
       <c r="C2119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2120">
@@ -29968,7 +29952,7 @@
         </is>
       </c>
       <c r="C2136" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2137">
@@ -30392,7 +30376,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2167">
@@ -30680,7 +30664,7 @@
         </is>
       </c>
       <c r="C2186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2187">
@@ -32094,7 +32078,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2289">
@@ -32421,7 +32405,7 @@
         </is>
       </c>
       <c r="C2313" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2314">
@@ -32807,9 +32791,7 @@
           <t>CKJ222205119043</t>
         </is>
       </c>
-      <c r="C2342" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2342" t="inlineStr"/>
     </row>
     <row r="2343">
       <c r="A2343" t="inlineStr">
@@ -37215,9 +37197,7 @@
           <t>CV50645317281</t>
         </is>
       </c>
-      <c r="C2678" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2678" t="inlineStr"/>
     </row>
     <row r="2679">
       <c r="A2679" t="inlineStr">
@@ -42846,9 +42826,7 @@
           <t>DK547S5516001</t>
         </is>
       </c>
-      <c r="C3099" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3099" t="inlineStr"/>
     </row>
     <row r="3100">
       <c r="A3100" t="inlineStr">
@@ -44850,7 +44828,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3247">
@@ -44921,7 +44899,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3252">
@@ -44964,7 +44942,7 @@
         </is>
       </c>
       <c r="C3254" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3255">
@@ -45645,7 +45623,7 @@
         </is>
       </c>
       <c r="C3303" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3304">
@@ -45660,7 +45638,7 @@
         </is>
       </c>
       <c r="C3304" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3305">
@@ -45674,9 +45652,7 @@
           <t>L29345415340</t>
         </is>
       </c>
-      <c r="C3305" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3305" t="inlineStr"/>
     </row>
     <row r="3306">
       <c r="A3306" t="inlineStr">
@@ -45759,7 +45735,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3312">
@@ -46150,7 +46126,7 @@
         </is>
       </c>
       <c r="C3338" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3339">
@@ -46180,7 +46156,7 @@
         </is>
       </c>
       <c r="C3340" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3341">
@@ -46279,7 +46255,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3348">
@@ -46951,7 +46927,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3396">
@@ -47619,7 +47595,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3444">
@@ -49037,7 +49013,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3548">
@@ -49091,7 +49067,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3552">
@@ -49173,7 +49149,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3558">
@@ -49227,7 +49203,7 @@
         </is>
       </c>
       <c r="C3561" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3562">
@@ -49363,7 +49339,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3572">
@@ -49438,7 +49414,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3577">
@@ -49576,7 +49552,7 @@
         </is>
       </c>
       <c r="C3586" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3587">
@@ -49645,7 +49621,7 @@
         </is>
       </c>
       <c r="C3591" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3592">
@@ -49725,7 +49701,7 @@
         </is>
       </c>
       <c r="C3597" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3598">
@@ -49739,9 +49715,7 @@
           <t>215155417214</t>
         </is>
       </c>
-      <c r="C3598" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3598" t="inlineStr"/>
     </row>
     <row r="3599">
       <c r="A3599" t="inlineStr">
@@ -50002,7 +49976,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3619">
@@ -50103,7 +50077,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3626">
@@ -50379,7 +50353,7 @@
         </is>
       </c>
       <c r="C3645" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3646">
@@ -50610,7 +50584,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3663">
@@ -50625,7 +50599,7 @@
         </is>
       </c>
       <c r="C3663" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3664">
@@ -61563,9 +61537,7 @@
           <t>NK70565320001</t>
         </is>
       </c>
-      <c r="C4484" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4484" t="inlineStr"/>
     </row>
     <row r="4485">
       <c r="A4485" t="inlineStr">
@@ -61592,7 +61564,7 @@
         </is>
       </c>
       <c r="C4486" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4487">
@@ -61665,7 +61637,7 @@
         </is>
       </c>
       <c r="C4491" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4492">
@@ -61817,9 +61789,7 @@
           <t>NK72905220034</t>
         </is>
       </c>
-      <c r="C4502" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4502" t="inlineStr"/>
     </row>
     <row r="4503">
       <c r="A4503" t="inlineStr">
@@ -61833,7 +61803,7 @@
         </is>
       </c>
       <c r="C4503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4504">
@@ -61902,7 +61872,7 @@
         </is>
       </c>
       <c r="C4508" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4509">
@@ -63955,7 +63925,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4662">
@@ -64888,7 +64858,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4733">
@@ -65967,7 +65937,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4814">
@@ -66023,7 +65993,7 @@
         </is>
       </c>
       <c r="C4817" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4818">
@@ -66064,7 +66034,7 @@
         </is>
       </c>
       <c r="C4820" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4821">
@@ -66078,9 +66048,7 @@
           <t>441585615061</t>
         </is>
       </c>
-      <c r="C4821" t="n">
-        <v>6</v>
-      </c>
+      <c r="C4821" t="inlineStr"/>
     </row>
     <row r="4822">
       <c r="A4822" t="inlineStr">
@@ -66135,7 +66103,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4826">
@@ -66150,7 +66118,7 @@
         </is>
       </c>
       <c r="C4826" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4827">
@@ -66853,7 +66821,7 @@
         </is>
       </c>
       <c r="C4879" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4880">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1685,9 +1685,7 @@
           <t>ZS231255520303</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3888,7 +3886,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247">
@@ -4206,7 +4204,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6161,7 +6159,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408">
@@ -6758,7 +6756,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="451">
@@ -7021,7 +7019,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="470">
@@ -7122,7 +7120,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="477">
@@ -7165,7 +7163,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="480">
@@ -7234,7 +7232,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="485">
@@ -8153,7 +8151,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="550">
@@ -8360,7 +8358,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -8375,7 +8373,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="566">
@@ -8390,7 +8388,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="567">
@@ -9184,7 +9182,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -10115,7 +10113,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="688">
@@ -11302,7 +11300,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="771">
@@ -11603,7 +11601,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="792">
@@ -11618,7 +11616,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="793">
@@ -11633,7 +11631,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="794">
@@ -12264,7 +12262,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="839">
@@ -12294,7 +12292,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="841">
@@ -13474,7 +13472,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="925">
@@ -13515,7 +13513,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="928">
@@ -13560,7 +13558,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -13603,7 +13601,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="934">
@@ -15509,7 +15507,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1070">
@@ -15552,7 +15550,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1073">
@@ -15567,7 +15565,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1074">
@@ -15582,7 +15580,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1075">
@@ -15681,7 +15679,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1082">
@@ -15696,7 +15694,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1083">
@@ -16057,7 +16055,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -16426,7 +16424,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1135">
@@ -18142,7 +18140,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -19709,9 +19707,7 @@
           <t>ZS22116SP5716002</t>
         </is>
       </c>
-      <c r="C1372" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1372" t="inlineStr"/>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
@@ -20385,7 +20381,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1422">
@@ -20467,7 +20463,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1428">
@@ -21974,7 +21970,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1541">
@@ -22129,7 +22125,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1552">
@@ -22159,7 +22155,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1554">
@@ -22174,7 +22170,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1555">
@@ -22663,7 +22659,7 @@
         </is>
       </c>
       <c r="C1589" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1590">
@@ -22719,7 +22715,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1594">
@@ -23094,7 +23090,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1621">
@@ -23197,7 +23193,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1628">
@@ -23227,7 +23223,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1630">
@@ -23242,7 +23238,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1631">
@@ -23272,7 +23268,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1633">
@@ -23287,7 +23283,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1634">
@@ -23302,7 +23298,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1635">
@@ -23433,7 +23429,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1644">
@@ -23859,7 +23855,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1676">
@@ -23956,7 +23952,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1683">
@@ -24417,7 +24413,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1718">
@@ -24503,7 +24499,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1724">
@@ -24533,7 +24529,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1726">
@@ -24708,7 +24704,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1739">
@@ -24976,7 +24972,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1759">
@@ -30376,7 +30372,7 @@
         </is>
       </c>
       <c r="C2166" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2167">
@@ -31341,7 +31337,7 @@
         </is>
       </c>
       <c r="C2235" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2236">
@@ -32078,7 +32074,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2289">
@@ -32405,7 +32401,7 @@
         </is>
       </c>
       <c r="C2313" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2314">
@@ -36628,7 +36624,9 @@
           <t>594115616002</t>
         </is>
       </c>
-      <c r="C2635" t="inlineStr"/>
+      <c r="C2635" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2636">
       <c r="A2636" t="inlineStr">
@@ -44828,7 +44826,7 @@
         </is>
       </c>
       <c r="C3246" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3247">
@@ -45030,7 +45028,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3261">
@@ -45224,7 +45222,7 @@
         </is>
       </c>
       <c r="C3274" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3275">
@@ -45348,9 +45346,7 @@
           <t>L29195417214</t>
         </is>
       </c>
-      <c r="C3283" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3283" t="inlineStr"/>
     </row>
     <row r="3284">
       <c r="A3284" t="inlineStr">
@@ -45363,9 +45359,7 @@
           <t>L29195417603</t>
         </is>
       </c>
-      <c r="C3284" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3284" t="inlineStr"/>
     </row>
     <row r="3285">
       <c r="A3285" t="inlineStr">
@@ -45502,7 +45496,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3295">
@@ -45692,7 +45686,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3309">
@@ -45707,7 +45701,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3310">
@@ -45735,7 +45729,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3312">
@@ -45750,7 +45744,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3313">
@@ -46022,9 +46016,7 @@
           <t>L29415020001</t>
         </is>
       </c>
-      <c r="C3331" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3331" t="inlineStr"/>
     </row>
     <row r="3332">
       <c r="A3332" t="inlineStr">
@@ -46255,7 +46247,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3348">
@@ -46285,7 +46277,7 @@
         </is>
       </c>
       <c r="C3349" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3350">
@@ -46886,7 +46878,7 @@
         </is>
       </c>
       <c r="C3392" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3393">
@@ -46927,7 +46919,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3396">
@@ -47069,7 +47061,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3406">
@@ -47830,7 +47822,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3461">
@@ -48333,7 +48325,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3498">
@@ -48348,7 +48340,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3499">
@@ -49384,7 +49376,7 @@
         </is>
       </c>
       <c r="C3574" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3575">
@@ -49414,7 +49406,7 @@
         </is>
       </c>
       <c r="C3576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3577">
@@ -50062,7 +50054,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3625">
@@ -50077,7 +50069,7 @@
         </is>
       </c>
       <c r="C3625" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3626">
@@ -50187,7 +50179,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3634">
@@ -50202,7 +50194,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3635">
@@ -50584,7 +50576,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3663">
@@ -73297,9 +73289,7 @@
           <t>ZS235385517401</t>
         </is>
       </c>
-      <c r="C5362" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5362" t="inlineStr"/>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -1685,7 +1685,9 @@
           <t>ZS231255520303</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10128,7 +10130,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="689">
@@ -13601,7 +13603,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="934">
@@ -15350,7 +15352,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1059">
@@ -15941,7 +15943,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1100">
@@ -18140,7 +18142,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1259">
@@ -19707,7 +19709,9 @@
           <t>ZS22116SP5716002</t>
         </is>
       </c>
-      <c r="C1372" t="inlineStr"/>
+      <c r="C1372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
@@ -22155,7 +22159,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1554">
@@ -22715,7 +22719,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1594">
@@ -23090,7 +23094,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1621">
@@ -24499,7 +24503,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1724">
@@ -31367,7 +31371,7 @@
         </is>
       </c>
       <c r="C2237" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2238">
@@ -31394,7 +31398,9 @@
           <t>CKJ22641S5419002</t>
         </is>
       </c>
-      <c r="C2239" t="inlineStr"/>
+      <c r="C2239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2240">
       <c r="A2240" t="inlineStr">
@@ -45028,7 +45034,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3261">
@@ -45359,7 +45365,9 @@
           <t>L29195417603</t>
         </is>
       </c>
-      <c r="C3284" t="inlineStr"/>
+      <c r="C3284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3285">
       <c r="A3285" t="inlineStr">
@@ -45496,7 +45504,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3295">
@@ -45686,7 +45694,7 @@
         </is>
       </c>
       <c r="C3308" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3309">
@@ -45701,7 +45709,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3310">
@@ -45744,7 +45752,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3313">
@@ -46016,7 +46024,9 @@
           <t>L29415020001</t>
         </is>
       </c>
-      <c r="C3331" t="inlineStr"/>
+      <c r="C3331" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3332">
       <c r="A3332" t="inlineStr">
@@ -46878,7 +46888,7 @@
         </is>
       </c>
       <c r="C3392" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3393">
@@ -47061,7 +47071,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3406">
@@ -47822,7 +47832,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3461">
@@ -48325,7 +48335,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3498">
@@ -48340,7 +48350,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3499">
@@ -49983,7 +49993,7 @@
         </is>
       </c>
       <c r="C3619" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3620">
@@ -50179,7 +50189,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3634">
@@ -50194,7 +50204,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3635">
@@ -50576,7 +50586,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3663">
@@ -65929,7 +65939,7 @@
         </is>
       </c>
       <c r="C4813" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4814">
@@ -73289,7 +73299,9 @@
           <t>ZS235385517401</t>
         </is>
       </c>
-      <c r="C5362" t="inlineStr"/>
+      <c r="C5362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -758,7 +758,9 @@
           <t>N73235717005</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1158,7 +1160,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1685,9 +1687,7 @@
           <t>ZS231255520303</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="262">
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="263">
@@ -4132,7 +4132,9 @@
           <t>L6024S5222662</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4191,7 +4193,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268">
@@ -4301,7 +4303,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="276">
@@ -4346,7 +4348,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="279">
@@ -4415,7 +4417,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="284">
@@ -4443,7 +4445,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="286">
@@ -4473,7 +4475,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
@@ -4815,7 +4817,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="312">
@@ -4860,7 +4862,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
@@ -4914,7 +4916,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319">
@@ -5032,7 +5034,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -5664,7 +5666,9 @@
           <t>CV5083Y4915327</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr"/>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -6090,7 +6094,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="403">
@@ -6105,7 +6109,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="404">
@@ -6327,7 +6331,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="420">
@@ -6497,7 +6501,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432">
@@ -6594,7 +6598,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439">
@@ -6786,7 +6790,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="453">
@@ -6827,7 +6831,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="456">
@@ -6868,7 +6872,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="459">
@@ -6926,7 +6930,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="463">
@@ -7021,7 +7025,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="470">
@@ -7064,7 +7068,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="473">
@@ -7122,7 +7126,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="477">
@@ -7206,7 +7210,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="483">
@@ -7264,7 +7268,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="487">
@@ -7279,7 +7283,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="488">
@@ -7307,7 +7311,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="490">
@@ -7322,7 +7326,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="491">
@@ -7367,7 +7371,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="494">
@@ -7397,7 +7401,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="496">
@@ -7481,7 +7485,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="502">
@@ -7496,7 +7500,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="503">
@@ -7511,7 +7515,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="504">
@@ -7578,7 +7582,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="509">
@@ -7606,7 +7610,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="511">
@@ -7621,7 +7625,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="512">
@@ -7690,7 +7694,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="517">
@@ -7717,9 +7721,7 @@
           <t>L265S5320033</t>
         </is>
       </c>
-      <c r="C518" t="n">
-        <v>16</v>
-      </c>
+      <c r="C518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -7746,7 +7748,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521">
@@ -7804,7 +7806,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="525">
@@ -7862,7 +7864,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="529">
@@ -8108,7 +8110,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -8123,7 +8125,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548">
@@ -8138,7 +8140,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549">
@@ -8345,7 +8347,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="564">
@@ -8360,7 +8362,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -8375,7 +8377,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="566">
@@ -8390,7 +8392,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="567">
@@ -8448,7 +8450,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -8476,7 +8478,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="573">
@@ -8519,7 +8521,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -9453,7 +9455,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642">
@@ -9999,7 +10001,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="680">
@@ -10130,7 +10132,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="689">
@@ -10145,7 +10147,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="690">
@@ -10159,9 +10161,7 @@
           <t>L29455316035</t>
         </is>
       </c>
-      <c r="C690" t="n">
-        <v>1</v>
-      </c>
+      <c r="C690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -10188,7 +10188,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="693">
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -10231,7 +10231,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="696">
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="699">
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="700">
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="701">
@@ -10318,9 +10318,7 @@
           <t>L36544618400</t>
         </is>
       </c>
-      <c r="C701" t="n">
-        <v>1</v>
-      </c>
+      <c r="C701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -10349,7 +10347,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="704">
@@ -11081,7 +11079,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="756">
@@ -11169,7 +11167,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="762">
@@ -11197,7 +11195,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="764">
@@ -11212,7 +11210,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="765">
@@ -11242,7 +11240,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="767">
@@ -11272,7 +11270,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="769">
@@ -11287,7 +11285,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="770">
@@ -11302,7 +11300,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="771">
@@ -11513,7 +11511,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786">
@@ -11573,7 +11571,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="790">
@@ -11588,7 +11586,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="791">
@@ -11603,7 +11601,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="792">
@@ -11618,7 +11616,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="793">
@@ -11633,7 +11631,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="794">
@@ -12105,7 +12103,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="828">
@@ -12135,7 +12133,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="830">
@@ -12165,7 +12163,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832">
@@ -12221,7 +12219,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="836">
@@ -12236,7 +12234,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="837">
@@ -12264,7 +12262,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="839">
@@ -12279,7 +12277,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="840">
@@ -12309,7 +12307,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="842">
@@ -12324,7 +12322,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="843">
@@ -12813,7 +12811,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="878">
@@ -12843,7 +12841,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -12858,7 +12856,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="881">
@@ -12886,7 +12884,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="883">
@@ -12916,7 +12914,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="885">
@@ -12931,7 +12929,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886">
@@ -12946,7 +12944,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="887">
@@ -12961,7 +12959,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="888">
@@ -12989,7 +12987,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="890">
@@ -13004,7 +13002,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -13406,7 +13404,9 @@
           <t>CK23503S5420320</t>
         </is>
       </c>
-      <c r="C919" t="inlineStr"/>
+      <c r="C919" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -13515,7 +13515,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="928">
@@ -13559,9 +13559,7 @@
           <t>CK245225218539</t>
         </is>
       </c>
-      <c r="C930" t="n">
-        <v>2</v>
-      </c>
+      <c r="C930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -13603,7 +13601,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="934">
@@ -13894,7 +13892,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="955">
@@ -14022,9 +14020,7 @@
           <t>CKJ236265416001</t>
         </is>
       </c>
-      <c r="C963" t="n">
-        <v>1</v>
-      </c>
+      <c r="C963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -14176,7 +14172,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="975">
@@ -15367,7 +15363,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1060">
@@ -15397,7 +15393,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1062">
@@ -15481,7 +15477,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1068">
@@ -15509,7 +15505,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1070">
@@ -15524,7 +15520,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="1071">
@@ -15552,7 +15548,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1073">
@@ -15567,7 +15563,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1074">
@@ -15582,7 +15578,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1075">
@@ -15597,7 +15593,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -15681,7 +15677,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1082">
@@ -15726,7 +15722,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1085">
@@ -15741,7 +15737,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086">
@@ -15769,7 +15765,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1088">
@@ -15784,7 +15780,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1089">
@@ -15799,7 +15795,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1090">
@@ -15883,7 +15879,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -15913,7 +15909,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1098">
@@ -15943,7 +15939,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1100">
@@ -16763,9 +16759,7 @@
           <t>SF2006S5323615</t>
         </is>
       </c>
-      <c r="C1158" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1158" t="inlineStr"/>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
@@ -17064,7 +17058,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1181">
@@ -17435,7 +17429,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1208">
@@ -18142,7 +18136,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -18783,7 +18777,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1306">
@@ -18895,7 +18889,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -19153,9 +19147,7 @@
           <t>NK70155517001</t>
         </is>
       </c>
-      <c r="C1332" t="n">
-        <v>2</v>
-      </c>
+      <c r="C1332" t="inlineStr"/>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
@@ -19238,7 +19230,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1339">
@@ -19372,7 +19364,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1349">
@@ -19709,9 +19701,7 @@
           <t>ZS22116SP5716002</t>
         </is>
       </c>
-      <c r="C1372" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1372" t="inlineStr"/>
     </row>
     <row r="1373">
       <c r="A1373" t="inlineStr">
@@ -20562,7 +20552,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1435">
@@ -21620,7 +21610,7 @@
         </is>
       </c>
       <c r="C1514" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1515">
@@ -21795,7 +21785,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -21848,7 +21838,9 @@
           <t>CK23125S5119717</t>
         </is>
       </c>
-      <c r="C1531" t="inlineStr"/>
+      <c r="C1531" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" t="inlineStr">
@@ -22047,7 +22039,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1546">
@@ -22101,7 +22093,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1550">
@@ -22159,7 +22151,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1554">
@@ -22174,7 +22166,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1555">
@@ -22617,9 +22609,7 @@
           <t>CK23540S5118260</t>
         </is>
       </c>
-      <c r="C1586" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1586" t="inlineStr"/>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
@@ -22648,7 +22638,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1589">
@@ -22719,7 +22709,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1594">
@@ -22913,7 +22903,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1608">
@@ -23008,7 +22998,7 @@
         </is>
       </c>
       <c r="C1614" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1615">
@@ -23094,7 +23084,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1621">
@@ -23257,7 +23247,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1632">
@@ -23272,7 +23262,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1633">
@@ -23317,7 +23307,7 @@
         </is>
       </c>
       <c r="C1635" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1636">
@@ -23362,7 +23352,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1639">
@@ -23418,7 +23408,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1643">
@@ -23940,9 +23930,7 @@
           <t>CK221025717460</t>
         </is>
       </c>
-      <c r="C1681" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1681" t="inlineStr"/>
     </row>
     <row r="1682">
       <c r="A1682" t="inlineStr">
@@ -23956,7 +23944,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1683">
@@ -24389,7 +24377,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1716">
@@ -24503,7 +24491,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1724">
@@ -24518,7 +24506,7 @@
         </is>
       </c>
       <c r="C1724" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1725">
@@ -24533,7 +24521,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1726">
@@ -24563,7 +24551,7 @@
         </is>
       </c>
       <c r="C1727" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1728">
@@ -24708,7 +24696,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1739">
@@ -24920,7 +24908,7 @@
         </is>
       </c>
       <c r="C1754" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1755">
@@ -24935,7 +24923,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1756">
@@ -25162,7 +25150,7 @@
         </is>
       </c>
       <c r="C1772" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="1773">
@@ -29311,7 +29299,7 @@
         </is>
       </c>
       <c r="C2089" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2090">
@@ -29434,7 +29422,7 @@
         </is>
       </c>
       <c r="C2098" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2099">
@@ -29980,7 +29968,7 @@
         </is>
       </c>
       <c r="C2138" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2139">
@@ -30319,9 +30307,7 @@
           <t>CKJ236495318309</t>
         </is>
       </c>
-      <c r="C2162" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2162" t="inlineStr"/>
     </row>
     <row r="2163">
       <c r="A2163" t="inlineStr">
@@ -30421,7 +30407,7 @@
         </is>
       </c>
       <c r="C2169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2170">
@@ -30918,7 +30904,7 @@
         </is>
       </c>
       <c r="C2204" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2205">
@@ -31225,7 +31211,7 @@
         </is>
       </c>
       <c r="C2227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2228">
@@ -32080,7 +32066,7 @@
         </is>
       </c>
       <c r="C2288" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2289">
@@ -32448,7 +32434,7 @@
         </is>
       </c>
       <c r="C2316" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2317">
@@ -33806,9 +33792,7 @@
           <t>CKJ216375813400</t>
         </is>
       </c>
-      <c r="C2419" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2419" t="inlineStr"/>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
@@ -38056,7 +38040,9 @@
           <t>469344920001</t>
         </is>
       </c>
-      <c r="C2739" t="inlineStr"/>
+      <c r="C2739" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2740">
       <c r="A2740" t="inlineStr">
@@ -44903,7 +44889,7 @@
         </is>
       </c>
       <c r="C3251" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3252">
@@ -44918,7 +44904,7 @@
         </is>
       </c>
       <c r="C3252" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3253">
@@ -45034,7 +45020,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3261">
@@ -45064,7 +45050,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3263">
@@ -45228,7 +45214,7 @@
         </is>
       </c>
       <c r="C3274" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3275">
@@ -45365,9 +45351,7 @@
           <t>L29195417603</t>
         </is>
       </c>
-      <c r="C3284" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3284" t="inlineStr"/>
     </row>
     <row r="3285">
       <c r="A3285" t="inlineStr">
@@ -45381,7 +45365,7 @@
         </is>
       </c>
       <c r="C3285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3286">
@@ -45504,7 +45488,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3295">
@@ -45693,9 +45677,7 @@
           <t>L29355318002</t>
         </is>
       </c>
-      <c r="C3308" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3308" t="inlineStr"/>
     </row>
     <row r="3309">
       <c r="A3309" t="inlineStr">
@@ -45709,7 +45691,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3310">
@@ -45737,7 +45719,7 @@
         </is>
       </c>
       <c r="C3311" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3312">
@@ -45752,7 +45734,7 @@
         </is>
       </c>
       <c r="C3312" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3313">
@@ -45864,7 +45846,7 @@
         </is>
       </c>
       <c r="C3320" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3321">
@@ -46024,9 +46006,7 @@
           <t>L29415020001</t>
         </is>
       </c>
-      <c r="C3331" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3331" t="inlineStr"/>
     </row>
     <row r="3332">
       <c r="A3332" t="inlineStr">
@@ -46128,7 +46108,7 @@
         </is>
       </c>
       <c r="C3338" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3339">
@@ -46257,7 +46237,7 @@
         </is>
       </c>
       <c r="C3347" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3348">
@@ -46272,7 +46252,7 @@
         </is>
       </c>
       <c r="C3348" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3349">
@@ -46432,7 +46412,9 @@
           <t>L6014S5519001</t>
         </is>
       </c>
-      <c r="C3359" t="inlineStr"/>
+      <c r="C3359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3360">
       <c r="A3360" t="inlineStr">
@@ -46476,7 +46458,7 @@
         </is>
       </c>
       <c r="C3362" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3363">
@@ -46888,7 +46870,7 @@
         </is>
       </c>
       <c r="C3392" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3393">
@@ -46929,7 +46911,7 @@
         </is>
       </c>
       <c r="C3395" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3396">
@@ -47071,7 +47053,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3406">
@@ -47500,7 +47482,7 @@
         </is>
       </c>
       <c r="C3436" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3437">
@@ -47597,7 +47579,7 @@
         </is>
       </c>
       <c r="C3443" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3444">
@@ -47626,9 +47608,7 @@
           <t>L999S5518301</t>
         </is>
       </c>
-      <c r="C3445" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3445" t="inlineStr"/>
     </row>
     <row r="3446">
       <c r="A3446" t="inlineStr">
@@ -47832,7 +47812,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3461">
@@ -48335,7 +48315,7 @@
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3498">
@@ -48350,7 +48330,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3499">
@@ -48475,7 +48455,7 @@
         </is>
       </c>
       <c r="C3507" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3508">
@@ -48732,7 +48712,7 @@
         </is>
       </c>
       <c r="C3526" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3527">
@@ -48866,7 +48846,7 @@
         </is>
       </c>
       <c r="C3536" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3537">
@@ -49015,7 +48995,7 @@
         </is>
       </c>
       <c r="C3547" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3548">
@@ -49069,7 +49049,7 @@
         </is>
       </c>
       <c r="C3551" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3552">
@@ -49151,7 +49131,7 @@
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3558">
@@ -49341,7 +49321,7 @@
         </is>
       </c>
       <c r="C3571" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3572">
@@ -49356,7 +49336,7 @@
         </is>
       </c>
       <c r="C3572" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3573">
@@ -49400,9 +49380,7 @@
           <t>401095418033</t>
         </is>
       </c>
-      <c r="C3575" t="n">
-        <v>3</v>
-      </c>
+      <c r="C3575" t="inlineStr"/>
     </row>
     <row r="3576">
       <c r="A3576" t="inlineStr">
@@ -49978,7 +49956,7 @@
         </is>
       </c>
       <c r="C3618" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3619">
@@ -50064,7 +50042,7 @@
         </is>
       </c>
       <c r="C3624" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3625">
@@ -50158,9 +50136,7 @@
           <t>592365618400</t>
         </is>
       </c>
-      <c r="C3631" t="n">
-        <v>2</v>
-      </c>
+      <c r="C3631" t="inlineStr"/>
     </row>
     <row r="3632">
       <c r="A3632" t="inlineStr">
@@ -50189,7 +50165,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3634">
@@ -50204,7 +50180,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3635">
@@ -50586,7 +50562,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3663">
@@ -52060,7 +52036,7 @@
         </is>
       </c>
       <c r="C3774" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3775">
@@ -58759,7 +58735,7 @@
         </is>
       </c>
       <c r="C4275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4276">
@@ -61608,9 +61584,7 @@
           <t>NK70575417030</t>
         </is>
       </c>
-      <c r="C4489" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4489" t="inlineStr"/>
     </row>
     <row r="4490">
       <c r="A4490" t="inlineStr">
@@ -63927,7 +63901,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4662">
@@ -63967,9 +63941,7 @@
           <t>372254915003</t>
         </is>
       </c>
-      <c r="C4664" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4664" t="inlineStr"/>
     </row>
     <row r="4665">
       <c r="A4665" t="inlineStr">
@@ -64860,7 +64832,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4733">
@@ -65275,7 +65247,7 @@
         </is>
       </c>
       <c r="C4763" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4764">
@@ -65398,7 +65370,7 @@
         </is>
       </c>
       <c r="C4772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4773">
@@ -65980,7 +65952,7 @@
         </is>
       </c>
       <c r="C4816" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4817">
@@ -66105,7 +66077,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4826">
@@ -66624,7 +66596,7 @@
         </is>
       </c>
       <c r="C4864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4865">
@@ -67672,7 +67644,7 @@
         </is>
       </c>
       <c r="C4944" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4945">
@@ -70074,7 +70046,7 @@
         </is>
       </c>
       <c r="C5126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5127">
@@ -71935,7 +71907,7 @@
         </is>
       </c>
       <c r="C5265" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5266">
@@ -73299,9 +73271,7 @@
           <t>ZS235385517401</t>
         </is>
       </c>
-      <c r="C5362" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5362" t="inlineStr"/>
     </row>
     <row r="5363">
       <c r="A5363" t="inlineStr">
@@ -73315,7 +73285,7 @@
         </is>
       </c>
       <c r="C5363" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5364">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1159,9 +1159,7 @@
           <t>NK55925015006</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1259,7 +1257,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1341,7 +1339,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -1789,7 +1787,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2084,7 +2082,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -3888,7 +3886,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="247">
@@ -4862,7 +4860,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
@@ -4931,7 +4929,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="320">
@@ -6124,7 +6122,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405">
@@ -6208,7 +6206,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="411">
@@ -6598,7 +6596,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="439">
@@ -6790,7 +6788,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="453">
@@ -6831,7 +6829,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="456">
@@ -6930,7 +6928,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="463">
@@ -7253,7 +7251,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="486">
@@ -7268,7 +7266,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="487">
@@ -7582,7 +7580,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="509">
@@ -7806,7 +7804,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="525">
@@ -7849,7 +7847,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="528">
@@ -8110,7 +8108,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="547">
@@ -9130,7 +9128,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -10044,7 +10042,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="683">
@@ -10132,7 +10130,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="689">
@@ -11139,7 +11137,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760">
@@ -11195,7 +11193,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="764">
@@ -11210,7 +11208,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="765">
@@ -11240,7 +11238,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="767">
@@ -11255,7 +11253,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="768">
@@ -11285,7 +11283,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="770">
@@ -11510,9 +11508,7 @@
           <t>CK245145217031</t>
         </is>
       </c>
-      <c r="C785" t="n">
-        <v>1</v>
-      </c>
+      <c r="C785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -11601,7 +11597,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="792">
@@ -11616,7 +11612,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="793">
@@ -12103,7 +12099,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -12148,7 +12144,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="831">
@@ -12262,7 +12258,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="839">
@@ -12292,7 +12288,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="841">
@@ -12811,7 +12807,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="878">
@@ -13474,7 +13470,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="925">
@@ -13585,9 +13581,7 @@
           <t>CK241015118771</t>
         </is>
       </c>
-      <c r="C932" t="n">
-        <v>1</v>
-      </c>
+      <c r="C932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -13601,7 +13595,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="934">
@@ -13892,7 +13886,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="955">
@@ -14231,9 +14225,7 @@
           <t>CKJ236115417410</t>
         </is>
       </c>
-      <c r="C978" t="n">
-        <v>1</v>
-      </c>
+      <c r="C978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -15520,7 +15512,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1071">
@@ -15548,7 +15540,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1073">
@@ -15780,7 +15772,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -15909,7 +15901,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1098">
@@ -15939,7 +15931,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1100">
@@ -16517,7 +16509,7 @@
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142">
@@ -17058,7 +17050,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1181">
@@ -17383,9 +17375,7 @@
           <t>CKJ223014618701</t>
         </is>
       </c>
-      <c r="C1204" t="n">
-        <v>1</v>
-      </c>
+      <c r="C1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -18136,7 +18126,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259">
@@ -18958,7 +18948,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -19230,7 +19220,7 @@
         </is>
       </c>
       <c r="C1338" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1339">
@@ -21461,7 +21451,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -21785,7 +21775,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -22039,7 +22029,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1546">
@@ -22136,7 +22126,7 @@
         </is>
       </c>
       <c r="C1552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1553">
@@ -22151,7 +22141,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1554">
@@ -22166,7 +22156,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1555">
@@ -22638,7 +22628,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1589">
@@ -22709,7 +22699,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1594">
@@ -22902,9 +22892,7 @@
           <t>CK235464919230</t>
         </is>
       </c>
-      <c r="C1607" t="n">
-        <v>4</v>
-      </c>
+      <c r="C1607" t="inlineStr"/>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
@@ -23083,9 +23071,7 @@
           <t>CK235505515001</t>
         </is>
       </c>
-      <c r="C1620" t="n">
-        <v>3</v>
-      </c>
+      <c r="C1620" t="inlineStr"/>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
@@ -23157,7 +23143,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1626">
@@ -23217,7 +23203,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1630">
@@ -23247,7 +23233,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1632">
@@ -23262,7 +23248,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1633">
@@ -23292,7 +23278,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1635">
@@ -23322,7 +23308,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1637">
@@ -23337,7 +23323,7 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1638">
@@ -23648,7 +23634,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1661">
@@ -24491,7 +24477,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1724">
@@ -24923,7 +24909,7 @@
         </is>
       </c>
       <c r="C1755" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1756">
@@ -24964,7 +24950,7 @@
         </is>
       </c>
       <c r="C1758" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1759">
@@ -29299,7 +29285,7 @@
         </is>
       </c>
       <c r="C2089" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2090">
@@ -30026,7 +30012,7 @@
         </is>
       </c>
       <c r="C2142" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2143">
@@ -32434,7 +32420,7 @@
         </is>
       </c>
       <c r="C2316" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2317">
@@ -35857,7 +35843,7 @@
         </is>
       </c>
       <c r="C2577" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2578">
@@ -37171,7 +37157,7 @@
         </is>
       </c>
       <c r="C2677" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2678">
@@ -37272,7 +37258,7 @@
         </is>
       </c>
       <c r="C2684" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2685">
@@ -37287,7 +37273,7 @@
         </is>
       </c>
       <c r="C2685" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2686">
@@ -37302,7 +37288,7 @@
         </is>
       </c>
       <c r="C2686" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2687">
@@ -37317,7 +37303,7 @@
         </is>
       </c>
       <c r="C2687" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2688">
@@ -40118,7 +40104,9 @@
           <t>469385217201</t>
         </is>
       </c>
-      <c r="C2895" t="inlineStr"/>
+      <c r="C2895" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
@@ -42499,7 +42487,7 @@
         </is>
       </c>
       <c r="C3077" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3078">
@@ -42544,7 +42532,7 @@
         </is>
       </c>
       <c r="C3080" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3081">
@@ -43014,9 +43002,7 @@
           <t>DK10275317272</t>
         </is>
       </c>
-      <c r="C3113" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3113" t="inlineStr"/>
     </row>
     <row r="3114">
       <c r="A3114" t="inlineStr">
@@ -44275,7 +44261,7 @@
         </is>
       </c>
       <c r="C3205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3206">
@@ -44833,7 +44819,7 @@
         </is>
       </c>
       <c r="C3247" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3248">
@@ -44874,7 +44860,7 @@
         </is>
       </c>
       <c r="C3250" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3251">
@@ -45020,7 +45006,7 @@
         </is>
       </c>
       <c r="C3260" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3261">
@@ -45050,7 +45036,7 @@
         </is>
       </c>
       <c r="C3262" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3263">
@@ -45173,7 +45159,7 @@
         </is>
       </c>
       <c r="C3271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3272">
@@ -45365,7 +45351,7 @@
         </is>
       </c>
       <c r="C3285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3286">
@@ -45458,7 +45444,7 @@
         </is>
       </c>
       <c r="C3292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3293">
@@ -45488,7 +45474,7 @@
         </is>
       </c>
       <c r="C3294" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3295">
@@ -45691,7 +45677,7 @@
         </is>
       </c>
       <c r="C3309" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3310">
@@ -45846,7 +45832,7 @@
         </is>
       </c>
       <c r="C3320" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3321">
@@ -46123,7 +46109,7 @@
         </is>
       </c>
       <c r="C3339" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3340">
@@ -46458,7 +46444,7 @@
         </is>
       </c>
       <c r="C3362" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3363">
@@ -46870,7 +46856,7 @@
         </is>
       </c>
       <c r="C3392" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3393">
@@ -47053,7 +47039,7 @@
         </is>
       </c>
       <c r="C3405" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3406">
@@ -47812,7 +47798,7 @@
         </is>
       </c>
       <c r="C3460" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3461">
@@ -48314,9 +48300,7 @@
           <t>L29125417002</t>
         </is>
       </c>
-      <c r="C3497" t="n">
-        <v>4</v>
-      </c>
+      <c r="C3497" t="inlineStr"/>
     </row>
     <row r="3498">
       <c r="A3498" t="inlineStr">
@@ -48330,7 +48314,7 @@
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3499">
@@ -48455,7 +48439,7 @@
         </is>
       </c>
       <c r="C3507" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3508">
@@ -48712,7 +48696,7 @@
         </is>
       </c>
       <c r="C3526" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3527">
@@ -49971,7 +49955,7 @@
         </is>
       </c>
       <c r="C3619" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3620">
@@ -50165,7 +50149,7 @@
         </is>
       </c>
       <c r="C3633" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3634">
@@ -50180,7 +50164,7 @@
         </is>
       </c>
       <c r="C3634" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3635">
@@ -50275,7 +50259,7 @@
         </is>
       </c>
       <c r="C3641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3642">
@@ -50562,7 +50546,7 @@
         </is>
       </c>
       <c r="C3662" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3663">
@@ -57889,7 +57873,7 @@
         </is>
       </c>
       <c r="C4215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4216">
@@ -57904,7 +57888,7 @@
         </is>
       </c>
       <c r="C4216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4217">
@@ -57919,7 +57903,7 @@
         </is>
       </c>
       <c r="C4217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4218">
@@ -58963,7 +58947,7 @@
         </is>
       </c>
       <c r="C4291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4292">
@@ -58993,7 +58977,7 @@
         </is>
       </c>
       <c r="C4293" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4294">
@@ -61557,7 +61541,7 @@
         </is>
       </c>
       <c r="C4487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4488">
@@ -63379,7 +63363,9 @@
           <t>NK55434917001</t>
         </is>
       </c>
-      <c r="C4622" t="inlineStr"/>
+      <c r="C4622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4623">
       <c r="A4623" t="inlineStr">
@@ -63901,7 +63887,7 @@
         </is>
       </c>
       <c r="C4661" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4662">
@@ -64832,7 +64818,7 @@
         </is>
       </c>
       <c r="C4732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4733">
@@ -65059,7 +65045,7 @@
         </is>
       </c>
       <c r="C4749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4750">
@@ -65369,9 +65355,7 @@
           <t>153394617029</t>
         </is>
       </c>
-      <c r="C4772" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4772" t="inlineStr"/>
     </row>
     <row r="4773">
       <c r="A4773" t="inlineStr">
@@ -65952,7 +65936,7 @@
         </is>
       </c>
       <c r="C4816" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4817">
@@ -66077,7 +66061,7 @@
         </is>
       </c>
       <c r="C4825" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4826">
@@ -72893,7 +72877,7 @@
         </is>
       </c>
       <c r="C5335" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5336">
@@ -73667,7 +73651,7 @@
         </is>
       </c>
       <c r="C5391" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5392">

--- a/resultado_correspondencias.xlsx
+++ b/resultado_correspondencias.xlsx
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>16200544140</t>
+          <t>16142440703</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NK70155517004</t>
+          <t>CK235165415662</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1953,16 +1953,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>16142440703</t>
+          <t>16200544140</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CK235165415662</t>
+          <t>NK70155517004</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
@@ -2088,27 +2088,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>15478885575</t>
+          <t>16402636496</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>441585615061</t>
+          <t>CK255125416205</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>16402636496</t>
+          <t>15478885575</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CK255125416205</t>
+          <t>441585615061</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -4863,12 +4863,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>16142441043</t>
+          <t>16402636754</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CKJ236475418073</t>
+          <t>DK713S5617001</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>16402636754</t>
+          <t>16142441043</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DK713S5617001</t>
+          <t>CKJ236475418073</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>16402637182</t>
+          <t>16142441554</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>N6262S5320215</t>
+          <t>L29365417275</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>16142441554</t>
+          <t>16200543920</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>L29365417275</t>
+          <t>CKJ236185314410</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>16313779742</t>
+          <t>16258106953</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>M50295417971</t>
+          <t>SF1083S5715840</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>16200543920</t>
+          <t>16258106986</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>CKJ236185314410</t>
+          <t>L22985617424</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>16258107003</t>
+          <t>16386952190</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>L29495219001</t>
+          <t>NK72915614034</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>16258106953</t>
+          <t>16107266839</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SF1083S5715840</t>
+          <t>P30165318232</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>16258106986</t>
+          <t>16200544143</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>L22985617424</t>
+          <t>NK70155517410</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>16386952190</t>
+          <t>16402636776</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NK72915614034</t>
+          <t>SF1110S5618302</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>16258106949</t>
+          <t>16258107003</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SF1082S5319600</t>
+          <t>L29495219001</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>16142441363</t>
+          <t>16258106949</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>L22965517033</t>
+          <t>SF1082S5319600</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>16200543881</t>
+          <t>16142441658</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CK231065120045</t>
+          <t>L6017S5517240</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>16313779807</t>
+          <t>16142441363</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ZS235335517237</t>
+          <t>L22965517033</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>16107266843</t>
+          <t>16200543881</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>395325318301</t>
+          <t>CK231065120045</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>16107266839</t>
+          <t>16402636761</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>P30165318232</t>
+          <t>SF1110S5618242</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>16386952163</t>
+          <t>15478884556</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>L29655317410</t>
+          <t>420375416006</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>16402636776</t>
+          <t>16313779742</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SF1110S5618302</t>
+          <t>M50295417971</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>15478884556</t>
+          <t>16142443044</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>420375416006</t>
+          <t>SF1109S5714432</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,12 +5148,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>16142441658</t>
+          <t>16313779807</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>L6017S5517240</t>
+          <t>ZS235335517237</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -5163,12 +5163,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>16313779786</t>
+          <t>16142441352</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ZS221175617962</t>
+          <t>L22945717002</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -5178,12 +5178,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>16142440849</t>
+          <t>16313779786</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CK235485516970</t>
+          <t>ZS221175617962</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>16142442956</t>
+          <t>16386952151</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>P20155318280</t>
+          <t>L29625415035</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>16007027885</t>
+          <t>16142441075</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>399775218601</t>
+          <t>CKJ236515219314</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,12 +5223,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>16402636761</t>
+          <t>16313779494</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SF1110S5618242</t>
+          <t>CKJ246125217510</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>16048321365</t>
+          <t>16142440886</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>451185316515</t>
+          <t>CKJ22643S5220971</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,12 +5253,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>16007027909</t>
+          <t>12983810652</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>P20125518210</t>
+          <t>215155417001</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>16313779676</t>
+          <t>16313779533</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>LO27165415690</t>
+          <t>CV543S5418456</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>12983810652</t>
+          <t>16313779562</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>215155417001</t>
+          <t>SF1085S5716103</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,12 +5298,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>16200544143</t>
+          <t>16142440914</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NK70155517410</t>
+          <t>CKJ23220S5815600</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>16258106827</t>
+          <t>16142440849</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CKJ23622S5320400</t>
+          <t>CK235485516970</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>16313779562</t>
+          <t>16007027909</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>SF1085S5716103</t>
+          <t>P20125518210</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>16313779533</t>
+          <t>16007027885</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CV543S5418456</t>
+          <t>399775218601</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>16283023635</t>
+          <t>16107266843</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CK225085716070</t>
+          <t>395325318301</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>16142440914</t>
+          <t>16283023635</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CKJ23220S5815600</t>
+          <t>CK225085716070</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>16402636636</t>
+          <t>16386952121</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CKJ24602S5217510</t>
+          <t>CKJ246345618242</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>16029485338</t>
+          <t>16386952163</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CKJ22640S5716745</t>
+          <t>L29655317410</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>16142441101</t>
+          <t>16048321365</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CKJ23654S5617079</t>
+          <t>451185316515</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>16029485337</t>
+          <t>16258106827</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CKJ22640S5716671</t>
+          <t>CKJ23622S5320400</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>16313779494</t>
+          <t>16313779693</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CKJ246125217510</t>
+          <t>431405316035</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>16142443174</t>
+          <t>16142442956</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ZS23137S5319403</t>
+          <t>P20155318280</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>16142440886</t>
+          <t>16402636636</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CKJ22643S5220971</t>
+          <t>CKJ24602S5217510</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>16142441075</t>
+          <t>16142443174</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CKJ236515219314</t>
+          <t>ZS23137S5319403</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>16142443044</t>
+          <t>16142441101</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SF1109S5714432</t>
+          <t>CKJ23654S5617079</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>16142441352</t>
+          <t>16029485337</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>L22945717002</t>
+          <t>CKJ22640S5716671</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>16313779693</t>
+          <t>16029485338</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>431405316035</t>
+          <t>CKJ22640S5716745</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>16386952151</t>
+          <t>16402637182</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>L29625415035</t>
+          <t>N6262S5320215</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>16386952121</t>
+          <t>15964460669</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CKJ246345618242</t>
+          <t>CKJ226135518051</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>15964460669</t>
+          <t>16313779676</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CKJ226135518051</t>
+          <t>LO27165415690</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>16313779703</t>
+          <t>16402637215</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>470835317410</t>
+          <t>NKFD18185417010</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>16142441362</t>
+          <t>16258107007</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>L22965517002</t>
+          <t>L258S5320771</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>16402636980</t>
+          <t>16258106984</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>L6029S5319301</t>
+          <t>L29465516001</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>16402636613</t>
+          <t>15478884711</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>CKJ24608S5220306</t>
+          <t>420385514413</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>16258107007</t>
+          <t>15913120969</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>L258S5320771</t>
+          <t>366795316035</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>15913120969</t>
+          <t>16142442593</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>366795316035</t>
+          <t>LO743S5323650</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>16313779803</t>
+          <t>16142441566</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>ZS23528S5319240</t>
+          <t>L29385120214</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>16258106984</t>
+          <t>16402637394</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>L29465516001</t>
+          <t>ZS23527S5518062</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>16142442593</t>
+          <t>16386952097</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>LO743S5323650</t>
+          <t>CK24532S5420330</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>16142441566</t>
+          <t>16107266820</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>L29385120214</t>
+          <t>389445519733</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,12 +5748,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>16142441129</t>
+          <t>16313779763</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>CKJ23658S5616540</t>
+          <t>NK71674919243</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>16142442952</t>
+          <t>16313779701</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>P20145417240</t>
+          <t>470755214540</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,12 +5778,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>16283023676</t>
+          <t>16142441356</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>L29545120410</t>
+          <t>L22945717424</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>16200544277</t>
+          <t>16258106939</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ZS227075417008</t>
+          <t>SF1087S5618219</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>16386952174</t>
+          <t>11139424191</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>L23035318001</t>
+          <t>CKJ203045219045</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>16283023636</t>
+          <t>16142441656</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>CK225085716431</t>
+          <t>L6017S5517230</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>16142440876</t>
+          <t>16142441362</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>CKJ223044915679</t>
+          <t>L22965517002</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>16142441281</t>
+          <t>16402636979</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>CV556S5120524</t>
+          <t>L6028S5419001</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>15878034375</t>
+          <t>16283023704</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>435805316601</t>
+          <t>ZS221175617002</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>16402637162</t>
+          <t>16313779803</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>431405316320</t>
+          <t>ZS23528S5319240</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,12 +5898,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>16029485360</t>
+          <t>16142442586</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>CKJ23603S5317300</t>
+          <t>LO738S5318681</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>16402636639</t>
+          <t>16258106783</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>CKJ24201S5616717</t>
+          <t>CK23506S5318513</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>16029485540</t>
+          <t>16142441085</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NKFD18505120011</t>
+          <t>CKJ23652S5419540</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>16402637006</t>
+          <t>16313779703</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>LO27375216830</t>
+          <t>470835317410</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>15878034295</t>
+          <t>16313779707</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>460745619033</t>
+          <t>M20295917002</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>16142441085</t>
+          <t>16402637006</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>CKJ23652S5419540</t>
+          <t>LO27375216830</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>16313779505</t>
+          <t>15878034375</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>CKJ246175517001</t>
+          <t>435805316601</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>16142441322</t>
+          <t>15878034295</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>DK50605218400</t>
+          <t>460745619033</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>16142442847</t>
+          <t>16283023636</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>NKFV24105419801</t>
+          <t>CK225085716431</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>16258106783</t>
+          <t>16283023676</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>CK23506S5318513</t>
+          <t>L29545120410</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>16313779763</t>
+          <t>16283023661</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NK71674919243</t>
+          <t>CKJ23624S5418620</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>16313779701</t>
+          <t>16200544277</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>470755214540</t>
+          <t>ZS227075417008</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>16142442586</t>
+          <t>16402636613</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>LO738S5318681</t>
+          <t>CKJ24608S5220306</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>11139424191</t>
+          <t>16142441322</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>CKJ203045219045</t>
+          <t>DK50605218400</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>15478884711</t>
+          <t>16402636980</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>420385514413</t>
+          <t>L6029S5319301</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,12 +6153,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>16142441656</t>
+          <t>16142440876</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>L6017S5517230</t>
+          <t>CKJ223044915679</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>16402637394</t>
+          <t>16142442958</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ZS23527S5518062</t>
+          <t>P20155318461</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>16142442426</t>
+          <t>16313779640</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>LO172S5815001</t>
+          <t>L29485318301</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>16402636979</t>
+          <t>16142442426</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>L6028S5419001</t>
+          <t>LO172S5815001</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>16258106939</t>
+          <t>16313779505</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SF1087S5618219</t>
+          <t>CKJ246175517001</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>16048321390</t>
+          <t>16386952174</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>CKJ236125516002</t>
+          <t>L23035318001</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>16029485402</t>
+          <t>16142441281</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>CKJ23609S5221231</t>
+          <t>CV556S5120524</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>16107266820</t>
+          <t>16029485540</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>389445519733</t>
+          <t>NKFD18505120011</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>16386952097</t>
+          <t>16142442847</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>CK24532S5420330</t>
+          <t>NKFV24105419801</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,12 +6288,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>16402637215</t>
+          <t>16402636639</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NKFD18185417010</t>
+          <t>CKJ24201S5616717</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>16142442970</t>
+          <t>16402637162</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>P30175317450</t>
+          <t>431405316320</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>16283023704</t>
+          <t>16142442952</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ZS221175617002</t>
+          <t>P20145417240</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>16283023661</t>
+          <t>16142442970</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>CKJ23624S5418620</t>
+          <t>P30175317450</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>16313779640</t>
+          <t>16029485360</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>L29485318301</t>
+          <t>CKJ23603S5317300</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,12 +6363,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>16142442958</t>
+          <t>16142441129</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>P20155318461</t>
+          <t>CKJ23658S5616540</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>16313779707</t>
+          <t>16029485402</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>M20295917002</t>
+          <t>CKJ23609S5221231</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>16142441356</t>
+          <t>16048321390</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>L22945717424</t>
+          <t>CKJ236125516002</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>16258106991</t>
+          <t>16029485336</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>L29515517035</t>
+          <t>CKJ22639S5515675</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>16007027878</t>
+          <t>16029485334</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>399745317035</t>
+          <t>CKJ22639S5515400</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>16142442592</t>
+          <t>16142443189</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>LO743S5323400</t>
+          <t>ZS231405517403</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>16258106996</t>
+          <t>16029485327</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>L29485318214</t>
+          <t>CKJ22637S5221603</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>16258107101</t>
+          <t>16142441098</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ZS223005318001</t>
+          <t>CKJ23654S5617073</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>16258106985</t>
+          <t>16029485361</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>L29445517210</t>
+          <t>CKJ23603S5317600</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>16029485327</t>
+          <t>16258106985</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>CKJ22637S5221603</t>
+          <t>L29445517210</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>16402637190</t>
+          <t>16258107019</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>N73405417005</t>
+          <t>LO27165415001</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>16029485334</t>
+          <t>16402637358</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CKJ22639S5515400</t>
+          <t>ALPATINA2015018200</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>16142441044</t>
+          <t>16142442963</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>CKJ236475418239</t>
+          <t>P30135417533</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>16313779778</t>
+          <t>16313779684</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>P40155616043</t>
+          <t>LO729S5517233</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>16107266834</t>
+          <t>16029485537</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>440975318210</t>
+          <t>NKFD18495718013</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>16313779761</t>
+          <t>16313779609</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NK71674919206</t>
+          <t>SF29755317653</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>16313779784</t>
+          <t>16142442966</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>P50145218712</t>
+          <t>P30145316444</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>16313779730</t>
+          <t>16258107087</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>M30194920210</t>
+          <t>NK81565219039</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>16402637358</t>
+          <t>16258107009</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ALPATINA2015018200</t>
+          <t>415645319001</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>16258107009</t>
+          <t>16258107010</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>415645319001</t>
+          <t>L36584817424</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>16258107010</t>
+          <t>16029485527</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>L36584817424</t>
+          <t>NKFD18055717100</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>16258107019</t>
+          <t>15478889063</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>LO27165415001</t>
+          <t>469854620550</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>16258107087</t>
+          <t>16313779529</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NK81565219039</t>
+          <t>CV10195119780</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>16402636588</t>
+          <t>16402636841</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>CK24507S5717001</t>
+          <t>L6029S5319410</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>16313779702</t>
+          <t>16313779520</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>470835317002</t>
+          <t>CK245145217031</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>15913120945</t>
+          <t>15478877027</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>L28955517230</t>
+          <t>153394817010</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>16283023696</t>
+          <t>16386952143</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NK81565219001</t>
+          <t>L27075316410</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>16258106785</t>
+          <t>16025998885</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>CK23100S5618413</t>
+          <t>CKJ23202S6016210</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>16142442993</t>
+          <t>16283023675</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>P50135318005</t>
+          <t>L29545120275</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>16402637030</t>
+          <t>16283023665</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>LO27375216300</t>
+          <t>SF2003S5421233</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>16283023698</t>
+          <t>16402636485</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ZS24719S5418239</t>
+          <t>CK245225218603</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>16142441172</t>
+          <t>16313779539</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>CV50875318410</t>
+          <t>DK10345117272</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>16313779609</t>
+          <t>16402636574</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>SF29755317653</t>
+          <t>CK245245415001</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>16142442966</t>
+          <t>16007027878</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>P30145316444</t>
+          <t>399745317035</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>16258106818</t>
+          <t>16142441316</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>CKJ236265416400</t>
+          <t>DK50595117275</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>16258106814</t>
+          <t>16142440954</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>CKJ23624S5418450</t>
+          <t>CKJ23641S5018540</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,12 +6903,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>16313779684</t>
+          <t>15975762608</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>LO729S5517233</t>
+          <t>594785515004</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>16029485537</t>
+          <t>16142440812</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>NKFD18495718013</t>
+          <t>CK235435417240</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,12 +6933,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>16029485527</t>
+          <t>16142442520</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NKFD18055717100</t>
+          <t>LO27285316606</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>16142442963</t>
+          <t>16007027778</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>P30135417533</t>
+          <t>451185316235</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>16258106778</t>
+          <t>16313779702</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CK231075217200</t>
+          <t>470835317002</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>16142440812</t>
+          <t>16313779708</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CK235435417240</t>
+          <t>M20295917073</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>16402637220</t>
+          <t>16313779709</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NK50374815001</t>
+          <t>M20315718002</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>16402636574</t>
+          <t>16313779620</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CK245245415001</t>
+          <t>SF307S5320302</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>16200543937</t>
+          <t>16258106996</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CV532S5319015</t>
+          <t>L29485318214</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>16142441350</t>
+          <t>16258106991</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>L22935418424</t>
+          <t>L29515517035</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>16258106937</t>
+          <t>16313779784</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SF1087S5618058</t>
+          <t>P50145218712</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>16313779709</t>
+          <t>16142441184</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>M20315718002</t>
+          <t>CV50905316065</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>16313779708</t>
+          <t>16142441187</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>M20295917073</t>
+          <t>CV50905316689</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>16142442520</t>
+          <t>16142440735</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>LO27285316606</t>
+          <t>CK23537S5220300</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>16313779620</t>
+          <t>16142440806</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SF307S5320302</t>
+          <t>CK235415317663</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>16007027778</t>
+          <t>15878034286</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>451185316235</t>
+          <t>460575515315</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>15975762608</t>
+          <t>16402636588</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>594785515004</t>
+          <t>CK24507S5717001</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>16402637397</t>
+          <t>16402637220</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ZS224005617410</t>
+          <t>NK50374815001</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>16142442982</t>
+          <t>16142441044</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>P40145019008</t>
+          <t>CKJ236475418239</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>16025998885</t>
+          <t>16107266834</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CKJ23202S6016210</t>
+          <t>440975318210</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>15913120947</t>
+          <t>16402636491</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>L28955517301</t>
+          <t>CK245205416533</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>16142440954</t>
+          <t>16258106818</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CKJ23641S5018540</t>
+          <t>CKJ236265416400</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>16313779539</t>
+          <t>16283023696</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>DK10345117272</t>
+          <t>NK81565219001</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>16142440735</t>
+          <t>16258106778</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CK23537S5220300</t>
+          <t>CK231075217200</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>16142441184</t>
+          <t>16402637030</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CV50905316065</t>
+          <t>LO27375216300</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>16142441187</t>
+          <t>16142442993</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>CV50905316689</t>
+          <t>P50135318005</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>16386952143</t>
+          <t>16142442982</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>L27075316410</t>
+          <t>P40145019008</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>16283023693</t>
+          <t>16402636512</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NK72735318410</t>
+          <t>CK245435218240</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>16402636539</t>
+          <t>16402637190</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CK23508S5420220</t>
+          <t>N73405417005</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>16107266831</t>
+          <t>16313779730</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>421485018210</t>
+          <t>M30194920210</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>16283023691</t>
+          <t>16142441172</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NK72735318030</t>
+          <t>CV50875318410</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>16313779529</t>
+          <t>16258107101</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CV10195119780</t>
+          <t>ZS223005318001</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>16313779520</t>
+          <t>16258106785</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CK245145217031</t>
+          <t>CK23100S5618413</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>15878034286</t>
+          <t>16142442592</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>460575515315</t>
+          <t>LO743S5323400</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>16142440806</t>
+          <t>16283023698</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CK235415317663</t>
+          <t>ZS24719S5418239</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>16402636485</t>
+          <t>15913120947</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CK245225218603</t>
+          <t>L28955517301</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>16402636491</t>
+          <t>16402637397</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CK245205416533</t>
+          <t>ZS224005617410</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>16283023675</t>
+          <t>16283023693</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>L29545120275</t>
+          <t>NK72735318410</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>16283023665</t>
+          <t>16107266831</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>SF2003S5421233</t>
+          <t>421485018210</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>15478889063</t>
+          <t>15913120945</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>469854620550</t>
+          <t>L28955517230</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>15478877027</t>
+          <t>16402636539</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>153394817010</t>
+          <t>CK23508S5420220</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>16402636841</t>
+          <t>16200543937</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>L6029S5319410</t>
+          <t>CV532S5319015</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>16142441316</t>
+          <t>16258106937</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DK50595117275</t>
+          <t>SF1087S5618058</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>16402636622</t>
+          <t>16142441350</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CKJ24609S5318400</t>
+          <t>L22935418424</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>16007027866</t>
+          <t>16313779761</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>423785919909</t>
+          <t>NK71674919206</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>16142441307</t>
+          <t>16402636622</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DK50575316425</t>
+          <t>CKJ24609S5318400</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>16029485361</t>
+          <t>16007027866</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>CKJ23603S5317600</t>
+          <t>423785919909</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>16402636512</t>
+          <t>16142441307</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CK245435218240</t>
+          <t>DK50575316425</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>16029485336</t>
+          <t>16258106814</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CKJ22639S5515675</t>
+          <t>CKJ23624S5418450</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>16142441098</t>
+          <t>16313779778</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>CKJ23654S5617073</t>
+          <t>P40155616043</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>16142443189</t>
+          <t>16283023691</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>ZS231405517403</t>
+          <t>NK72735318030</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>16029485398</t>
+          <t>16386952178</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>CKJ23608S5417238</t>
+          <t>L23045318275</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>16402636499</t>
+          <t>16386952177</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>CK245155219240</t>
+          <t>L23045318002</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>16142441094</t>
+          <t>16142442779</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>CKJ23653S5517600</t>
+          <t>NK70565320423</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>16142441123</t>
+          <t>15949032413</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>CKJ23657S5518820</t>
+          <t>NKDV69545717010</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>16142440995</t>
+          <t>11139424441</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>CKJ236465218500</t>
+          <t>215155417002</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>16402636655</t>
+          <t>16313779515</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>CKJ24603S5517400</t>
+          <t>CK23509S5122438</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>16142441298</t>
+          <t>16313779687</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DK10324820770</t>
+          <t>LO733S5222404</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>15478884261</t>
+          <t>16142442517</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>420355616073</t>
+          <t>LO27285316242</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>16258107083</t>
+          <t>16313779664</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>420375616034</t>
+          <t>LO170S5420612</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>16142441314</t>
+          <t>16313779683</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DK50595117001</t>
+          <t>LO728S5316239</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>16142441296</t>
+          <t>16142442849</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>DK10324820001</t>
+          <t>NKFV24115419505</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>16283023695</t>
+          <t>16142441176</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NK81565219070</t>
+          <t>CV50885217422</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>16142442779</t>
+          <t>15923049671</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NK70565320423</t>
+          <t>CK221025717002</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>11139424441</t>
+          <t>16142441123</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>215155417002</t>
+          <t>CKJ23657S5518820</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>16402636534</t>
+          <t>16142441094</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>CK245185713416</t>
+          <t>CKJ23653S5517600</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>16402636530</t>
+          <t>16029485398</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>CK24503S5121278</t>
+          <t>CKJ23608S5417238</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>16142441181</t>
+          <t>16402637172</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CV50895417342</t>
+          <t>M50295017971</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>16283023631</t>
+          <t>16142443241</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>CK245245415539</t>
+          <t>ZS237175217001</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>16142441326</t>
+          <t>16402637366</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>DK539S5516425</t>
+          <t>ALPATINA2035318532</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>16142442782</t>
+          <t>16142440995</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NK70575417030</t>
+          <t>CKJ236465218500</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>15923049671</t>
+          <t>16142443218</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CK221025717002</t>
+          <t>ZS235385517325</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>16025998874</t>
+          <t>11139422092</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>CKJ236125516300</t>
+          <t>429625118077</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>16313779557</t>
+          <t>16142442427</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>SF1079S5418435</t>
+          <t>LO172S5815272</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>16283023624</t>
+          <t>16258107014</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>CK245175217227</t>
+          <t>L6030S5021301</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>16029485513</t>
+          <t>16142441314</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>N6253S5618031</t>
+          <t>DK50595117001</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>15949032413</t>
+          <t>16402637038</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NKDV69545717010</t>
+          <t>LO737S5217205</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>16402636521</t>
+          <t>16402637034</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>CK241025218070</t>
+          <t>LO27385316610</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>16007027864</t>
+          <t>16142442519</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>435805316215</t>
+          <t>LO27285316306</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>16313779515</t>
+          <t>16029485513</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>CK23509S5122438</t>
+          <t>N6253S5618031</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>16142443042</t>
+          <t>16313779557</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>SF1109S5714001</t>
+          <t>SF1079S5418435</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>16313779664</t>
+          <t>16283023624</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>LO170S5420612</t>
+          <t>CK245175217227</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>16142443041</t>
+          <t>16283023631</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SF1108S5421423</t>
+          <t>CK245245415539</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>16142442427</t>
+          <t>16007027884</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>LO172S5815272</t>
+          <t>399775218002</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>16029485409</t>
+          <t>16402636586</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>L6000S5122300</t>
+          <t>CK24504S5617001</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>16029485410</t>
+          <t>16402637223</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>L6000S5122603</t>
+          <t>NK60455617070</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>16142443068</t>
+          <t>16402636986</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>ZS22508SP5517239</t>
+          <t>L6044S5420001</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>16402637403</t>
+          <t>16142441298</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>ZS224005617070</t>
+          <t>DK10324820770</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>16313779621</t>
+          <t>16142441169</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>SF307S5320414</t>
+          <t>CV50875318022</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>16056888053</t>
+          <t>16142441170</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>479035618230</t>
+          <t>CV50875318313</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>16142442517</t>
+          <t>16025998874</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>LO27285316242</t>
+          <t>CKJ236125516300</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,12 +8268,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>16258106794</t>
+          <t>16142441296</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>CK24500S5119605</t>
+          <t>DK10324820001</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>16200544194</t>
+          <t>16200543940</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>SF1077S5613838</t>
+          <t>CV536S5418050</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>16142443015</t>
+          <t>16142441168</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SF1105S5217600</t>
+          <t>CV50875318001</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>16142443011</t>
+          <t>16200543924</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>SF1103S5517663</t>
+          <t>CV307S5816001</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>16142441176</t>
+          <t>16402637233</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>CV50885217422</t>
+          <t>NK74015815039</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>16142442849</t>
+          <t>16313779787</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>NKFV24115419505</t>
+          <t>ZS224005617001</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>16142440861</t>
+          <t>16142442580</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>CK235505515208</t>
+          <t>LO738S5318310</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>16258106813</t>
+          <t>15478884597</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>CKJ222065217001</t>
+          <t>420375416305</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>16283023686</t>
+          <t>16200543974</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>L23015318424</t>
+          <t>348425318002</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>15923049682</t>
+          <t>16142441379</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>L2284E5120400</t>
+          <t>L2707N5516002</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>16258106762</t>
+          <t>16142441181</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>CK245235216538</t>
+          <t>CV50895417342</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>16283023681</t>
+          <t>16142442782</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>L29515517301</t>
+          <t>NK70575417030</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>16142442748</t>
+          <t>16142441637</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>N81795218221</t>
+          <t>L6013S5418513</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>16142442749</t>
+          <t>16313779621</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>N81795218441</t>
+          <t>SF307S5320414</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>11139422092</t>
+          <t>16056888053</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>429625118077</t>
+          <t>479035618230</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>16386952178</t>
+          <t>16029485409</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>L23045318275</t>
+          <t>L6000S5122300</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>16386952177</t>
+          <t>16029485410</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>L23045318002</t>
+          <t>L6000S5122603</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>15478884240</t>
+          <t>16142443042</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>420355616001</t>
+          <t>SF1109S5714001</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>16142441169</t>
+          <t>16283023695</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>CV50875318022</t>
+          <t>NK81565219070</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>16142441170</t>
+          <t>16402636530</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>CV50875318313</t>
+          <t>CK24503S5121278</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>16402637034</t>
+          <t>16402636521</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>LO27385316610</t>
+          <t>CK241025218070</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>16402637038</t>
+          <t>16142442748</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>LO737S5217205</t>
+          <t>N81795218221</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>16313779787</t>
+          <t>16142442749</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>ZS224005617001</t>
+          <t>N81795218441</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>16142442580</t>
+          <t>15923049682</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>LO738S5318310</t>
+          <t>L2284E5120400</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>16142442582</t>
+          <t>16283023681</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>LO738S5318405</t>
+          <t>L29515517301</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>16142443218</t>
+          <t>16283023686</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>ZS235385517325</t>
+          <t>L23015318424</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>16258107014</t>
+          <t>16107266837</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>L6030S5021301</t>
+          <t>440985219250</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>16219721324</t>
+          <t>16258106762</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>LO169S5815724</t>
+          <t>CK245235216538</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,12 +8688,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>16402637172</t>
+          <t>16402636534</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>M50295017971</t>
+          <t>CK245185713416</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>15478884133</t>
+          <t>16007027864</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>420355416001</t>
+          <t>435805316215</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,12 +8718,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>16142442599</t>
+          <t>16142441326</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>LO744S5221842</t>
+          <t>DK539S5516425</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8733,12 +8733,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>16402637366</t>
+          <t>16402637403</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ALPATINA2035318532</t>
+          <t>ZS224005617070</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>16142443241</t>
+          <t>16142443068</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ZS237175217001</t>
+          <t>ZS22508SP5517239</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,12 +8763,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>16258107107</t>
+          <t>16313779581</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>ZS221175617401</t>
+          <t>SF29575416001</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8778,12 +8778,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>15478884597</t>
+          <t>16142443015</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>420375416305</t>
+          <t>SF1105S5217600</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8793,12 +8793,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>16142441637</t>
+          <t>16258106794</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>L6013S5418513</t>
+          <t>CK24500S5119605</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8808,12 +8808,12 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>16200543974</t>
+          <t>16258106813</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>348425318002</t>
+          <t>CKJ222065217001</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>16313779581</t>
+          <t>16258106945</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>SF29575416001</t>
+          <t>SF1082S5319414</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,12 +8838,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>16107266837</t>
+          <t>15964460753</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>440985219250</t>
+          <t>L29125417301</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8853,12 +8853,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>16142442588</t>
+          <t>16142442582</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>LO740S5220001</t>
+          <t>LO738S5318405</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -8868,12 +8868,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>16142441379</t>
+          <t>16142443041</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>L2707N5516002</t>
+          <t>SF1108S5421423</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -8883,12 +8883,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>16200543924</t>
+          <t>16142442588</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>CV307S5816001</t>
+          <t>LO740S5220001</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -8898,12 +8898,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>16200543940</t>
+          <t>16142443011</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>CV536S5418050</t>
+          <t>SF1103S5517663</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,12 +8913,12 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>16402636986</t>
+          <t>16200544194</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>L6044S5420001</t>
+          <t>SF1077S5613838</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -8928,12 +8928,12 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>16007027884</t>
+          <t>16219721324</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>399775218002</t>
+          <t>LO169S5815724</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -8943,12 +8943,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>15964460753</t>
+          <t>15478884133</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>L29125417301</t>
+          <t>420355416001</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -8958,12 +8958,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>16258106945</t>
+          <t>16142442599</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>SF1082S5319414</t>
+          <t>LO744S5221842</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -8973,12 +8973,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>16313779687</t>
+          <t>16258107107</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>LO733S5222404</t>
+          <t>ZS221175617401</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -8988,12 +8988,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>16313779683</t>
+          <t>15478884240</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>LO728S5316239</t>
+          <t>420355616001</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -9003,12 +9003,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>16142441168</t>
+          <t>16142440861</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>CV50875318001</t>
+          <t>CK235505515208</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -9018,12 +9018,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>16402637233</t>
+          <t>15478884261</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>NK74015815039</t>
+          <t>420355616073</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -9033,12 +9033,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>16402637223</t>
+          <t>16402636655</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NK60455617070</t>
+          <t>CKJ24603S5517400</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -9048,12 +9048,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>16142442519</t>
+          <t>16402636499</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>LO27285316306</t>
+          <t>CK245155219240</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -9063,27 +9063,27 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>16402636586</t>
+          <t>16142441599</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>CK24504S5617001</t>
+          <t>L29415020240</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>16313779487</t>
+          <t>16142441601</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>CKJ24601S5417002</t>
+          <t>402444718615</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -9093,12 +9093,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>16188774843</t>
+          <t>16258107085</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>CV543S5418970</t>
+          <t>NKFD16925717291</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -9108,12 +9108,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>15878034284</t>
+          <t>16402637149</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>460575515424</t>
+          <t>M50295017620</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -9123,12 +9123,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>16313779534</t>
+          <t>15862408009</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>CV544S5518002</t>
+          <t>NKDV21387010011</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -9138,12 +9138,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>15478878488</t>
+          <t>16402637024</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>276335714014</t>
+          <t>LO27165415242</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -9153,12 +9153,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>16142440963</t>
+          <t>16142440867</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>CKJ23642S5419745</t>
+          <t>CK235505515438</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -9168,12 +9168,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>16029485404</t>
+          <t>16142443159</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>CKJ23609S5221239</t>
+          <t>ZS22702S5120462</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -9183,12 +9183,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>16200544280</t>
+          <t>16142442603</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>ZS227085420239</t>
+          <t>LO746S5516320</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -9198,12 +9198,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>16200544271</t>
+          <t>16142441539</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>ZS22519S5221462</t>
+          <t>L29345415001</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -9213,12 +9213,12 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>15913120986</t>
+          <t>16142441541</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>434625517412</t>
+          <t>L29345415272</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -9228,12 +9228,12 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>16142441186</t>
+          <t>16142443067</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>CV50905316319</t>
+          <t>ZS22508SP5517001</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -9243,12 +9243,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>16402637009</t>
+          <t>16142442733</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>LO2742L5216251</t>
+          <t>N73345316210</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -9258,12 +9258,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>15894223041</t>
+          <t>16402636745</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>395755717005</t>
+          <t>DK50635418244</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -9273,12 +9273,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>16029485319</t>
+          <t>16258106823</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>CKJ22217S5816720</t>
+          <t>CKJ246125217450</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -9288,12 +9288,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>16142441599</t>
+          <t>16258106841</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>L29415020240</t>
+          <t>CKJ236125516971</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -9303,12 +9303,12 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>16142441601</t>
+          <t>16142443037</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>402444718615</t>
+          <t>SF1108S5421104</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -9318,12 +9318,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>15862408009</t>
+          <t>16200544139</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NKDV21387010011</t>
+          <t>NK70155517001</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -9333,12 +9333,12 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>16258107085</t>
+          <t>16142442541</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NKFD16925717291</t>
+          <t>LO27315214242</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -9348,12 +9348,12 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>16402637149</t>
+          <t>16313779805</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>M50295017620</t>
+          <t>ZS23529S5717401</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -9363,12 +9363,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>16142441315</t>
+          <t>16313779813</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>DK50595117214</t>
+          <t>ZS23713S5319062</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -9378,12 +9378,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>16142441318</t>
+          <t>16313779574</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>DK50605218001</t>
+          <t>SF29235319219</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -9393,12 +9393,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>16402637178</t>
+          <t>16283023689</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>N81885220206</t>
+          <t>L22985417002</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -9408,12 +9408,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>15913120993</t>
+          <t>16142442999</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>360045517033</t>
+          <t>SF1077S5613020</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -9423,12 +9423,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>16142441321</t>
+          <t>16142443000</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>DK50605218265</t>
+          <t>SF1077S5613232</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -9438,12 +9438,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>16283023625</t>
+          <t>16200544248</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>CK245175217039</t>
+          <t>ZS223005318241</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -9453,12 +9453,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>16142441320</t>
+          <t>16142443008</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>DK50605218237</t>
+          <t>SF1103S5517217</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -9468,12 +9468,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>15478879693</t>
+          <t>16142443009</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>301664917403</t>
+          <t>SF1103S5517600</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -9483,12 +9483,12 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>15878034386</t>
+          <t>16019315016</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>441585615302</t>
+          <t>L29225517001</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -9498,12 +9498,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>16402637218</t>
+          <t>15964460725</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>NK71674919502</t>
+          <t>L22865517201</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -9513,12 +9513,12 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>16258106885</t>
+          <t>16402636658</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>453375217005</t>
+          <t>CV50865317970</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -9528,12 +9528,12 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>16142442453</t>
+          <t>16402636712</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>LO27065216107</t>
+          <t>CV104S5220781</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -9543,12 +9543,12 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>16142442510</t>
+          <t>15894223085</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>LO27155215600</t>
+          <t>592365618020</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -9558,12 +9558,12 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>16107266823</t>
+          <t>16283023684</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>414365518717</t>
+          <t>L23015318002</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -9573,12 +9573,12 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>16258106974</t>
+          <t>16283023685</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>L22975415033</t>
+          <t>L23005418424</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -9588,12 +9588,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>16029485408</t>
+          <t>16313779782</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>L6000S5122038</t>
+          <t>P40175120605</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -9603,12 +9603,12 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>16258106841</t>
+          <t>16107266823</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>CKJ236125516971</t>
+          <t>414365518717</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -9618,12 +9618,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>16258106823</t>
+          <t>16258106974</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>CKJ246125217450</t>
+          <t>L22975415033</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -9633,12 +9633,12 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>16019315016</t>
+          <t>16029485408</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>L29225517001</t>
+          <t>L6000S5122038</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -9648,12 +9648,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>16142443037</t>
+          <t>16258106885</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>SF1108S5421104</t>
+          <t>453375217005</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -9663,12 +9663,12 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>16200544139</t>
+          <t>16402637218</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NK70155517001</t>
+          <t>NK71674919502</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -9678,12 +9678,12 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>16313779639</t>
+          <t>16402636601</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>L29485318001</t>
+          <t>CKJ246125217050</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -9693,12 +9693,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>16402636551</t>
+          <t>16200544271</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>CK23508S5420435</t>
+          <t>ZS22519S5221462</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -9708,12 +9708,12 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>16313779667</t>
+          <t>16200544280</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>LO21575217711</t>
+          <t>ZS227085420239</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -9723,12 +9723,12 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>15964460725</t>
+          <t>16188774843</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>L22865517201</t>
+          <t>CV543S5418970</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -9738,12 +9738,12 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>16283023689</t>
+          <t>15913120986</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>L22985417002</t>
+          <t>434625517412</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -9753,12 +9753,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>16283023684</t>
+          <t>16313779534</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>L23015318002</t>
+          <t>CV544S5518002</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -9768,12 +9768,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>16283023685</t>
+          <t>16283023625</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>L23005418424</t>
+          <t>CK245175217039</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -9783,12 +9783,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>16402636712</t>
+          <t>16142441321</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>CV104S5220781</t>
+          <t>DK50605218265</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -9798,12 +9798,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>15964460708</t>
+          <t>16313779697</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>CKJ22641S5419400</t>
+          <t>467975418201</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -9813,12 +9813,12 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>16402636658</t>
+          <t>16258106887</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>CV50865317970</t>
+          <t>453375217237</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -9828,12 +9828,12 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>15894223085</t>
+          <t>16258106938</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>592365618020</t>
+          <t>SF1087S5618001</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -9843,12 +9843,12 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>16142443008</t>
+          <t>16142441353</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>SF1103S5517217</t>
+          <t>L22945717033</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -9858,12 +9858,12 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>16142443009</t>
+          <t>16313779743</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SF1103S5517600</t>
+          <t>M55075517218</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -9873,12 +9873,12 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>16142443000</t>
+          <t>16142442954</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>SF1077S5613232</t>
+          <t>P20145417340</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -9888,12 +9888,12 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>16200544248</t>
+          <t>16029485404</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>ZS223005318241</t>
+          <t>CKJ23609S5221239</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -9903,12 +9903,12 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>16142442999</t>
+          <t>15894223041</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SF1077S5613020</t>
+          <t>395755717005</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -9918,12 +9918,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>16402637024</t>
+          <t>16402637009</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>LO27165415242</t>
+          <t>LO2742L5216251</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -9933,12 +9933,12 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>16142441175</t>
+          <t>15913120993</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>CV50885217303</t>
+          <t>360045517033</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -9948,12 +9948,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>16142440867</t>
+          <t>16142441315</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CK235505515438</t>
+          <t>DK50595117214</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -9963,12 +9963,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>16313779617</t>
+          <t>16142441318</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>SF304S5818772</t>
+          <t>DK50605218001</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -9978,12 +9978,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>16313779782</t>
+          <t>16142441320</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>P40175120605</t>
+          <t>DK50605218237</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -9993,12 +9993,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>16313779805</t>
+          <t>15478878488</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>ZS23529S5717401</t>
+          <t>276335714014</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10008,12 +10008,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>16313779813</t>
+          <t>16142440963</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>ZS23713S5319062</t>
+          <t>CKJ23642S5419745</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -10023,12 +10023,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>16142442541</t>
+          <t>16313779617</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>LO27315214242</t>
+          <t>SF304S5818772</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -10038,12 +10038,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>16402636601</t>
+          <t>16007027811</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>CKJ246125217050</t>
+          <t>CK22522S5916002</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -10053,12 +10053,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>16258106990</t>
+          <t>16313779783</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>L29515517410</t>
+          <t>P40175120713</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -10068,12 +10068,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>16142441633</t>
+          <t>16200543971</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>L6013S5418210</t>
+          <t>DK70095216265</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -10098,12 +10098,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>16258106887</t>
+          <t>16258106990</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>453375217237</t>
+          <t>L29515517410</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -10113,12 +10113,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>16142442954</t>
+          <t>16142441633</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>P20145417340</t>
+          <t>L6013S5418210</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -10128,12 +10128,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>16142442955</t>
+          <t>16142441186</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>P20155318005</t>
+          <t>CV50905316319</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -10143,12 +10143,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>16007027811</t>
+          <t>15878034284</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>CK22522S5916002</t>
+          <t>460575515424</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -10158,12 +10158,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>16142441353</t>
+          <t>15478879693</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>L22945717033</t>
+          <t>301664917403</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -10173,12 +10173,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>16200543971</t>
+          <t>16142442453</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>DK70095216265</t>
+          <t>LO27065216107</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -10188,12 +10188,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>16313779697</t>
+          <t>16142442510</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>467975418201</t>
+          <t>LO27155215600</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -10203,12 +10203,12 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>16258106938</t>
+          <t>16313779487</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>SF1087S5618001</t>
+          <t>CKJ24601S5417002</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -10218,12 +10218,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>16313779574</t>
+          <t>15878034386</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>SF29235319219</t>
+          <t>441585615302</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -10233,12 +10233,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>16142443211</t>
+          <t>15964460708</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>ZS235375022462</t>
+          <t>CKJ22641S5419400</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -10248,12 +10248,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>16142443204</t>
+          <t>16142441175</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>ZS23536S4922462</t>
+          <t>CV50885217303</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -10263,12 +10263,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>16200543884</t>
+          <t>16142442955</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>CK23500S5519601</t>
+          <t>P20155318005</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -10278,12 +10278,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>16313779783</t>
+          <t>16313779639</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>P40175120713</t>
+          <t>L29485318001</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -10293,12 +10293,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>16029485386</t>
+          <t>16402636551</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>CKJ23608S5417234</t>
+          <t>CK23508S5420435</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -10308,12 +10308,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>16142441539</t>
+          <t>16313779667</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>L29345415001</t>
+          <t>LO21575217711</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -10323,12 +10323,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>16142441541</t>
+          <t>16200543884</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>L29345415272</t>
+          <t>CK23500S5519601</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -10338,12 +10338,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>16313779743</t>
+          <t>16029485386</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>M55075517218</t>
+          <t>CKJ23608S5417234</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -10353,12 +10353,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>16142442603</t>
+          <t>16142443204</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>LO746S5516320</t>
+          <t>ZS23536S4922462</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -10368,12 +10368,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>16402637239</t>
+          <t>16142443211</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NK74015815410</t>
+          <t>ZS235375022462</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -10383,12 +10383,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>16142443067</t>
+          <t>16402637239</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>ZS22508SP5517001</t>
+          <t>NK74015815410</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -10398,12 +10398,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>16142442733</t>
+          <t>16029485319</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>N73345316210</t>
+          <t>CKJ22217S5816720</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -10413,12 +10413,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>16402636745</t>
+          <t>16402637178</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>DK50635418244</t>
+          <t>N81885220206</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -10428,27 +10428,27 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>16142443159</t>
+          <t>16029485517</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>ZS22702S5120462</t>
+          <t>N6255S5720015</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>16402637404</t>
+          <t>16029485520</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ZS225225320001</t>
+          <t>N6255S5720971</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10458,12 +10458,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>16029485517</t>
+          <t>16402636584</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>N6255S5720015</t>
+          <t>CK24501S5615001</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10473,12 +10473,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>16029485520</t>
+          <t>16142442751</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>N6255S5720971</t>
+          <t>N81805618005</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -10488,12 +10488,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>16402636584</t>
+          <t>16029485498</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>CK24501S5615001</t>
+          <t>N5144S5817030</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -10503,12 +10503,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>16142442751</t>
+          <t>16029485499</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>N81805618005</t>
+          <t>N5144S5817720</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10518,12 +10518,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>16029485498</t>
+          <t>16029485515</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>N5144S5817030</t>
+          <t>N6253S5618971</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -10533,12 +10533,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>16029485499</t>
+          <t>16142441069</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>N5144S5817720</t>
+          <t>CKJ236505317601</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -10548,12 +10548,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>16029485515</t>
+          <t>16142441580</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>N6253S5618971</t>
+          <t>L29395415001</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -10563,12 +10563,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>16142441580</t>
+          <t>16258107098</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>L29395415001</t>
+          <t>ZS225005718239</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -10578,12 +10578,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>16258107098</t>
+          <t>16142441626</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>ZS225005718239</t>
+          <t>L6011S5618210</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -10593,12 +10593,12 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>16142441626</t>
+          <t>16258107083</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>L6011S5618210</t>
+          <t>420375616034</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -10653,12 +10653,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>16142441069</t>
+          <t>16142441077</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>CKJ236505317601</t>
+          <t>CKJ236515219460</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -10668,12 +10668,12 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>16142441077</t>
+          <t>16142440952</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>CKJ236515219460</t>
+          <t>CKJ23641S5018002</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -10683,12 +10683,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>16142440952</t>
+          <t>16142440986</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>CKJ23641S5018002</t>
+          <t>CKJ236455616300</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -10698,12 +10698,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>16142440986</t>
+          <t>16142440990</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>CKJ236455616300</t>
+          <t>CKJ236465218050</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -10713,12 +10713,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>16142440990</t>
+          <t>16402636547</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>CKJ236465218050</t>
+          <t>CK24506S4921300</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -10728,12 +10728,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>16402636547</t>
+          <t>16025998875</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>CK24506S4921300</t>
+          <t>CKJ236135317671</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -10743,12 +10743,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>16025998875</t>
+          <t>16025998879</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>CKJ236135317671</t>
+          <t>CKJ236145414671</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -10758,12 +10758,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>16025998879</t>
+          <t>15964460631</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>CKJ236145414671</t>
+          <t>CKJ226485417400</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -10773,12 +10773,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>15964460631</t>
+          <t>16142440892</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CKJ226485417400</t>
+          <t>CKJ226445616400</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -10908,12 +10908,12 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>16142440892</t>
+          <t>16402636603</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>CKJ226445616400</t>
+          <t>CKJ246185318246</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -10923,12 +10923,12 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>16402636603</t>
+          <t>16402636618</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>CKJ246185318246</t>
+          <t>CKJ24602S5217671</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -10938,12 +10938,12 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>16402636618</t>
+          <t>16402636619</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>CKJ24602S5217671</t>
+          <t>CKJ24603S5517309</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -10953,12 +10953,12 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>16402636619</t>
+          <t>16142442604</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>CKJ24603S5517309</t>
+          <t>LO746S5516430</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -10968,12 +10968,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>16142442604</t>
+          <t>16142442617</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>LO746S5516430</t>
+          <t>N2245S6313200</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -10983,12 +10983,12 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>16142442617</t>
+          <t>16313779777</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>N2245S6313200</t>
+          <t>ALPATINA2024918602</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -10998,12 +10998,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>16313779777</t>
+          <t>10689890587</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ALPATINA2024918602</t>
+          <t>CKJ193134920405</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -11013,12 +11013,12 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>10689890587</t>
+          <t>16142441164</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>CKJ193134920405</t>
+          <t>469565016056</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -11103,12 +11103,12 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>16142441164</t>
+          <t>16402637040</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>469565016056</t>
+          <t>LO735S5518005</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -11118,12 +11118,12 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>16402637040</t>
+          <t>16313779788</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>LO735S5518005</t>
+          <t>ZS22518S5220240</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -11133,12 +11133,12 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>16313779788</t>
+          <t>16313779801</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>ZS22518S5220240</t>
+          <t>ZS231275519302</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -11148,12 +11148,12 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>16313779801</t>
+          <t>16142442578</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>ZS231275519302</t>
+          <t>LO738S5318210</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -11163,12 +11163,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>16142442578</t>
+          <t>16142442587</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>LO738S5318210</t>
+          <t>LO739S5020206</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -11178,12 +11178,12 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>16142442587</t>
+          <t>16142442544</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>LO739S5020206</t>
+          <t>LO27315214690</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -11193,12 +11193,12 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>16142442544</t>
+          <t>16313779815</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>LO27315214690</t>
+          <t>ZS24151C5418073</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -11208,12 +11208,12 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>16313779815</t>
+          <t>16313779569</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>ZS24151C5418073</t>
+          <t>SF22225419401</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -11223,12 +11223,12 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>16313779569</t>
+          <t>16142443031</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>SF22225419401</t>
+          <t>SF1107S5520653</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -11238,12 +11238,12 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>16258106876</t>
+          <t>16142443038</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>CV545SY5117684</t>
+          <t>SF1108S5421232</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -11253,12 +11253,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>16142443031</t>
+          <t>16142443043</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>SF1107S5520653</t>
+          <t>SF1109S5714242</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -11268,12 +11268,12 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>16142443038</t>
+          <t>16107266818</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SF1108S5421232</t>
+          <t>386375414214</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -11283,12 +11283,12 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>16142443043</t>
+          <t>16258106922</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>SF1109S5714242</t>
+          <t>DK50535118018</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -11298,12 +11298,12 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>16107266818</t>
+          <t>16107266838</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>386375414214</t>
+          <t>440785319210</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -11313,12 +11313,12 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>16258106922</t>
+          <t>16402636976</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>DK50535118018</t>
+          <t>L6023S4921275</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -11328,12 +11328,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>16107266838</t>
+          <t>16142442533</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>440785319210</t>
+          <t>LO27305117200</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -11343,12 +11343,12 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>16402636976</t>
+          <t>16142442537</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>L6023S4921275</t>
+          <t>LO27305117400</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -11358,12 +11358,12 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>16142442533</t>
+          <t>16142440819</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>LO27305117200</t>
+          <t>CK235445317004</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -11373,12 +11373,12 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>16142442537</t>
+          <t>16313779631</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>LO27305117400</t>
+          <t>L22995419301</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -11388,12 +11388,12 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>16142440819</t>
+          <t>16313779582</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>CK235445317004</t>
+          <t>SF29575416240</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -11403,12 +11403,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>16313779631</t>
+          <t>16200544168</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>L22995419301</t>
+          <t>NK80545516070</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -11418,12 +11418,12 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>16200544168</t>
+          <t>16200544181</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NK80545516070</t>
+          <t>SF1056S5716456</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -11433,12 +11433,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>16200544181</t>
+          <t>16258106816</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>SF1056S5716456</t>
+          <t>CKJ24605S6014001</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -11448,12 +11448,12 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>16258106816</t>
+          <t>16007027846</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>CKJ24605S6014001</t>
+          <t>289085114513</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -11463,12 +11463,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>16007027846</t>
+          <t>16258106824</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>289085114513</t>
+          <t>CKJ246145518001</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -11478,12 +11478,12 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>16258106824</t>
+          <t>16258106842</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>CKJ246145518001</t>
+          <t>CKJ236115417400</t>
         </is>
       </c>
       <c r="C737" t="n">
@@ -11493,12 +11493,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>16258106842</t>
+          <t>16258106876</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>CKJ236115417400</t>
+          <t>CV545SY5117684</t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -11508,12 +11508,12 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>16313779582</t>
+          <t>16313779583</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>SF29575416240</t>
+          <t>SF29575416601</t>
         </is>
       </c>
       <c r="C739" t="n">
@@ -11523,12 +11523,12 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>16313779583</t>
+          <t>16313779610</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>SF29575416601</t>
+          <t>SF302SL6018047</t>
         </is>
       </c>
       <c r="C740" t="n">
@@ -11538,12 +11538,12 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>16313779610</t>
+          <t>16402636556</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>SF302SL6018047</t>
+          <t>CK24503S5121059</t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -11553,12 +11553,12 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>16402636556</t>
+          <t>16313779673</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>CK24503S5121059</t>
+          <t>LO27135417404</t>
         </is>
       </c>
       <c r="C742" t="n">
@@ -11568,12 +11568,12 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>16313779673</t>
+          <t>16313779630</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>LO27135417404</t>
+          <t>L22985417424</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -11583,12 +11583,12 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>16313779630</t>
+          <t>16142442972</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>L22985417424</t>
+          <t>P30185417240</t>
         </is>
       </c>
       <c r="C744" t="n">
@@ -11598,12 +11598,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>16142442972</t>
+          <t>16142442981</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>P30185417240</t>
+          <t>P40135417401</t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -11613,12 +11613,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>16142442981</t>
+          <t>16402637033</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>P40135417401</t>
+          <t>LO27365017436</t>
         </is>
       </c>
       <c r="C746" t="n">
@@ -11628,12 +11628,12 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>16402637033</t>
+          <t>16142442822</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>LO27365017436</t>
+          <t>NK81545317201</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -11643,12 +11643,12 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>16142442822</t>
+          <t>16029485532</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NK81545317201</t>
+          <t>NKFD18175716100</t>
         </is>
       </c>
       <c r="C748" t="n">
@@ -11658,12 +11658,12 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>16029485532</t>
+          <t>16313779685</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NKFD18175716100</t>
+          <t>LO731S5419303</t>
         </is>
       </c>
       <c r="C749" t="n">
@@ -11673,12 +11673,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>16313779685</t>
+          <t>16313779504</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>LO731S5419303</t>
+          <t>CKJ246165319405</t>
         </is>
       </c>
       <c r="C750" t="n">
@@ -11688,12 +11688,12 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>16313779504</t>
+          <t>16402637004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>CKJ246165319405</t>
+          <t>LO27365017260</t>
         </is>
       </c>
       <c r="C751" t="n">
@@ -11703,12 +11703,12 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>16402637004</t>
+          <t>16142441182</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>LO27365017260</t>
+          <t>CV50895417410</t>
         </is>
       </c>
       <c r="C752" t="n">
@@ -11718,12 +11718,12 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>16142441182</t>
+          <t>16142441183</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>CV50895417410</t>
+          <t>CV50905316001</t>
         </is>
       </c>
       <c r="C753" t="n">
@@ -11778,12 +11778,12 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>16142441183</t>
+          <t>16142440732</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>CV50905316001</t>
+          <t>CK23536S5419663</t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -11793,12 +11793,12 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>16142440732</t>
+          <t>16142440758</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>CK23536S5419663</t>
+          <t>CK235415317263</t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -11808,12 +11808,12 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>16142440758</t>
+          <t>16313779518</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>CK235415317263</t>
+          <t>CK241015118720</t>
         </is>
       </c>
       <c r="C759" t="n">
@@ -11823,12 +11823,12 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>16313779518</t>
+          <t>16142441202</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>CK241015118720</t>
+          <t>CV537S5418303</t>
         </is>
       </c>
       <c r="C760" t="n">
@@ -11838,12 +11838,12 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>16142441202</t>
+          <t>16142441294</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>CV537S5418303</t>
+          <t>CV800S5617411</t>
         </is>
       </c>
       <c r="C761" t="n">
@@ -11853,12 +11853,12 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>16142441294</t>
+          <t>16142441295</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>CV800S5617411</t>
+          <t>CV801S5517682</t>
         </is>
       </c>
       <c r="C762" t="n">
@@ -11868,12 +11868,12 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>16142441295</t>
+          <t>14173542386</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>CV801S5517682</t>
+          <t>469545217053</t>
         </is>
       </c>
       <c r="C763" t="n">
@@ -11883,12 +11883,12 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>14173542386</t>
+          <t>14173546940</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>469545217053</t>
+          <t>476285117016</t>
         </is>
       </c>
       <c r="C764" t="n">
@@ -11898,12 +11898,12 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>14173546940</t>
+          <t>16402636793</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>476285117016</t>
+          <t>SF309S5715746</t>
         </is>
       </c>
       <c r="C765" t="n">
@@ -11913,12 +11913,12 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>16402636793</t>
+          <t>16402636805</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>SF309S5715746</t>
+          <t>SF308S6115002</t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -11928,12 +11928,12 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>16402636805</t>
+          <t>16402636813</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>SF308S6115002</t>
+          <t>L36574916210</t>
         </is>
       </c>
       <c r="C767" t="n">
@@ -11943,12 +11943,12 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>16402636813</t>
+          <t>15478883628</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>L36574916210</t>
+          <t>406985015422</t>
         </is>
       </c>
       <c r="C768" t="n">
@@ -11958,12 +11958,12 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>15478883628</t>
+          <t>15478889754</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>406985015422</t>
+          <t>592624913423</t>
         </is>
       </c>
       <c r="C769" t="n">
@@ -11973,12 +11973,12 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>15478889754</t>
+          <t>12983808290</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>592624913423</t>
+          <t>401095418424</t>
         </is>
       </c>
       <c r="C770" t="n">
@@ -11988,12 +11988,12 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>12983808290</t>
+          <t>16142441304</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>401095418424</t>
+          <t>DK50575316010</t>
         </is>
       </c>
       <c r="C771" t="n">
@@ -12003,12 +12003,12 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>16142441304</t>
+          <t>11139424682</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>DK50575316010</t>
+          <t>360045517412</t>
         </is>
       </c>
       <c r="C772" t="n">
@@ -12018,12 +12018,12 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>11139424682</t>
+          <t>16313779563</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>360045517412</t>
+          <t>SF1089S5221001</t>
         </is>
       </c>
       <c r="C773" t="n">
@@ -12033,12 +12033,12 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>16313779563</t>
+          <t>16402636789</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>SF1089S5221001</t>
+          <t>SF308S6115703</t>
         </is>
       </c>
       <c r="C774" t="n">
@@ -12048,12 +12048,12 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>16402636789</t>
+          <t>16402636791</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>SF308S6115703</t>
+          <t>SF308S6115715</t>
         </is>
       </c>
       <c r="C775" t="n">
@@ -12063,12 +12063,12 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>16402636791</t>
+          <t>16283023672</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>SF308S6115715</t>
+          <t>SF29825217232</t>
         </is>
       </c>
       <c r="C776" t="n">
@@ -12078,12 +12078,12 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>16283023672</t>
+          <t>16283023674</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>SF29825217232</t>
+          <t>L29545120230</t>
         </is>
       </c>
       <c r="C777" t="n">
@@ -12093,12 +12093,12 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>16283023674</t>
+          <t>16200544264</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>L29545120230</t>
+          <t>ZS22511S5418241</t>
         </is>
       </c>
       <c r="C778" t="n">
@@ -12108,12 +12108,12 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>16200544264</t>
+          <t>16188774844</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>ZS22511S5418241</t>
+          <t>CV800S5617050</t>
         </is>
       </c>
       <c r="C779" t="n">
@@ -12123,12 +12123,12 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>16188774844</t>
+          <t>16402636744</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>CV800S5617050</t>
+          <t>DK50405318275</t>
         </is>
       </c>
       <c r="C780" t="n">
@@ -12138,12 +12138,12 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>16402636744</t>
+          <t>16402637208</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>DK50405318275</t>
+          <t>NK71635517242</t>
         </is>
       </c>
       <c r="C781" t="n">
@@ -12153,12 +12153,12 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>16402637208</t>
+          <t>16402636504</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>NK71635517242</t>
+          <t>CK245185713341</t>
         </is>
       </c>
       <c r="C782" t="n">
@@ -12168,12 +12168,12 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>16402636504</t>
+          <t>16142442640</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>CK245185713341</t>
+          <t>N5148S5220030</t>
         </is>
       </c>
       <c r="C783" t="n">
@@ -12183,12 +12183,12 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>16142442640</t>
+          <t>16142443070</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>N5148S5220030</t>
+          <t>ZS22509SP5320242</t>
         </is>
       </c>
       <c r="C784" t="n">
@@ -12198,12 +12198,12 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>16142443070</t>
+          <t>16402637404</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>ZS22509SP5320242</t>
+          <t>ZS225225320001</t>
         </is>
       </c>
       <c r="C785" t="n">
@@ -12603,12 +12603,12 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>16142442734</t>
+          <t>16188774845</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>N73345316420</t>
+          <t>CV801S5517001</t>
         </is>
       </c>
       <c r="C812" t="n">
@@ -12978,12 +12978,12 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>16142443001</t>
+          <t>16142443004</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>SF1077S5613432</t>
+          <t>SF1077S5613664</t>
         </is>
       </c>
       <c r="C837" t="n">
@@ -12993,12 +12993,12 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>16007027836</t>
+          <t>16142443001</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>409984920265</t>
+          <t>SF1077S5613432</t>
         </is>
       </c>
       <c r="C838" t="n">
@@ -13008,12 +13008,12 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>16056888049</t>
+          <t>16007027836</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>DK539S5516205</t>
+          <t>409984920265</t>
         </is>
       </c>
       <c r="C839" t="n">
@@ -13023,12 +13023,12 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>16283023687</t>
+          <t>16056888049</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>479545218038</t>
+          <t>DK539S5516205</t>
         </is>
       </c>
       <c r="C840" t="n">
@@ -13038,12 +13038,12 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>16283023680</t>
+          <t>16283023687</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>L29475418410</t>
+          <t>479545218038</t>
         </is>
       </c>
       <c r="C841" t="n">
@@ -13053,12 +13053,12 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>16258106768</t>
+          <t>16283023680</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>CK241025218770</t>
+          <t>L29475418410</t>
         </is>
       </c>
       <c r="C842" t="n">
@@ -13068,12 +13068,12 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>16258106753</t>
+          <t>16258106768</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>CK23503S5420320</t>
+          <t>CK241025218770</t>
         </is>
       </c>
       <c r="C843" t="n">
@@ -13083,12 +13083,12 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>16258106747</t>
+          <t>16258106753</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>451065316662</t>
+          <t>CK23503S5420320</t>
         </is>
       </c>
       <c r="C844" t="n">
@@ -13098,12 +13098,12 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>16283023705</t>
+          <t>16258106747</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>ZS221025518410</t>
+          <t>451065316662</t>
         </is>
       </c>
       <c r="C845" t="n">
@@ -13113,12 +13113,12 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>16283023697</t>
+          <t>16283023705</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>ZS22518S5220415</t>
+          <t>ZS221025518410</t>
         </is>
       </c>
       <c r="C846" t="n">
@@ -13128,12 +13128,12 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>16142441339</t>
+          <t>16283023697</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>DK70095216261</t>
+          <t>ZS22518S5220415</t>
         </is>
       </c>
       <c r="C847" t="n">
@@ -13143,12 +13143,12 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>16142441338</t>
+          <t>16142441339</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>DK548S5120500</t>
+          <t>DK70095216261</t>
         </is>
       </c>
       <c r="C848" t="n">
@@ -13158,12 +13158,12 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>16188774845</t>
+          <t>16142441338</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>CV801S5517001</t>
+          <t>DK548S5120500</t>
         </is>
       </c>
       <c r="C849" t="n">
@@ -13563,12 +13563,12 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>16142443004</t>
+          <t>16142440857</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>SF1077S5613664</t>
+          <t>CK235495019411</t>
         </is>
       </c>
       <c r="C876" t="n">
@@ -13578,12 +13578,12 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>16142440857</t>
+          <t>16142440856</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>CK235495019411</t>
+          <t>CK235495019342</t>
         </is>
       </c>
       <c r="C877" t="n">
@@ -13593,12 +13593,12 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>16142440856</t>
+          <t>16142442521</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>CK235495019342</t>
+          <t>LO27295116001</t>
         </is>
       </c>
       <c r="C878" t="n">
@@ -13608,12 +13608,12 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>16142442521</t>
+          <t>16313779615</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>LO27295116001</t>
+          <t>SF303SL6015726</t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -13623,12 +13623,12 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>16313779615</t>
+          <t>16313779613</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>SF303SL6015726</t>
+          <t>SF303SL6015026</t>
         </is>
       </c>
       <c r="C880" t="n">
@@ -13638,12 +13638,12 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>16313779613</t>
+          <t>16402636564</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>SF303SL6015026</t>
+          <t>591725615001</t>
         </is>
       </c>
       <c r="C881" t="n">
@@ -13653,12 +13653,12 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>16402636564</t>
+          <t>16025998870</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>591725615001</t>
+          <t>CK22522S5916070</t>
         </is>
       </c>
       <c r="C882" t="n">
@@ -13668,12 +13668,12 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>16025998870</t>
+          <t>16048321378</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>CK22522S5916070</t>
+          <t>CK235235415001</t>
         </is>
       </c>
       <c r="C883" t="n">
@@ -13683,12 +13683,12 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>16048321378</t>
+          <t>16142443054</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>CK235235415001</t>
+          <t>ZS221095117717</t>
         </is>
       </c>
       <c r="C884" t="n">
@@ -13698,12 +13698,12 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>16142443054</t>
+          <t>16200543946</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>ZS221095117717</t>
+          <t>CV800S5617001</t>
         </is>
       </c>
       <c r="C885" t="n">
@@ -13713,12 +13713,12 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>16313779579</t>
+          <t>16200544094</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>SF29515318614</t>
+          <t>LO712S5716001</t>
         </is>
       </c>
       <c r="C886" t="n">
@@ -13728,12 +13728,12 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>16200544094</t>
+          <t>16200544069</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>LO712S5716001</t>
+          <t>L993S5417610</t>
         </is>
       </c>
       <c r="C887" t="n">
@@ -13743,12 +13743,12 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>16200544069</t>
+          <t>16200544000</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>L993S5417610</t>
+          <t>L29275617275</t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -13758,12 +13758,12 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>16200544000</t>
+          <t>16258106935</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>L29275617275</t>
+          <t>SF29515318435</t>
         </is>
       </c>
       <c r="C889" t="n">
@@ -13773,12 +13773,12 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>16258106935</t>
+          <t>16029485417</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>SF29515318435</t>
+          <t>L6002S5317001</t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -13788,12 +13788,12 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>16029485417</t>
+          <t>16029485416</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>L6002S5317001</t>
+          <t>L6001S5617603</t>
         </is>
       </c>
       <c r="C891" t="n">
@@ -13803,12 +13803,12 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>16029485416</t>
+          <t>16056888056</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>L6001S5617603</t>
+          <t>L29225517400</t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -13818,12 +13818,12 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>16056888056</t>
+          <t>16056888051</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>L29225517400</t>
+          <t>289085114440</t>
         </is>
       </c>
       <c r="C893" t="n">
@@ -13833,12 +13833,12 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>16056888051</t>
+          <t>16200544113</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>289085114440</t>
+          <t>N81725418261</t>
         </is>
       </c>
       <c r="C894" t="n">
@@ -13848,12 +13848,12 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>16200544113</t>
+          <t>16142443033</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>N81725418261</t>
+          <t>SF1107S5520663</t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -13863,12 +13863,12 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>16142443033</t>
+          <t>16313779579</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>SF1107S5520663</t>
+          <t>SF29515318614</t>
         </is>
       </c>
       <c r="C896" t="n">
@@ -13983,12 +13983,12 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>16142441364</t>
+          <t>16142441412</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>L22965517301</t>
+          <t>L29225517300</t>
         </is>
       </c>
       <c r="C904" t="n">
@@ -13998,12 +13998,12 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>16142441361</t>
+          <t>16142441364</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>L22955318424</t>
+          <t>L22965517301</t>
         </is>
       </c>
       <c r="C905" t="n">
@@ -14013,12 +14013,12 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>16200543975</t>
+          <t>16142441361</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>348425318424</t>
+          <t>L22955318424</t>
         </is>
       </c>
       <c r="C906" t="n">
@@ -14028,12 +14028,12 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>16258106973</t>
+          <t>16200543975</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>460575315001</t>
+          <t>348425318424</t>
         </is>
       </c>
       <c r="C907" t="n">
@@ -14043,12 +14043,12 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>16258106962</t>
+          <t>16258106973</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>SF1079S5418022</t>
+          <t>460575315001</t>
         </is>
       </c>
       <c r="C908" t="n">
@@ -14058,12 +14058,12 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>16258106958</t>
+          <t>16258106962</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>SF29505416614</t>
+          <t>SF1079S5418022</t>
         </is>
       </c>
       <c r="C909" t="n">
@@ -14073,12 +14073,12 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>16258106956</t>
+          <t>16258106958</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>SF29505416219</t>
+          <t>SF29505416614</t>
         </is>
       </c>
       <c r="C910" t="n">
@@ -14088,12 +14088,12 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>16402636769</t>
+          <t>16258106956</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>SF309S5715016</t>
+          <t>SF29505416219</t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -14103,12 +14103,12 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>16402636762</t>
+          <t>16402636769</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>SF2010S5221242</t>
+          <t>SF309S5715016</t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -14118,12 +14118,12 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>16200543947</t>
+          <t>16402636762</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>DK10285316210</t>
+          <t>SF2010S5221242</t>
         </is>
       </c>
       <c r="C913" t="n">
@@ -14133,12 +14133,12 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>16200543946</t>
+          <t>16200543947</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>CV800S5617001</t>
+          <t>DK10285316210</t>
         </is>
       </c>
       <c r="C914" t="n">
@@ -14268,12 +14268,12 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>16200543909</t>
+          <t>16142441570</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>CKJ223024815820</t>
+          <t>L29385120220</t>
         </is>
       </c>
       <c r="C923" t="n">
@@ -14283,12 +14283,12 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>16200543898</t>
+          <t>16200543909</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>CK235145318260</t>
+          <t>CKJ223024815820</t>
         </is>
       </c>
       <c r="C924" t="n">
@@ -14298,12 +14298,12 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>16258107016</t>
+          <t>16200543898</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>L29535517232</t>
+          <t>CK235145318260</t>
         </is>
       </c>
       <c r="C925" t="n">
@@ -14313,12 +14313,12 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>16258107092</t>
+          <t>16258107016</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>451885318300</t>
+          <t>L29535517232</t>
         </is>
       </c>
       <c r="C926" t="n">
@@ -14328,12 +14328,12 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>16402636756</t>
+          <t>16258107092</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>SF29765119240</t>
+          <t>451885318300</t>
         </is>
       </c>
       <c r="C927" t="n">
@@ -14343,12 +14343,12 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>16200543859</t>
+          <t>16402636756</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>CK22520S5717601</t>
+          <t>SF29765119240</t>
         </is>
       </c>
       <c r="C928" t="n">
@@ -14358,12 +14358,12 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>16142441526</t>
+          <t>16200543859</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>L29235715400</t>
+          <t>CK22520S5717601</t>
         </is>
       </c>
       <c r="C929" t="n">
@@ -14373,12 +14373,12 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>16142441412</t>
+          <t>16142441526</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>L29225517300</t>
+          <t>L29235715400</t>
         </is>
       </c>
       <c r="C930" t="n">
@@ -14628,12 +14628,12 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>16142441570</t>
+          <t>16029485516</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>L29385120220</t>
+          <t>N6255S5720005</t>
         </is>
       </c>
       <c r="C947" t="n">
@@ -14643,12 +14643,12 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>16029485516</t>
+          <t>16029485497</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>N6255S5720005</t>
+          <t>N5144S5817005</t>
         </is>
       </c>
       <c r="C948" t="n">
@@ -14658,12 +14658,12 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>16029485497</t>
+          <t>16402636732</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>N5144S5817005</t>
+          <t>CV50675417970</t>
         </is>
       </c>
       <c r="C949" t="n">
@@ -14673,12 +14673,12 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>16402636732</t>
+          <t>16402636544</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>CV50675417970</t>
+          <t>CK24505S5517432</t>
         </is>
       </c>
       <c r="C950" t="n">
@@ -14688,12 +14688,12 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>16402636544</t>
+          <t>16402636525</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>CK24505S5517432</t>
+          <t>CK245155219438</t>
         </is>
       </c>
       <c r="C951" t="n">
@@ -14703,12 +14703,12 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>16402636525</t>
+          <t>16402636583</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>CK245155219438</t>
+          <t>CK23510S5219001</t>
         </is>
       </c>
       <c r="C952" t="n">
@@ -14718,12 +14718,12 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>16402636583</t>
+          <t>16142441054</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>CK23510S5219001</t>
+          <t>CKJ236485416540</t>
         </is>
       </c>
       <c r="C953" t="n">
@@ -14733,12 +14733,12 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>16142441054</t>
+          <t>16402637017</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>CKJ236485416540</t>
+          <t>377365314251</t>
         </is>
       </c>
       <c r="C954" t="n">
@@ -14748,12 +14748,12 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>16402637017</t>
+          <t>16142442734</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>377365314251</t>
+          <t>N73345316420</t>
         </is>
       </c>
       <c r="C955" t="n">
